--- a/AAPL_Model.xlsx
+++ b/AAPL_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Technology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A10EAB-AFA6-403A-BB29-97073E1B9FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7408EF74-3716-493F-8EF8-CB3CCD84CACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -13726,6 +13726,182 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>3880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>10120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347F9357-7D3F-067A-4ABE-A4F5CC450AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13177688" y="6070571"/>
+          <a:ext cx="6692927" cy="5318261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D8D102-FC34-D9E0-5B10-F296DD5F2129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13268738" y="12241696"/>
+          <a:ext cx="6765856" cy="5284304"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1005CD2F-B3F0-9275-F066-B23B376E52E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19829860" y="12013406"/>
+          <a:ext cx="6679406" cy="5179219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>14065</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73456EAE-C0FB-CECD-1713-E732C0B01888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13127182" y="24176182"/>
+          <a:ext cx="7893838" cy="5749636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15724,7 +15900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -16118,11 +16294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B27957-A42B-4AB7-A411-12A70E029F5D}">
   <dimension ref="B1:FA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BZ39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="CK4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CZ73" sqref="CZ73:DA74"/>
+      <selection pane="bottomRight" activeCell="CR57" sqref="CR57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -22487,265 +22663,305 @@
         <f t="shared" si="92"/>
         <v>211657</v>
       </c>
+      <c r="CR45" s="35">
+        <f>CR44*(1-CR57)</f>
+        <v>267198.03017283196</v>
+      </c>
+      <c r="CS45" s="35">
+        <f t="shared" ref="CS45:DA45" si="94">CS44*(1-CS57)</f>
+        <v>320637.63620739838</v>
+      </c>
+      <c r="CT45" s="35">
+        <f t="shared" si="94"/>
+        <v>384765.16344887804</v>
+      </c>
+      <c r="CU45" s="35">
+        <f t="shared" si="94"/>
+        <v>461718.19613865361</v>
+      </c>
+      <c r="CV45" s="35">
+        <f t="shared" si="94"/>
+        <v>554061.83536638436</v>
+      </c>
+      <c r="CW45" s="35">
+        <f t="shared" si="94"/>
+        <v>664874.20243966125</v>
+      </c>
+      <c r="CX45" s="35">
+        <f t="shared" si="94"/>
+        <v>797849.04292759346</v>
+      </c>
+      <c r="CY45" s="35">
+        <f t="shared" si="94"/>
+        <v>957418.8515131122</v>
+      </c>
+      <c r="CZ45" s="35">
+        <f t="shared" si="94"/>
+        <v>1148902.6218157345</v>
+      </c>
+      <c r="DA45" s="35">
+        <f t="shared" si="94"/>
+        <v>1378683.1461788812</v>
+      </c>
     </row>
     <row r="46" spans="2:156">
       <c r="B46" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C46" s="69">
-        <f t="shared" ref="C46:AT46" si="94">C44-C45</f>
+        <f t="shared" ref="C46:AT46" si="95">C44-C45</f>
         <v>6411</v>
       </c>
       <c r="D46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>3627</v>
       </c>
       <c r="E46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>3983</v>
       </c>
       <c r="F46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>3201</v>
       </c>
       <c r="G46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>6411</v>
       </c>
       <c r="H46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>5625</v>
       </c>
       <c r="I46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>6136</v>
       </c>
       <c r="J46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>7512</v>
       </c>
       <c r="K46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>10298</v>
       </c>
       <c r="L46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>10218</v>
       </c>
       <c r="M46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>11922</v>
       </c>
       <c r="N46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>11380</v>
       </c>
       <c r="O46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>20703</v>
       </c>
       <c r="P46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>18564</v>
       </c>
       <c r="Q46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>14994</v>
       </c>
       <c r="R46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>14401</v>
       </c>
       <c r="S46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>21060</v>
       </c>
       <c r="T46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>16349</v>
       </c>
       <c r="U46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>13024</v>
       </c>
       <c r="V46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>13871</v>
       </c>
       <c r="W46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>21846</v>
       </c>
       <c r="X46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>17947</v>
       </c>
       <c r="Y46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>14735</v>
       </c>
       <c r="Z46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>16009</v>
       </c>
       <c r="AA46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>29741</v>
       </c>
       <c r="AB46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>23656</v>
       </c>
       <c r="AC46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>19681</v>
       </c>
       <c r="AD46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>20548</v>
       </c>
       <c r="AE46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30423</v>
       </c>
       <c r="AF46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>19921</v>
       </c>
       <c r="AG46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>16106</v>
       </c>
       <c r="AH46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>17813</v>
       </c>
       <c r="AI46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>30176</v>
       </c>
       <c r="AJ46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>20591</v>
       </c>
       <c r="AK46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>17488</v>
       </c>
       <c r="AL46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>19931</v>
       </c>
       <c r="AM46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>33912</v>
       </c>
       <c r="AN46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>23422</v>
       </c>
       <c r="AO46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>20421</v>
       </c>
       <c r="AP46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>24084</v>
       </c>
       <c r="AQ46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>32031</v>
       </c>
       <c r="AR46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>21821</v>
       </c>
       <c r="AS46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>20227</v>
       </c>
       <c r="AT46" s="69">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>24313</v>
       </c>
       <c r="AU46" s="69">
-        <f t="shared" ref="AU46:BN46" si="95">AU44-AU45</f>
+        <f t="shared" ref="AU46:BN46" si="96">AU44-AU45</f>
         <v>35217</v>
       </c>
       <c r="AV46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>22370</v>
       </c>
       <c r="AW46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>22680</v>
       </c>
       <c r="AX46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>24689</v>
       </c>
       <c r="AY46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>44328</v>
       </c>
       <c r="AZ46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>38079</v>
       </c>
       <c r="BA46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>35255</v>
       </c>
       <c r="BB46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>35174</v>
       </c>
       <c r="BC46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>54243</v>
       </c>
       <c r="BD46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>42559</v>
       </c>
       <c r="BE46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>35885</v>
       </c>
       <c r="BF46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>38195</v>
       </c>
       <c r="BG46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>50332</v>
       </c>
       <c r="BH46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>41976</v>
       </c>
       <c r="BI46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>36413</v>
       </c>
       <c r="BJ46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>40427</v>
       </c>
       <c r="BK46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>54855</v>
       </c>
       <c r="BL46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>42271</v>
       </c>
       <c r="BM46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>39678</v>
       </c>
       <c r="BN46" s="69">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>43879</v>
       </c>
       <c r="BO46" s="69">
@@ -22753,15 +22969,15 @@
         <v>58275</v>
       </c>
       <c r="BP46" s="69">
-        <f t="shared" ref="BP46:BR46" si="96">BP44-BP45</f>
+        <f t="shared" ref="BP46:BR46" si="97">BP44-BP45</f>
         <v>44867</v>
       </c>
       <c r="BQ46" s="69">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>43718</v>
       </c>
       <c r="BR46" s="69">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>48523</v>
       </c>
       <c r="CA46" s="69">
@@ -22832,6 +23048,46 @@
         <f t="shared" si="92"/>
         <v>184103</v>
       </c>
+      <c r="CR46" s="75">
+        <f>CR44-CR45</f>
+        <v>232413.56982716796</v>
+      </c>
+      <c r="CS46" s="75">
+        <f t="shared" ref="CS46:DA46" si="98">CS44-CS45</f>
+        <v>278896.28379260155</v>
+      </c>
+      <c r="CT46" s="75">
+        <f t="shared" si="98"/>
+        <v>334675.54055112187</v>
+      </c>
+      <c r="CU46" s="75">
+        <f t="shared" si="98"/>
+        <v>401610.64866134623</v>
+      </c>
+      <c r="CV46" s="75">
+        <f t="shared" si="98"/>
+        <v>481932.77839361539</v>
+      </c>
+      <c r="CW46" s="75">
+        <f t="shared" si="98"/>
+        <v>578319.33407233853</v>
+      </c>
+      <c r="CX46" s="75">
+        <f t="shared" si="98"/>
+        <v>693983.20088680624</v>
+      </c>
+      <c r="CY46" s="75">
+        <f t="shared" si="98"/>
+        <v>832779.84106416744</v>
+      </c>
+      <c r="CZ46" s="75">
+        <f t="shared" si="98"/>
+        <v>999335.80927700084</v>
+      </c>
+      <c r="DA46" s="75">
+        <f t="shared" si="98"/>
+        <v>1199202.9711324009</v>
+      </c>
     </row>
     <row r="47" spans="2:156">
       <c r="B47" s="1" t="s">
@@ -23109,6 +23365,46 @@
         <f t="shared" si="92"/>
         <v>31942</v>
       </c>
+      <c r="CR47" s="75">
+        <f>CR44*CR58</f>
+        <v>40323.917847180106</v>
+      </c>
+      <c r="CS47" s="75">
+        <f t="shared" ref="CS47:DA47" si="99">CS44*CS58</f>
+        <v>48388.701416616124</v>
+      </c>
+      <c r="CT47" s="75">
+        <f t="shared" si="99"/>
+        <v>58066.441699939351</v>
+      </c>
+      <c r="CU47" s="75">
+        <f t="shared" si="99"/>
+        <v>69679.730039927221</v>
+      </c>
+      <c r="CV47" s="75">
+        <f t="shared" si="99"/>
+        <v>83615.676047912653</v>
+      </c>
+      <c r="CW47" s="75">
+        <f t="shared" si="99"/>
+        <v>100338.8112574952</v>
+      </c>
+      <c r="CX47" s="75">
+        <f t="shared" si="99"/>
+        <v>120406.57350899423</v>
+      </c>
+      <c r="CY47" s="75">
+        <f t="shared" si="99"/>
+        <v>144487.88821079308</v>
+      </c>
+      <c r="CZ47" s="75">
+        <f t="shared" si="99"/>
+        <v>173385.46585295169</v>
+      </c>
+      <c r="DA47" s="75">
+        <f t="shared" si="99"/>
+        <v>208062.55902354198</v>
+      </c>
     </row>
     <row r="48" spans="2:156">
       <c r="B48" s="1" t="s">
@@ -23386,277 +23682,317 @@
         <f t="shared" si="92"/>
         <v>26486</v>
       </c>
+      <c r="CR48" s="75">
+        <f>CR44*CR59</f>
+        <v>33436.205876288652</v>
+      </c>
+      <c r="CS48" s="75">
+        <f t="shared" ref="CS48:DA48" si="100">CS44*CS59</f>
+        <v>40123.447051546384</v>
+      </c>
+      <c r="CT48" s="75">
+        <f t="shared" si="100"/>
+        <v>48148.136461855662</v>
+      </c>
+      <c r="CU48" s="75">
+        <f t="shared" si="100"/>
+        <v>57777.763754226791</v>
+      </c>
+      <c r="CV48" s="75">
+        <f t="shared" si="100"/>
+        <v>69333.316505072144</v>
+      </c>
+      <c r="CW48" s="75">
+        <f t="shared" si="100"/>
+        <v>83199.979806086587</v>
+      </c>
+      <c r="CX48" s="75">
+        <f t="shared" si="100"/>
+        <v>99839.975767303898</v>
+      </c>
+      <c r="CY48" s="75">
+        <f t="shared" si="100"/>
+        <v>119807.97092076467</v>
+      </c>
+      <c r="CZ48" s="75">
+        <f t="shared" si="100"/>
+        <v>143769.56510491759</v>
+      </c>
+      <c r="DA48" s="75">
+        <f t="shared" si="100"/>
+        <v>172523.47812590108</v>
+      </c>
     </row>
     <row r="49" spans="2:156">
       <c r="B49" s="1" t="s">
         <v>1530</v>
       </c>
       <c r="C49" s="69">
-        <f t="shared" ref="C49:AT49" si="97">C46-SUM(C47:C48)</f>
+        <f t="shared" ref="C49:AT49" si="101">C46-SUM(C47:C48)</f>
         <v>4725</v>
       </c>
       <c r="D49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>2323</v>
       </c>
       <c r="E49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>2632</v>
       </c>
       <c r="F49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>2060</v>
       </c>
       <c r="G49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>4725</v>
       </c>
       <c r="H49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>3979</v>
       </c>
       <c r="I49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>4234</v>
       </c>
       <c r="J49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>5447</v>
       </c>
       <c r="K49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>7827</v>
       </c>
       <c r="L49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>7874</v>
       </c>
       <c r="M49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>9379</v>
       </c>
       <c r="N49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>8710</v>
       </c>
       <c r="O49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>17340</v>
       </c>
       <c r="P49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>15384</v>
       </c>
       <c r="Q49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>11573</v>
       </c>
       <c r="R49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>10944</v>
       </c>
       <c r="S49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>17210</v>
       </c>
       <c r="T49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>12558</v>
       </c>
       <c r="U49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>9201</v>
       </c>
       <c r="V49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>10030</v>
       </c>
       <c r="W49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>17463</v>
       </c>
       <c r="X49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>13593</v>
       </c>
       <c r="Y49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>10282</v>
       </c>
       <c r="Z49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>11165</v>
       </c>
       <c r="AA49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>24246</v>
       </c>
       <c r="AB49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>18278</v>
       </c>
       <c r="AC49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>14083</v>
       </c>
       <c r="AD49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>14623</v>
       </c>
       <c r="AE49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>24171</v>
       </c>
       <c r="AF49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>13987</v>
       </c>
       <c r="AG49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>10105</v>
       </c>
       <c r="AH49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>11761</v>
       </c>
       <c r="AI49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>23359</v>
       </c>
       <c r="AJ49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>14097</v>
       </c>
       <c r="AK49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>10768</v>
       </c>
       <c r="AL49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>13120</v>
       </c>
       <c r="AM49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>26274</v>
       </c>
       <c r="AN49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>15894</v>
       </c>
       <c r="AO49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>12612</v>
       </c>
       <c r="AP49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>16118</v>
       </c>
       <c r="AQ49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>23346</v>
       </c>
       <c r="AR49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>13415</v>
       </c>
       <c r="AS49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>11544</v>
       </c>
       <c r="AT49" s="69">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>15625</v>
       </c>
       <c r="AU49" s="69">
-        <f t="shared" ref="AU49:BQ49" si="98">AU46-SUM(AU47:AU48)</f>
+        <f t="shared" ref="AU49:BQ49" si="102">AU46-SUM(AU47:AU48)</f>
         <v>25569</v>
       </c>
       <c r="AV49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>12853</v>
       </c>
       <c r="AW49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>13091</v>
       </c>
       <c r="AX49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>14775</v>
       </c>
       <c r="AY49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>33534</v>
       </c>
       <c r="AZ49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>27503</v>
       </c>
       <c r="BA49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>24126</v>
       </c>
       <c r="BB49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>23786</v>
       </c>
       <c r="BC49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>41488</v>
       </c>
       <c r="BD49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>29979</v>
       </c>
       <c r="BE49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>23076</v>
       </c>
       <c r="BF49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>24994</v>
       </c>
       <c r="BG49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>36016</v>
       </c>
       <c r="BH49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>28318</v>
       </c>
       <c r="BI49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>22998</v>
       </c>
       <c r="BJ49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>26969</v>
       </c>
       <c r="BK49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>40373</v>
       </c>
       <c r="BL49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>27900</v>
       </c>
       <c r="BM49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>25352</v>
       </c>
       <c r="BN49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>29591</v>
       </c>
       <c r="BO49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>42832</v>
       </c>
       <c r="BP49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>29589</v>
       </c>
       <c r="BQ49" s="69">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>28202</v>
       </c>
       <c r="BR49" s="69">
@@ -23731,6 +24067,46 @@
         <f t="shared" si="92"/>
         <v>125675</v>
       </c>
+      <c r="CR49" s="75">
+        <f>CR46-SUM(CR47:CR48)</f>
+        <v>158653.44610369921</v>
+      </c>
+      <c r="CS49" s="75">
+        <f t="shared" ref="CS49:DA49" si="103">CS46-SUM(CS47:CS48)</f>
+        <v>190384.13532443903</v>
+      </c>
+      <c r="CT49" s="75">
+        <f t="shared" si="103"/>
+        <v>228460.96238932686</v>
+      </c>
+      <c r="CU49" s="75">
+        <f t="shared" si="103"/>
+        <v>274153.15486719221</v>
+      </c>
+      <c r="CV49" s="75">
+        <f t="shared" si="103"/>
+        <v>328983.78584063059</v>
+      </c>
+      <c r="CW49" s="75">
+        <f t="shared" si="103"/>
+        <v>394780.54300875677</v>
+      </c>
+      <c r="CX49" s="75">
+        <f t="shared" si="103"/>
+        <v>473736.6516105081</v>
+      </c>
+      <c r="CY49" s="75">
+        <f t="shared" si="103"/>
+        <v>568483.98193260969</v>
+      </c>
+      <c r="CZ49" s="75">
+        <f t="shared" si="103"/>
+        <v>682180.77831913158</v>
+      </c>
+      <c r="DA49" s="75">
+        <f t="shared" si="103"/>
+        <v>818616.93398295785</v>
+      </c>
     </row>
     <row r="50" spans="2:156">
       <c r="B50" s="1" t="s">
@@ -24008,277 +24384,317 @@
         <f t="shared" si="92"/>
         <v>71</v>
       </c>
+      <c r="CR50" s="75">
+        <f>CQ64*($DA$66)</f>
+        <v>2878.4050000000002</v>
+      </c>
+      <c r="CS50" s="75">
+        <f t="shared" ref="CS50:DA50" si="104">CR64*($DA$66)</f>
+        <v>14612.156458845326</v>
+      </c>
+      <c r="CT50" s="75">
+        <f t="shared" si="104"/>
+        <v>29503.18582138143</v>
+      </c>
+      <c r="CU50" s="75">
+        <f t="shared" si="104"/>
+        <v>48241.825784431247</v>
+      </c>
+      <c r="CV50" s="75">
+        <f t="shared" si="104"/>
+        <v>71660.752446250248</v>
+      </c>
+      <c r="CW50" s="75">
+        <f t="shared" si="104"/>
+        <v>100763.76466013333</v>
+      </c>
+      <c r="CX50" s="75">
+        <f t="shared" si="104"/>
+        <v>136760.3418262027</v>
+      </c>
+      <c r="CY50" s="75">
+        <f t="shared" si="104"/>
+        <v>181107.13744832409</v>
+      </c>
+      <c r="CZ50" s="75">
+        <f t="shared" si="104"/>
+        <v>235557.79736756839</v>
+      </c>
+      <c r="DA50" s="75">
+        <f t="shared" si="104"/>
+        <v>302222.76949364989</v>
+      </c>
     </row>
     <row r="51" spans="2:156">
       <c r="B51" s="1" t="s">
         <v>1532</v>
       </c>
       <c r="C51" s="69">
-        <f t="shared" ref="C51:AT51" si="99">C49+C50</f>
+        <f t="shared" ref="C51:AT51" si="105">C49+C50</f>
         <v>4758</v>
       </c>
       <c r="D51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>2386</v>
       </c>
       <c r="E51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>2692</v>
       </c>
       <c r="F51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>2230</v>
       </c>
       <c r="G51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>4758</v>
       </c>
       <c r="H51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>4029</v>
       </c>
       <c r="I51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>4292</v>
       </c>
       <c r="J51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>5461</v>
       </c>
       <c r="K51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>7963</v>
       </c>
       <c r="L51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>7900</v>
       </c>
       <c r="M51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>9551</v>
       </c>
       <c r="N51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>8791</v>
       </c>
       <c r="O51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>17477</v>
       </c>
       <c r="P51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>15532</v>
       </c>
       <c r="Q51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>11861</v>
       </c>
       <c r="R51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>10893</v>
       </c>
       <c r="S51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>17672</v>
       </c>
       <c r="T51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>12905</v>
       </c>
       <c r="U51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>9435</v>
       </c>
       <c r="V51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>10143</v>
       </c>
       <c r="W51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>17709</v>
       </c>
       <c r="X51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>13818</v>
       </c>
       <c r="Y51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>10484</v>
       </c>
       <c r="Z51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>11472</v>
       </c>
       <c r="AA51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>24416</v>
       </c>
       <c r="AB51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>18564</v>
       </c>
       <c r="AC51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>14473</v>
       </c>
       <c r="AD51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>15062</v>
       </c>
       <c r="AE51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>24573</v>
       </c>
       <c r="AF51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>14142</v>
       </c>
       <c r="AG51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>10469</v>
       </c>
       <c r="AH51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>12188</v>
       </c>
       <c r="AI51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>24180</v>
       </c>
       <c r="AJ51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>14684</v>
       </c>
       <c r="AK51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>11308</v>
       </c>
       <c r="AL51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>13917</v>
       </c>
       <c r="AM51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>27030</v>
       </c>
       <c r="AN51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>16168</v>
       </c>
       <c r="AO51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>13284</v>
       </c>
       <c r="AP51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>16421</v>
       </c>
       <c r="AQ51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>23906</v>
       </c>
       <c r="AR51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>13793</v>
       </c>
       <c r="AS51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>11911</v>
       </c>
       <c r="AT51" s="69">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>16127</v>
       </c>
       <c r="AU51" s="69">
-        <f t="shared" ref="AU51:BQ51" si="100">AU49+AU50</f>
+        <f t="shared" ref="AU51:BQ51" si="106">AU49+AU50</f>
         <v>25918</v>
       </c>
       <c r="AV51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>13135</v>
       </c>
       <c r="AW51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>13137</v>
       </c>
       <c r="AX51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>14901</v>
       </c>
       <c r="AY51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>33579</v>
       </c>
       <c r="AZ51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>28011</v>
       </c>
       <c r="BA51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>24369</v>
       </c>
       <c r="BB51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>23248</v>
       </c>
       <c r="BC51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>41241</v>
       </c>
       <c r="BD51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>30139</v>
       </c>
       <c r="BE51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>23066</v>
       </c>
       <c r="BF51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>24757</v>
       </c>
       <c r="BG51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>35623</v>
       </c>
       <c r="BH51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>28382</v>
       </c>
       <c r="BI51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>22733</v>
       </c>
       <c r="BJ51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>26998</v>
       </c>
       <c r="BK51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>40323</v>
       </c>
       <c r="BL51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>28058</v>
       </c>
       <c r="BM51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>25494</v>
       </c>
       <c r="BN51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>29610</v>
       </c>
       <c r="BO51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>42584</v>
       </c>
       <c r="BP51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>29310</v>
       </c>
       <c r="BQ51" s="69">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>28031</v>
       </c>
       <c r="BR51" s="69">
@@ -24353,6 +24769,46 @@
         <f t="shared" si="92"/>
         <v>125746</v>
       </c>
+      <c r="CR51" s="75">
+        <f>CR49+CR50</f>
+        <v>161531.85110369921</v>
+      </c>
+      <c r="CS51" s="75">
+        <f t="shared" ref="CS51:DA51" si="107">CS49+CS50</f>
+        <v>204996.29178328437</v>
+      </c>
+      <c r="CT51" s="75">
+        <f t="shared" si="107"/>
+        <v>257964.14821070828</v>
+      </c>
+      <c r="CU51" s="75">
+        <f t="shared" si="107"/>
+        <v>322394.98065162345</v>
+      </c>
+      <c r="CV51" s="75">
+        <f t="shared" si="107"/>
+        <v>400644.53828688082</v>
+      </c>
+      <c r="CW51" s="75">
+        <f t="shared" si="107"/>
+        <v>495544.30766889011</v>
+      </c>
+      <c r="CX51" s="75">
+        <f t="shared" si="107"/>
+        <v>610496.99343671079</v>
+      </c>
+      <c r="CY51" s="75">
+        <f t="shared" si="107"/>
+        <v>749591.11938093381</v>
+      </c>
+      <c r="CZ51" s="75">
+        <f t="shared" si="107"/>
+        <v>917738.57568669994</v>
+      </c>
+      <c r="DA51" s="75">
+        <f t="shared" si="107"/>
+        <v>1120839.7034766078</v>
+      </c>
     </row>
     <row r="52" spans="2:156">
       <c r="B52" s="1" t="s">
@@ -24630,277 +25086,317 @@
         <f t="shared" si="92"/>
         <v>29596</v>
       </c>
+      <c r="CR52" s="75">
+        <f>CR51*CR61</f>
+        <v>38018.677852695771</v>
+      </c>
+      <c r="CS52" s="75">
+        <f t="shared" ref="CS52:DA52" si="108">CS51*CS61</f>
+        <v>48248.614282904302</v>
+      </c>
+      <c r="CT52" s="75">
+        <f t="shared" si="108"/>
+        <v>60715.306494394434</v>
+      </c>
+      <c r="CU52" s="75">
+        <f t="shared" si="108"/>
+        <v>75879.963158791914</v>
+      </c>
+      <c r="CV52" s="75">
+        <f t="shared" si="108"/>
+        <v>94297.041298637938</v>
+      </c>
+      <c r="CW52" s="75">
+        <f t="shared" si="108"/>
+        <v>116632.96907868618</v>
+      </c>
+      <c r="CX52" s="75">
+        <f t="shared" si="108"/>
+        <v>143688.61846701201</v>
+      </c>
+      <c r="CY52" s="75">
+        <f t="shared" si="108"/>
+        <v>176426.27812573058</v>
+      </c>
+      <c r="CZ52" s="75">
+        <f t="shared" si="108"/>
+        <v>216002.02699110567</v>
+      </c>
+      <c r="DA52" s="75">
+        <f t="shared" si="108"/>
+        <v>263804.58912485238</v>
+      </c>
     </row>
     <row r="53" spans="2:156" s="2" customFormat="1" ht="15">
       <c r="B53" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C53" s="70">
-        <f t="shared" ref="C53:AT53" si="101">C51-C52</f>
+        <f t="shared" ref="C53:AT53" si="109">C51-C52</f>
         <v>3378</v>
       </c>
       <c r="D53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>1620</v>
       </c>
       <c r="E53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>1828</v>
       </c>
       <c r="F53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>1409</v>
       </c>
       <c r="G53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>3378</v>
       </c>
       <c r="H53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>3074</v>
       </c>
       <c r="I53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>3253</v>
       </c>
       <c r="J53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>4308</v>
       </c>
       <c r="K53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>6004</v>
       </c>
       <c r="L53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>5987</v>
       </c>
       <c r="M53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>7308</v>
       </c>
       <c r="N53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>6623</v>
       </c>
       <c r="O53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>13064</v>
       </c>
       <c r="P53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>11622</v>
       </c>
       <c r="Q53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>8824</v>
       </c>
       <c r="R53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>8223</v>
       </c>
       <c r="S53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>13078</v>
       </c>
       <c r="T53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>9547</v>
       </c>
       <c r="U53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>6900</v>
       </c>
       <c r="V53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>7512</v>
       </c>
       <c r="W53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>13072</v>
       </c>
       <c r="X53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>10223</v>
       </c>
       <c r="Y53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>7748</v>
       </c>
       <c r="Z53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>8467</v>
       </c>
       <c r="AA53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>18024</v>
       </c>
       <c r="AB53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>13569</v>
       </c>
       <c r="AC53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>10677</v>
       </c>
       <c r="AD53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>11124</v>
       </c>
       <c r="AE53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>18361</v>
       </c>
       <c r="AF53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>10516</v>
       </c>
       <c r="AG53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>7796</v>
       </c>
       <c r="AH53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>9014</v>
       </c>
       <c r="AI53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>17891</v>
       </c>
       <c r="AJ53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>11029</v>
       </c>
       <c r="AK53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>8717</v>
       </c>
       <c r="AL53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>10714</v>
       </c>
       <c r="AM53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>20065</v>
       </c>
       <c r="AN53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>13822</v>
       </c>
       <c r="AO53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>11519</v>
       </c>
       <c r="AP53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>14125</v>
       </c>
       <c r="AQ53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>19965</v>
       </c>
       <c r="AR53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>11561</v>
       </c>
       <c r="AS53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>10044</v>
       </c>
       <c r="AT53" s="70">
-        <f t="shared" si="101"/>
+        <f t="shared" si="109"/>
         <v>13686</v>
       </c>
       <c r="AU53" s="70">
-        <f t="shared" ref="AU53:BQ53" si="102">AU51-AU52</f>
+        <f t="shared" ref="AU53:BQ53" si="110">AU51-AU52</f>
         <v>22236</v>
       </c>
       <c r="AV53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>11249</v>
       </c>
       <c r="AW53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>11253</v>
       </c>
       <c r="AX53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>12673</v>
       </c>
       <c r="AY53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>28755</v>
       </c>
       <c r="AZ53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>23630</v>
       </c>
       <c r="BA53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>21744</v>
       </c>
       <c r="BB53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>20551</v>
       </c>
       <c r="BC53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>34630</v>
       </c>
       <c r="BD53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>25010</v>
       </c>
       <c r="BE53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>19442</v>
       </c>
       <c r="BF53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>20821</v>
       </c>
       <c r="BG53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>29998</v>
       </c>
       <c r="BH53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>24160</v>
       </c>
       <c r="BI53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>19881</v>
       </c>
       <c r="BJ53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>22956</v>
       </c>
       <c r="BK53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>33916</v>
       </c>
       <c r="BL53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>23636</v>
       </c>
       <c r="BM53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>21448</v>
       </c>
       <c r="BN53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>14736</v>
       </c>
       <c r="BO53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>36330</v>
       </c>
       <c r="BP53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>24780</v>
       </c>
       <c r="BQ53" s="70">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>23434</v>
       </c>
       <c r="BR53" s="70">
@@ -24979,65 +25475,242 @@
         <f t="shared" si="92"/>
         <v>96150</v>
       </c>
-      <c r="CR53" s="34"/>
-      <c r="CS53" s="34"/>
-      <c r="CT53" s="34"/>
-      <c r="CU53" s="34"/>
-      <c r="CV53" s="34"/>
-      <c r="CW53" s="34"/>
-      <c r="CX53" s="34"/>
-      <c r="CY53" s="34"/>
-      <c r="CZ53" s="34"/>
-      <c r="DA53" s="34"/>
-      <c r="DB53" s="34"/>
-      <c r="DC53" s="34"/>
-      <c r="DD53" s="34"/>
-      <c r="DE53" s="34"/>
-      <c r="DF53" s="34"/>
-      <c r="DG53" s="34"/>
-      <c r="DH53" s="34"/>
-      <c r="DI53" s="34"/>
-      <c r="DJ53" s="34"/>
-      <c r="DK53" s="34"/>
-      <c r="DL53" s="34"/>
-      <c r="DM53" s="34"/>
-      <c r="DN53" s="34"/>
-      <c r="DO53" s="34"/>
-      <c r="DP53" s="34"/>
-      <c r="DQ53" s="34"/>
-      <c r="DR53" s="34"/>
-      <c r="DS53" s="34"/>
-      <c r="DT53" s="34"/>
-      <c r="DU53" s="34"/>
-      <c r="DV53" s="34"/>
-      <c r="DW53" s="34"/>
-      <c r="DX53" s="34"/>
-      <c r="DY53" s="34"/>
-      <c r="DZ53" s="34"/>
-      <c r="EA53" s="34"/>
-      <c r="EB53" s="34"/>
-      <c r="EC53" s="34"/>
-      <c r="ED53" s="34"/>
-      <c r="EE53" s="34"/>
-      <c r="EF53" s="34"/>
-      <c r="EG53" s="34"/>
-      <c r="EH53" s="34"/>
-      <c r="EI53" s="34"/>
-      <c r="EJ53" s="34"/>
-      <c r="EK53" s="34"/>
-      <c r="EL53" s="34"/>
-      <c r="EM53" s="34"/>
-      <c r="EN53" s="34"/>
-      <c r="EO53" s="34"/>
-      <c r="EP53" s="34"/>
-      <c r="EQ53" s="34"/>
-      <c r="ER53" s="34"/>
-      <c r="ES53" s="34"/>
-      <c r="ET53" s="34"/>
-      <c r="EU53" s="34"/>
-      <c r="EV53" s="34"/>
-      <c r="EW53" s="34"/>
-      <c r="EX53" s="34"/>
+      <c r="CR53" s="76">
+        <f>CR51-CR52</f>
+        <v>123513.17325100343</v>
+      </c>
+      <c r="CS53" s="76">
+        <f t="shared" ref="CS53:DA53" si="111">CS51-CS52</f>
+        <v>156747.67750038006</v>
+      </c>
+      <c r="CT53" s="76">
+        <f t="shared" si="111"/>
+        <v>197248.84171631385</v>
+      </c>
+      <c r="CU53" s="76">
+        <f t="shared" si="111"/>
+        <v>246515.01749283154</v>
+      </c>
+      <c r="CV53" s="76">
+        <f t="shared" si="111"/>
+        <v>306347.4969882429</v>
+      </c>
+      <c r="CW53" s="76">
+        <f t="shared" si="111"/>
+        <v>378911.3385902039</v>
+      </c>
+      <c r="CX53" s="76">
+        <f t="shared" si="111"/>
+        <v>466808.37496969878</v>
+      </c>
+      <c r="CY53" s="76">
+        <f t="shared" si="111"/>
+        <v>573164.84125520324</v>
+      </c>
+      <c r="CZ53" s="76">
+        <f t="shared" si="111"/>
+        <v>701736.54869559431</v>
+      </c>
+      <c r="DA53" s="76">
+        <f t="shared" si="111"/>
+        <v>857035.11435175547</v>
+      </c>
+      <c r="DB53" s="34">
+        <f>DA53*(1+DA67)</f>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DC53" s="34">
+        <f t="shared" ref="DC53:EX53" si="112">DB53*(1+DB67)</f>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DD53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DE53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DF53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DG53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DH53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DI53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DJ53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DK53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DL53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DM53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DN53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DO53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DP53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DQ53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DR53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DS53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DT53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DU53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DV53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DW53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DX53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DY53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="DZ53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EA53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EB53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EC53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="ED53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EE53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EF53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EG53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EH53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EI53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EJ53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EK53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EL53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EM53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EN53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EO53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EP53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EQ53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="ER53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="ES53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="ET53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EU53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EV53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EW53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
+      <c r="EX53" s="34">
+        <f t="shared" si="112"/>
+        <v>876318.40442466992</v>
+      </c>
       <c r="EY53" s="34"/>
       <c r="EZ53" s="34"/>
     </row>
@@ -25323,342 +25996,342 @@
         <v>1534</v>
       </c>
       <c r="C55" s="39">
-        <f t="shared" ref="C55:AT55" si="103">C53/C54</f>
+        <f t="shared" ref="C55:AT55" si="113">C53/C54</f>
         <v>0.13526067109794185</v>
       </c>
       <c r="D55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>6.4590726047605754E-2</v>
       </c>
       <c r="E55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>7.2554078190117083E-2</v>
       </c>
       <c r="F55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>5.5524905422446404E-2</v>
       </c>
       <c r="G55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.13262661955241462</v>
       </c>
       <c r="H55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.12018140589569161</v>
       </c>
       <c r="I55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.12683744687487816</v>
       </c>
       <c r="J55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.16704796618713405</v>
       </c>
       <c r="K55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.23325563325563325</v>
       </c>
       <c r="L55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.2316143757979032</v>
       </c>
       <c r="M55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.28182484285218462</v>
       </c>
       <c r="N55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.25592178986823294</v>
       </c>
       <c r="O55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.5011316122597721</v>
       </c>
       <c r="P55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.44460596786534046</v>
       </c>
       <c r="Q55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.33647283126787414</v>
       </c>
       <c r="R55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.3141547277936963</v>
       </c>
       <c r="S55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.49745150247242298</v>
       </c>
       <c r="T55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.36286583048270621</v>
       </c>
       <c r="U55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.26826328680844447</v>
       </c>
       <c r="V55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.28993785943108574</v>
       </c>
       <c r="W55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.52100438421681949</v>
       </c>
       <c r="X55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.41738455885354997</v>
       </c>
       <c r="Y55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.32214876720302688</v>
       </c>
       <c r="Z55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.34783501766494124</v>
       </c>
       <c r="AA55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.7711791887728906</v>
       </c>
       <c r="AB55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.5855016181229773</v>
       </c>
       <c r="AC55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.46583769633507854</v>
       </c>
       <c r="AD55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.48335795602676629</v>
       </c>
       <c r="AE55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.82573304551178273</v>
       </c>
       <c r="AF55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.47674313174358507</v>
       </c>
       <c r="AG55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.35807459121807828</v>
       </c>
       <c r="AH55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.41191792715806791</v>
       </c>
       <c r="AI55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.8441141778721396</v>
       </c>
       <c r="AJ55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.5276276132612544</v>
       </c>
       <c r="AK55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.41948989412897014</v>
       </c>
       <c r="AL55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.51339307106234122</v>
       </c>
       <c r="AM55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.98107764521807161</v>
       </c>
       <c r="AN55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.68766169154228851</v>
       </c>
       <c r="AO55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.58984074965436017</v>
       </c>
       <c r="AP55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.71259206941781861</v>
       </c>
       <c r="AQ55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>1.0539513276672121</v>
       </c>
       <c r="AR55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.6183675652545999</v>
       </c>
       <c r="AS55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.54936279604003724</v>
       </c>
       <c r="AT55" s="39">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>0.74094526555140494</v>
       </c>
       <c r="AU55" s="39">
-        <f t="shared" ref="AU55:BQ55" si="104">AU53/AU54</f>
+        <f t="shared" ref="AU55:BQ55" si="114">AU53/AU54</f>
         <v>1.2591166477916196</v>
       </c>
       <c r="AV55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>0.64501146788990826</v>
       </c>
       <c r="AW55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>0.65234782608695652</v>
       </c>
       <c r="AX55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>0.73034808667588746</v>
       </c>
       <c r="AY55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.6979627989371124</v>
       </c>
       <c r="AZ55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.4104936429296246</v>
       </c>
       <c r="BA55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.3075951650730651</v>
       </c>
       <c r="BB55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.2305251182563919</v>
       </c>
       <c r="BC55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>2.1126159102000974</v>
       </c>
       <c r="BD55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.5363351557220959</v>
       </c>
       <c r="BE55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.2028707541916723</v>
       </c>
       <c r="BF55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.2839787863838183</v>
       </c>
       <c r="BG55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.8874976404706474</v>
       </c>
       <c r="BH55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.5303730917843796</v>
       </c>
       <c r="BI55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.2664670658682635</v>
       </c>
       <c r="BJ55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.4580792682926829</v>
       </c>
       <c r="BK55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>2.1867182462927142</v>
       </c>
       <c r="BL55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.5342074516422173</v>
       </c>
       <c r="BM55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.4029304029304028</v>
       </c>
       <c r="BN55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>0.96043798474874531</v>
       </c>
       <c r="BO55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>2.4088317199310438</v>
       </c>
       <c r="BP55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.6526610644257702</v>
       </c>
       <c r="BQ55" s="39">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>1.5724350801851976</v>
       </c>
       <c r="BR55" s="39">
         <f>BR53/BR54</f>
         <v>1.8494882600842866</v>
       </c>
-      <c r="CA55" s="69">
+      <c r="CA55" s="39">
         <f>SUM(C55:F55)</f>
         <v>0.32793038075811115</v>
       </c>
-      <c r="CB55" s="69">
+      <c r="CB55" s="39">
         <f>SUM(G55:J55)</f>
         <v>0.54669343851011842</v>
       </c>
-      <c r="CC55" s="69">
+      <c r="CC55" s="39">
         <f>SUM(K55:N55)</f>
         <v>1.0026166417739539</v>
       </c>
-      <c r="CD55" s="69">
+      <c r="CD55" s="39">
         <f>SUM(O55:R55)</f>
         <v>1.5963651391866829</v>
       </c>
-      <c r="CE55" s="69">
+      <c r="CE55" s="39">
         <f>SUM(S55:V55)</f>
         <v>1.4185184791946595</v>
       </c>
-      <c r="CF55" s="69">
+      <c r="CF55" s="39">
         <f>SUM(W55:Z55)</f>
         <v>1.6083727279383375</v>
       </c>
-      <c r="CG55" s="69">
+      <c r="CG55" s="39">
         <f>SUM(AA55:AD55)</f>
         <v>2.3058764592577128</v>
       </c>
-      <c r="CH55" s="69">
+      <c r="CH55" s="39">
         <f>SUM(AE55:AH55)</f>
         <v>2.0724686956315139</v>
       </c>
-      <c r="CI55" s="69">
+      <c r="CI55" s="39">
         <f>SUM(AI55:AL55)</f>
         <v>2.3046247563247055</v>
       </c>
-      <c r="CJ55" s="69">
+      <c r="CJ55" s="39">
         <f>SUM(AM55:AP55)</f>
         <v>2.9711721558325386</v>
       </c>
-      <c r="CK55" s="69">
+      <c r="CK55" s="39">
         <f>SUM(AQ55:AT55)</f>
         <v>2.962626954513254</v>
       </c>
-      <c r="CL55" s="69">
+      <c r="CL55" s="39">
         <f>SUM(AU55:AX55)</f>
         <v>3.2868240284443719</v>
       </c>
-      <c r="CM55" s="69">
+      <c r="CM55" s="39">
         <f>SUM(AY55:BB55)</f>
         <v>5.6465767251961942</v>
       </c>
-      <c r="CN55" s="69">
+      <c r="CN55" s="39">
         <f>SUM(BC55:BF55)</f>
         <v>6.1358006064976838</v>
       </c>
-      <c r="CO55" s="69">
+      <c r="CO55" s="39">
         <f>SUM(BG55:BJ55)</f>
         <v>6.1424170664159732</v>
       </c>
-      <c r="CP55" s="69">
+      <c r="CP55" s="39">
         <f>SUM(BK55:BN55)</f>
         <v>6.0842940856140793</v>
       </c>
-      <c r="CQ55" s="69">
+      <c r="CQ55" s="39">
         <f>SUM(BL55:BO55)</f>
         <v>6.3064075592524098</v>
       </c>
@@ -25739,271 +26412,271 @@
         <v>121</v>
       </c>
       <c r="C57" s="71">
-        <f t="shared" ref="C57:AT57" si="105">C46/C44</f>
+        <f t="shared" ref="C57:AT57" si="115">C46/C44</f>
         <v>0.40878658419945163</v>
       </c>
       <c r="D57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.39927344782034346</v>
       </c>
       <c r="E57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.40918430244503801</v>
       </c>
       <c r="F57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38089005235602097</v>
       </c>
       <c r="G57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.40878658419945163</v>
       </c>
       <c r="H57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.41669753315060376</v>
       </c>
       <c r="I57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.39082802547770701</v>
       </c>
       <c r="J57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.36926706975372364</v>
       </c>
       <c r="K57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38510152948655624</v>
       </c>
       <c r="L57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.4142376454372238</v>
       </c>
       <c r="M57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.41727625914388716</v>
       </c>
       <c r="N57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.40254686947293949</v>
       </c>
       <c r="O57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.44683055273778949</v>
       </c>
       <c r="P57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.4737406216505895</v>
       </c>
       <c r="Q57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.42811866487736633</v>
       </c>
       <c r="R57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.40040593894233445</v>
       </c>
       <c r="S57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38633695333137658</v>
       </c>
       <c r="T57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.37495126482122787</v>
       </c>
       <c r="U57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.36871160433711747</v>
       </c>
       <c r="V57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.37016972672929122</v>
       </c>
       <c r="W57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.37931034482758619</v>
       </c>
       <c r="X57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.39317793453971872</v>
       </c>
       <c r="Y57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.39364714682624491</v>
       </c>
       <c r="Z57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38005365239892697</v>
       </c>
       <c r="AA57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.39867826646469789</v>
       </c>
       <c r="AB57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.40779176004137219</v>
       </c>
       <c r="AC57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.3967543594395726</v>
       </c>
       <c r="AD57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.39898254402827127</v>
       </c>
       <c r="AE57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.40097796288485871</v>
       </c>
       <c r="AF57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.39403050022746605</v>
       </c>
       <c r="AG57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38023513858066954</v>
       </c>
       <c r="AH57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38019721676769402</v>
       </c>
       <c r="AI57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38513867085295656</v>
       </c>
       <c r="AJ57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38927329098608593</v>
       </c>
       <c r="AK57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38513037350246654</v>
       </c>
       <c r="AL57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.37906768862093232</v>
       </c>
       <c r="AM57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38408480853521798</v>
       </c>
       <c r="AN57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38310679294044525</v>
       </c>
       <c r="AO57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38338496198254013</v>
       </c>
       <c r="AP57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.38289348171701115</v>
       </c>
       <c r="AQ57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.37991934527339583</v>
       </c>
       <c r="AR57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.37612686374213566</v>
       </c>
       <c r="AS57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.37590365923916075</v>
       </c>
       <c r="AT57" s="71">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0.37965334166146159</v>
       </c>
       <c r="AU57" s="71">
-        <f t="shared" ref="AU57:BQ57" si="106">AU46/AU44</f>
+        <f t="shared" ref="AU57:BQ57" si="116">AU46/AU44</f>
         <v>0.38354806739345887</v>
       </c>
       <c r="AV57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.38361943305952362</v>
       </c>
       <c r="AW57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.37999497361146017</v>
       </c>
       <c r="AX57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.38160375900336951</v>
       </c>
       <c r="AY57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.39777815665969724</v>
       </c>
       <c r="AZ57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.42506474370423292</v>
       </c>
       <c r="BA57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.43292727853230839</v>
       </c>
       <c r="BB57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.42195297504798462</v>
       </c>
       <c r="BC57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.43763766186615033</v>
       </c>
       <c r="BD57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.43749871502292398</v>
       </c>
       <c r="BE57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.43256307332537758</v>
       </c>
       <c r="BF57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.42323205460629831</v>
       </c>
       <c r="BG57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.42962254809908323</v>
       </c>
       <c r="BH57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.44261672782487665</v>
       </c>
       <c r="BI57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.44516302553883397</v>
       </c>
       <c r="BJ57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.45170841806520817</v>
       </c>
       <c r="BK57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.45874973865774621</v>
       </c>
       <c r="BL57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.46578074554009236</v>
       </c>
       <c r="BM57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.46257155181458898</v>
       </c>
       <c r="BN57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.4622247972190035</v>
       </c>
       <c r="BO57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.46882542236524538</v>
       </c>
       <c r="BP57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.47050619238876246</v>
       </c>
       <c r="BQ57" s="71">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0.46490705687183631</v>
       </c>
       <c r="BR57" s="71">
@@ -26011,71 +26684,101 @@
         <v>0.47271257111682646</v>
       </c>
       <c r="CA57" s="71">
-        <f t="shared" ref="CA57:CQ57" si="107">CA46/CA44</f>
+        <f t="shared" ref="CA57:CQ57" si="117">CA46/CA44</f>
         <v>0.40139843841044165</v>
       </c>
       <c r="CB57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.39377539287083174</v>
       </c>
       <c r="CC57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.40478895878945764</v>
       </c>
       <c r="CD57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.43871239808827661</v>
       </c>
       <c r="CE57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.37624480720847231</v>
       </c>
       <c r="CF57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.38588035777783858</v>
       </c>
       <c r="CG57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.40059902017414373</v>
       </c>
       <c r="CH57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.39075955648097049</v>
       </c>
       <c r="CI57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.38469860491899105</v>
       </c>
       <c r="CJ57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.38343718820007905</v>
       </c>
       <c r="CK57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.37817768109034722</v>
       </c>
       <c r="CL57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.38233247727810865</v>
       </c>
       <c r="CM57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.41779359625167778</v>
       </c>
       <c r="CN57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.43324003366900932</v>
       </c>
       <c r="CO57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.44131129577207562</v>
       </c>
       <c r="CP57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>0.46206349815233932</v>
       </c>
       <c r="CQ57" s="71">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
+        <v>0.46518849807964424</v>
+      </c>
+      <c r="CR57" s="73">
+        <v>0.46518849807964424</v>
+      </c>
+      <c r="CS57" s="73">
+        <v>0.46518849807964424</v>
+      </c>
+      <c r="CT57" s="73">
+        <v>0.46518849807964424</v>
+      </c>
+      <c r="CU57" s="73">
+        <v>0.46518849807964424</v>
+      </c>
+      <c r="CV57" s="73">
+        <v>0.46518849807964424</v>
+      </c>
+      <c r="CW57" s="73">
+        <v>0.46518849807964424</v>
+      </c>
+      <c r="CX57" s="73">
+        <v>0.46518849807964424</v>
+      </c>
+      <c r="CY57" s="73">
+        <v>0.46518849807964424</v>
+      </c>
+      <c r="CZ57" s="73">
+        <v>0.46518849807964424</v>
+      </c>
+      <c r="DA57" s="73">
         <v>0.46518849807964424</v>
       </c>
     </row>
@@ -26084,271 +26787,271 @@
         <v>122</v>
       </c>
       <c r="C58" s="71">
-        <f t="shared" ref="C58:AT58" si="108">C47/C44</f>
+        <f t="shared" ref="C58:AT58" si="118">C47/C44</f>
         <v>2.5377797615252183E-2</v>
       </c>
       <c r="D58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.5116688683399386E-2</v>
       </c>
       <c r="E58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.5031847133757961E-2</v>
       </c>
       <c r="F58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.2722513089005235E-2</v>
       </c>
       <c r="G58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.5377797615252183E-2</v>
       </c>
       <c r="H58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.1557893177272388E-2</v>
       </c>
       <c r="I58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.9554140127388533E-2</v>
       </c>
       <c r="J58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.428353733470973E-2</v>
       </c>
       <c r="K58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.1502561609513481E-2</v>
       </c>
       <c r="L58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.3553735760327564E-2</v>
       </c>
       <c r="M58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.1980329704945574E-2</v>
       </c>
       <c r="N58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.2815705695083129E-2</v>
       </c>
       <c r="O58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>1.6359829926834005E-2</v>
       </c>
       <c r="P58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.1461746542132395E-2</v>
       </c>
       <c r="Q58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.5012134882791307E-2</v>
       </c>
       <c r="R58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.5190457654451427E-2</v>
       </c>
       <c r="S58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>1.8528030525388907E-2</v>
       </c>
       <c r="T58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.5663371786344976E-2</v>
       </c>
       <c r="U58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.3349375760835714E-2</v>
       </c>
       <c r="V58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.1169940222032452E-2</v>
       </c>
       <c r="W58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.3092683265617947E-2</v>
       </c>
       <c r="X58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.1152784471804758E-2</v>
       </c>
       <c r="Y58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>4.2824321436204314E-2</v>
       </c>
       <c r="Z58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>4.0025639199487213E-2</v>
       </c>
       <c r="AA58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>2.5402485288006541E-2</v>
       </c>
       <c r="AB58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.3063264954318224E-2</v>
       </c>
       <c r="AC58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>4.1003931055337166E-2</v>
       </c>
       <c r="AD58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>4.3105959107590144E-2</v>
       </c>
       <c r="AE58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.1684943061999156E-2</v>
       </c>
       <c r="AF58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>4.966671281919418E-2</v>
       </c>
       <c r="AG58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>6.0437225553614429E-2</v>
       </c>
       <c r="AH58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>5.4853581490651414E-2</v>
       </c>
       <c r="AI58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.6642799709001798E-2</v>
       </c>
       <c r="AJ58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>5.2480338777979432E-2</v>
       </c>
       <c r="AK58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>6.4680232558139539E-2</v>
       </c>
       <c r="AL58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>5.6999942943000058E-2</v>
       </c>
       <c r="AM58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>3.8587430487128087E-2</v>
       </c>
       <c r="AN58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>5.5252956474802495E-2</v>
       </c>
       <c r="AO58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>6.9482774805219194E-2</v>
       </c>
       <c r="AP58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>5.9618441971383149E-2</v>
       </c>
       <c r="AQ58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>4.6281579883762303E-2</v>
       </c>
       <c r="AR58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>6.8051366026027751E-2</v>
       </c>
       <c r="AS58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>7.9113159508632389E-2</v>
       </c>
       <c r="AT58" s="71">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>6.4178638351030604E-2</v>
       </c>
       <c r="AU58" s="71">
-        <f t="shared" ref="AU58:BQ58" si="109">AU47/AU44</f>
+        <f t="shared" ref="AU58:BQ58" si="119">AU47/AU44</f>
         <v>4.8475805661137676E-2</v>
       </c>
       <c r="AV58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>7.828443057294257E-2</v>
       </c>
       <c r="AW58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>7.9718522241769285E-2</v>
       </c>
       <c r="AX58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>7.694210021948128E-2</v>
       </c>
       <c r="AY58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>4.6330279345650982E-2</v>
       </c>
       <c r="AZ58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>5.8738167529916056E-2</v>
       </c>
       <c r="BA58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>7.0204091657047427E-2</v>
       </c>
       <c r="BB58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>6.9241842610364687E-2</v>
       </c>
       <c r="BC58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>5.0877405300738233E-2</v>
       </c>
       <c r="BD58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>6.5657188675754027E-2</v>
       </c>
       <c r="BE58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>8.1932038717920902E-2</v>
       </c>
       <c r="BF58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>7.4917447864725303E-2</v>
       </c>
       <c r="BG58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>6.5802277344350166E-2</v>
       </c>
       <c r="BH58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>7.863047787759922E-2</v>
       </c>
       <c r="BI58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>9.0981331833685827E-2</v>
       </c>
       <c r="BJ58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>8.1644282553800088E-2</v>
       </c>
       <c r="BK58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>6.4361279531674684E-2</v>
       </c>
       <c r="BL58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>8.7082520688021331E-2</v>
       </c>
       <c r="BM58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>9.3335043193396833E-2</v>
       </c>
       <c r="BN58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>8.1797113662698831E-2</v>
       </c>
       <c r="BO58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>6.6516492357200321E-2</v>
       </c>
       <c r="BP58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>8.9661175138162102E-2</v>
       </c>
       <c r="BQ58" s="71">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>9.4283040537666424E-2</v>
       </c>
       <c r="BR58" s="71">
@@ -26356,71 +27059,101 @@
         <v>8.6372847011144879E-2</v>
       </c>
       <c r="CA58" s="71">
-        <f t="shared" ref="CA58:CQ58" si="110">CA47/CA44</f>
+        <f t="shared" ref="CA58:CQ58" si="120">CA47/CA44</f>
         <v>3.1068640018645847E-2</v>
       </c>
       <c r="CB58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>2.7320812571866616E-2</v>
       </c>
       <c r="CC58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>2.2439006364954873E-2</v>
       </c>
       <c r="CD58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>2.1602729572929181E-2</v>
       </c>
       <c r="CE58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>2.6183371365045931E-2</v>
       </c>
       <c r="CF58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>3.3047949889220163E-2</v>
       </c>
       <c r="CG58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>3.4516398177267184E-2</v>
       </c>
       <c r="CH58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>4.6582482760539605E-2</v>
       </c>
       <c r="CI58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>5.0520428906706681E-2</v>
       </c>
       <c r="CJ58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>5.3600406634161032E-2</v>
       </c>
       <c r="CK58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>6.233136285716482E-2</v>
       </c>
       <c r="CL58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>6.8309564140393061E-2</v>
       </c>
       <c r="CM58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>5.9904269074427925E-2</v>
       </c>
       <c r="CN58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>6.6554605656799215E-2</v>
       </c>
       <c r="CO58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>7.8048971392045086E-2</v>
       </c>
       <c r="CP58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>8.0222997941360744E-2</v>
       </c>
       <c r="CQ58" s="71">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
+        <v>8.0710531635334551E-2</v>
+      </c>
+      <c r="CR58" s="73">
+        <v>8.0710531635334551E-2</v>
+      </c>
+      <c r="CS58" s="73">
+        <v>8.0710531635334551E-2</v>
+      </c>
+      <c r="CT58" s="73">
+        <v>8.0710531635334551E-2</v>
+      </c>
+      <c r="CU58" s="73">
+        <v>8.0710531635334551E-2</v>
+      </c>
+      <c r="CV58" s="73">
+        <v>8.0710531635334551E-2</v>
+      </c>
+      <c r="CW58" s="73">
+        <v>8.0710531635334551E-2</v>
+      </c>
+      <c r="CX58" s="73">
+        <v>8.0710531635334551E-2</v>
+      </c>
+      <c r="CY58" s="73">
+        <v>8.0710531635334551E-2</v>
+      </c>
+      <c r="CZ58" s="73">
+        <v>8.0710531635334551E-2</v>
+      </c>
+      <c r="DA58" s="73">
         <v>8.0710531635334551E-2</v>
       </c>
     </row>
@@ -26429,271 +27162,271 @@
         <v>123</v>
       </c>
       <c r="C59" s="71">
-        <f t="shared" ref="C59:AT59" si="111">C48/C44</f>
+        <f t="shared" ref="C59:AT59" si="121">C48/C44</f>
         <v>8.2127144041318628E-2</v>
       </c>
       <c r="D59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>0.10843240863055922</v>
       </c>
       <c r="E59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>0.10376001643723033</v>
       </c>
       <c r="F59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>0.10304616849119468</v>
       </c>
       <c r="G59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>8.2127144041318628E-2</v>
       </c>
       <c r="H59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>9.0377064967775395E-2</v>
       </c>
       <c r="I59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>9.1592356687898085E-2</v>
       </c>
       <c r="J59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.7225581281030325E-2</v>
       </c>
       <c r="K59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.0902359672413151E-2</v>
       </c>
       <c r="L59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.147200713503872E-2</v>
       </c>
       <c r="M59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>6.7026005390080856E-2</v>
       </c>
       <c r="N59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.1630703926423775E-2</v>
       </c>
       <c r="O59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>5.6223426067813435E-2</v>
       </c>
       <c r="P59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>5.9689685091614354E-2</v>
       </c>
       <c r="Q59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.2666533420894838E-2</v>
       </c>
       <c r="R59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.0928098759939939E-2</v>
       </c>
       <c r="S59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>5.209862048723217E-2</v>
       </c>
       <c r="T59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>6.1280187143086487E-2</v>
       </c>
       <c r="U59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.4880389547886644E-2</v>
       </c>
       <c r="V59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.1333262169086253E-2</v>
       </c>
       <c r="W59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>5.3008993992429768E-2</v>
       </c>
       <c r="X59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>6.4233448714016567E-2</v>
       </c>
       <c r="Y59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.6138063688822394E-2</v>
       </c>
       <c r="Z59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.4970918500581629E-2</v>
       </c>
       <c r="AA59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>4.8258019544497918E-2</v>
       </c>
       <c r="AB59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>5.9644888812273748E-2</v>
       </c>
       <c r="AC59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.1847596008466894E-2</v>
       </c>
       <c r="AD59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.1940350672802467E-2</v>
       </c>
       <c r="AE59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>5.0716997047659217E-2</v>
       </c>
       <c r="AF59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>6.770575785746781E-2</v>
       </c>
       <c r="AG59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>8.1236130128901268E-2</v>
       </c>
       <c r="AH59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.4319132587723047E-2</v>
       </c>
       <c r="AI59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>5.0363109596559076E-2</v>
       </c>
       <c r="AJ59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.0288868723532974E-2</v>
       </c>
       <c r="AK59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>8.3311310782241021E-2</v>
       </c>
       <c r="AL59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.2538465927461535E-2</v>
       </c>
       <c r="AM59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>4.7919993657481341E-2</v>
       </c>
       <c r="AN59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>6.788033433109246E-2</v>
       </c>
       <c r="AO59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.7123814887825021E-2</v>
       </c>
       <c r="AP59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>6.7027027027027022E-2</v>
       </c>
       <c r="AQ59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>5.6731111374688649E-2</v>
       </c>
       <c r="AR59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.6842195983797296E-2</v>
       </c>
       <c r="AS59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>8.2253898046795143E-2</v>
       </c>
       <c r="AT59" s="71">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>7.1486570893191756E-2</v>
       </c>
       <c r="AU59" s="71">
-        <f t="shared" ref="AU59:BQ59" si="112">AU48/AU44</f>
+        <f t="shared" ref="AU59:BQ59" si="122">AU48/AU44</f>
         <v>5.6600485738245894E-2</v>
       </c>
       <c r="AV59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>8.4921029616037591E-2</v>
       </c>
       <c r="AW59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>8.0941610119795587E-2</v>
       </c>
       <c r="AX59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>7.6292930229682532E-2</v>
       </c>
       <c r="AY59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>5.0529886305512431E-2</v>
       </c>
       <c r="AZ59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>5.9318628326486871E-2</v>
       </c>
       <c r="BA59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>6.645872731291598E-2</v>
       </c>
       <c r="BB59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>6.7370441458733207E-2</v>
       </c>
       <c r="BC59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>5.2031142845617009E-2</v>
       </c>
       <c r="BD59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>6.3662904253788108E-2</v>
       </c>
       <c r="BE59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>7.2469533142877809E-2</v>
       </c>
       <c r="BF59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>7.1360503512621062E-2</v>
       </c>
       <c r="BG59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>5.6395855028424126E-2</v>
       </c>
       <c r="BH59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>6.5386562065038595E-2</v>
       </c>
       <c r="BI59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>7.3022237979387991E-2</v>
       </c>
       <c r="BJ59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>6.8727792799839107E-2</v>
       </c>
       <c r="BK59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>5.6750993100564501E-2</v>
       </c>
       <c r="BL59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>7.1270371227397447E-2</v>
       </c>
       <c r="BM59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>7.3679424554367726E-2</v>
       </c>
       <c r="BN59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>6.8713789107763615E-2</v>
       </c>
       <c r="BO59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>5.7723250201126307E-2</v>
       </c>
       <c r="BP59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>7.0554431149655511E-2</v>
       </c>
       <c r="BQ59" s="71">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>7.0717597515844999E-2</v>
       </c>
       <c r="BR59" s="71">
@@ -26701,71 +27434,101 @@
         <v>6.8661834619281423E-2</v>
       </c>
       <c r="CA59" s="71">
-        <f t="shared" ref="CA59:CQ59" si="113">CA48/CA44</f>
+        <f t="shared" ref="CA59:CQ59" si="123">CA48/CA44</f>
         <v>9.6702016082041722E-2</v>
       </c>
       <c r="CB59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>8.4584131851284022E-2</v>
       </c>
       <c r="CC59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>7.0199262810741903E-2</v>
       </c>
       <c r="CD59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.4150075395506934E-2</v>
       </c>
       <c r="CE59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.3366684219764782E-2</v>
       </c>
       <c r="CF59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.5609015563883044E-2</v>
       </c>
       <c r="CG59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.1309714823609952E-2</v>
       </c>
       <c r="CH59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.5822972653369755E-2</v>
       </c>
       <c r="CI59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.6573893924984945E-2</v>
       </c>
       <c r="CJ59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.2896515371147807E-2</v>
       </c>
       <c r="CK59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>7.0126146348213125E-2</v>
       </c>
       <c r="CL59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>7.2549769593646979E-2</v>
       </c>
       <c r="CM59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.006555190163388E-2</v>
       </c>
       <c r="CN59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.3621243927915863E-2</v>
       </c>
       <c r="CO59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.5048201729783317E-2</v>
       </c>
       <c r="CP59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.6738271510222866E-2</v>
       </c>
       <c r="CQ59" s="71">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
+        <v>6.6924398625429551E-2</v>
+      </c>
+      <c r="CR59" s="73">
+        <v>6.6924398625429551E-2</v>
+      </c>
+      <c r="CS59" s="73">
+        <v>6.6924398625429551E-2</v>
+      </c>
+      <c r="CT59" s="73">
+        <v>6.6924398625429551E-2</v>
+      </c>
+      <c r="CU59" s="73">
+        <v>6.6924398625429551E-2</v>
+      </c>
+      <c r="CV59" s="73">
+        <v>6.6924398625429551E-2</v>
+      </c>
+      <c r="CW59" s="73">
+        <v>6.6924398625429551E-2</v>
+      </c>
+      <c r="CX59" s="73">
+        <v>6.6924398625429551E-2</v>
+      </c>
+      <c r="CY59" s="73">
+        <v>6.6924398625429551E-2</v>
+      </c>
+      <c r="CZ59" s="73">
+        <v>6.6924398625429551E-2</v>
+      </c>
+      <c r="DA59" s="73">
         <v>6.6924398625429551E-2</v>
       </c>
     </row>
@@ -26774,271 +27537,271 @@
         <v>124</v>
       </c>
       <c r="C60" s="71">
-        <f t="shared" ref="C60:AT60" si="114">C49/C44</f>
+        <f t="shared" ref="C60:AT60" si="124">C49/C44</f>
         <v>0.30128164254288081</v>
       </c>
       <c r="D60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.25572435050638487</v>
       </c>
       <c r="E60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.27039243887404973</v>
       </c>
       <c r="F60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.24512137077582105</v>
       </c>
       <c r="G60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.30128164254288081</v>
       </c>
       <c r="H60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.29476257500555597</v>
       </c>
       <c r="I60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.2696815286624204</v>
       </c>
       <c r="J60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.26775795113798356</v>
       </c>
       <c r="K60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.29269660820462962</v>
       </c>
       <c r="L60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.31921190254185755</v>
       </c>
       <c r="M60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.32826992404886074</v>
       </c>
       <c r="N60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.30810045985143264</v>
       </c>
       <c r="O60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.37424729674314205</v>
       </c>
       <c r="P60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.39258919001684273</v>
       </c>
       <c r="Q60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.33043999657368017</v>
       </c>
       <c r="R60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.30428738252794307</v>
       </c>
       <c r="S60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.31571030231875552</v>
       </c>
       <c r="T60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.28800770589179642</v>
       </c>
       <c r="U60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.26048183902839511</v>
       </c>
       <c r="V60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.26766652433817251</v>
       </c>
       <c r="W60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.30320866756953851</v>
       </c>
       <c r="X60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.29779170135389738</v>
       </c>
       <c r="Y60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.27468476170121819</v>
       </c>
       <c r="Z60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.26505709469885813</v>
       </c>
       <c r="AA60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.32501776163219348</v>
       </c>
       <c r="AB60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.31508360627478021</v>
       </c>
       <c r="AC60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.28390283237576858</v>
       </c>
       <c r="AD60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.28393623424787867</v>
       </c>
       <c r="AE60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.31857602277520036</v>
       </c>
       <c r="AF60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.27665802955080404</v>
       </c>
       <c r="AG60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.23856178289815383</v>
       </c>
       <c r="AH60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.25102450268931958</v>
       </c>
       <c r="AI60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.29813276154739571</v>
       </c>
       <c r="AJ60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.2665040834845735</v>
       </c>
       <c r="AK60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.23713883016208598</v>
       </c>
       <c r="AL60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.24952927975047073</v>
       </c>
       <c r="AM60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.29757738439060855</v>
       </c>
       <c r="AN60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.25997350213455028</v>
       </c>
       <c r="AO60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.23677837228949591</v>
       </c>
       <c r="AP60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.25624801271860098</v>
       </c>
       <c r="AQ60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.27690665401494485</v>
       </c>
       <c r="AR60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.2312333017323106</v>
       </c>
       <c r="AS60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.2145366016837332</v>
       </c>
       <c r="AT60" s="71">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0.24398813241723921</v>
       </c>
       <c r="AU60" s="71">
-        <f t="shared" ref="AU60:BQ60" si="115">AU49/AU44</f>
+        <f t="shared" ref="AU60:BQ60" si="125">AU49/AU44</f>
         <v>0.2784717759940753</v>
       </c>
       <c r="AV60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.22041397287054346</v>
       </c>
       <c r="AW60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.21933484124989527</v>
       </c>
       <c r="AX60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.2283687285542057</v>
       </c>
       <c r="AY60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.30091799100853384</v>
       </c>
       <c r="AZ60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.30700794784782998</v>
       </c>
       <c r="BA60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.29626445956234498</v>
       </c>
       <c r="BB60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.28534069097888676</v>
       </c>
       <c r="BC60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.33472911371979508</v>
       </c>
       <c r="BD60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.30817862209338187</v>
       </c>
       <c r="BE60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.27816150146457891</v>
       </c>
       <c r="BF60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.27695410322895198</v>
       </c>
       <c r="BG60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.30742441572630896</v>
       </c>
       <c r="BH60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.29859968788223878</v>
       </c>
       <c r="BI60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.28115945572576012</v>
       </c>
       <c r="BJ60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.30133634271156895</v>
       </c>
       <c r="BK60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.33763746602550698</v>
       </c>
       <c r="BL60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.30742785362467356</v>
       </c>
       <c r="BM60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.29555708406682446</v>
       </c>
       <c r="BN60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.31171389444854103</v>
       </c>
       <c r="BO60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.34458567980691873</v>
       </c>
       <c r="BP60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.31029058610094484</v>
       </c>
       <c r="BQ60" s="71">
-        <f t="shared" si="115"/>
+        <f t="shared" si="125"/>
         <v>0.29990641881832492</v>
       </c>
       <c r="BR60" s="71">
@@ -27046,71 +27809,101 @@
         <v>0.31767788948640013</v>
       </c>
       <c r="CA60" s="71">
-        <f t="shared" ref="CA60:CQ60" si="116">CA49/CA44</f>
+        <f t="shared" ref="CA60:CQ60" si="126">CA49/CA44</f>
         <v>0.2736277823097541</v>
       </c>
       <c r="CB60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.28187044844768111</v>
       </c>
       <c r="CC60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.31215068961376086</v>
       </c>
       <c r="CD60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.35295959311984054</v>
       </c>
       <c r="CE60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.28669475162366159</v>
       </c>
       <c r="CF60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.28722339232473537</v>
       </c>
       <c r="CG60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.30477290717326661</v>
       </c>
       <c r="CH60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.27835410106706115</v>
       </c>
       <c r="CI60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.26760428208729942</v>
       </c>
       <c r="CJ60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.26694026619477024</v>
       </c>
       <c r="CK60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.24572017188496928</v>
       </c>
       <c r="CL60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.24147314354406862</v>
       </c>
       <c r="CM60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.29782377527561593</v>
       </c>
       <c r="CN60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.3030641840842942</v>
       </c>
       <c r="CO60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.29821412265024722</v>
       </c>
       <c r="CP60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
         <v>0.31510222870075566</v>
       </c>
       <c r="CQ60" s="71">
-        <f t="shared" si="116"/>
+        <f t="shared" si="126"/>
+        <v>0.31755356781888011</v>
+      </c>
+      <c r="CR60" s="73">
+        <v>0.31755356781888011</v>
+      </c>
+      <c r="CS60" s="73">
+        <v>0.31755356781888011</v>
+      </c>
+      <c r="CT60" s="73">
+        <v>0.31755356781888011</v>
+      </c>
+      <c r="CU60" s="73">
+        <v>0.31755356781888011</v>
+      </c>
+      <c r="CV60" s="73">
+        <v>0.31755356781888011</v>
+      </c>
+      <c r="CW60" s="73">
+        <v>0.31755356781888011</v>
+      </c>
+      <c r="CX60" s="73">
+        <v>0.31755356781888011</v>
+      </c>
+      <c r="CY60" s="73">
+        <v>0.31755356781888011</v>
+      </c>
+      <c r="CZ60" s="73">
+        <v>0.31755356781888011</v>
+      </c>
+      <c r="DA60" s="73">
         <v>0.31755356781888011</v>
       </c>
     </row>
@@ -27119,271 +27912,271 @@
         <v>125</v>
       </c>
       <c r="C61" s="71">
-        <f t="shared" ref="C61:AT61" si="117">C52/C51</f>
+        <f t="shared" ref="C61:AT61" si="127">C52/C51</f>
         <v>0.2900378310214376</v>
       </c>
       <c r="D61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.32103939647946356</v>
       </c>
       <c r="E61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.3209509658246657</v>
       </c>
       <c r="F61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.36816143497757847</v>
       </c>
       <c r="G61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.2900378310214376</v>
       </c>
       <c r="H61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.23703152146934722</v>
       </c>
       <c r="I61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.24207828518173347</v>
       </c>
       <c r="J61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.21113349203442594</v>
       </c>
       <c r="K61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.24601280924274771</v>
       </c>
       <c r="L61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.24215189873417722</v>
       </c>
       <c r="M61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.23484451889854466</v>
       </c>
       <c r="N61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.24661585712660675</v>
       </c>
       <c r="O61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.2525032900383361</v>
       </c>
       <c r="P61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.25173834663919648</v>
       </c>
       <c r="Q61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.25604923699519433</v>
       </c>
       <c r="R61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.24511153952079318</v>
       </c>
       <c r="S61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.25995925758261657</v>
       </c>
       <c r="T61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26020922123208057</v>
       </c>
       <c r="U61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.2686804451510334</v>
       </c>
       <c r="V61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.25939071280686188</v>
       </c>
       <c r="W61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26184425998080074</v>
       </c>
       <c r="X61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26016789694601244</v>
       </c>
       <c r="Y61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26096909576497518</v>
       </c>
       <c r="Z61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26194211994421202</v>
       </c>
       <c r="AA61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26179554390563564</v>
       </c>
       <c r="AB61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26906916612798965</v>
       </c>
       <c r="AC61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26228148967042081</v>
       </c>
       <c r="AD61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26145266232903996</v>
       </c>
       <c r="AE61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.25279778618809262</v>
       </c>
       <c r="AF61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.25639937774006505</v>
       </c>
       <c r="AG61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.25532524596427547</v>
       </c>
       <c r="AH61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26042008532983263</v>
       </c>
       <c r="AI61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.26009098428453264</v>
       </c>
       <c r="AJ61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.24891037864342141</v>
       </c>
       <c r="AK61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.22912981959674567</v>
       </c>
       <c r="AL61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.23015017604368757</v>
       </c>
       <c r="AM61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.25767665556788755</v>
       </c>
       <c r="AN61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.14510143493320138</v>
       </c>
       <c r="AO61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.13286660644384221</v>
       </c>
       <c r="AP61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.13982096096461846</v>
       </c>
       <c r="AQ61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.16485401154521878</v>
       </c>
       <c r="AR61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.16182121365910243</v>
       </c>
       <c r="AS61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.15674586516665268</v>
       </c>
       <c r="AT61" s="71">
-        <f t="shared" si="117"/>
+        <f t="shared" si="127"/>
         <v>0.15136107149500838</v>
       </c>
       <c r="AU61" s="71">
-        <f t="shared" ref="AU61:BQ61" si="118">AU52/AU51</f>
+        <f t="shared" ref="AU61:BQ61" si="128">AU52/AU51</f>
         <v>0.14206343082027933</v>
       </c>
       <c r="AV61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.14358583936048724</v>
       </c>
       <c r="AW61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.14341173783968944</v>
       </c>
       <c r="AX61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.14952016643178309</v>
       </c>
       <c r="AY61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.14366121683194855</v>
       </c>
       <c r="AZ61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.1564028417407447</v>
       </c>
       <c r="BA61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.10771882309491568</v>
       </c>
       <c r="BB61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.11600997935306263</v>
       </c>
       <c r="BC61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.16030164157028201</v>
       </c>
       <c r="BD61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.17017817445834302</v>
       </c>
       <c r="BE61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.15711436746726784</v>
       </c>
       <c r="BF61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.1589853374803086</v>
       </c>
       <c r="BG61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.15790360160570419</v>
       </c>
       <c r="BH61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.14875625396377987</v>
       </c>
       <c r="BI61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.12545638499098227</v>
       </c>
       <c r="BJ61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.14971479368842136</v>
       </c>
       <c r="BK61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.15889194752374575</v>
       </c>
       <c r="BL61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.1576021099151757</v>
       </c>
       <c r="BM61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.15870400878638111</v>
       </c>
       <c r="BN61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.50233029381965555</v>
       </c>
       <c r="BO61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.14686267142588766</v>
       </c>
       <c r="BP61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.15455475946775846</v>
       </c>
       <c r="BQ61" s="71">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>0.16399700331775535</v>
       </c>
       <c r="BR61" s="71">
@@ -27391,71 +28184,101 @@
         <v>0.16182622930940399</v>
       </c>
       <c r="CA61" s="71">
-        <f t="shared" ref="CA61:CQ61" si="119">CA52/CA51</f>
+        <f t="shared" ref="CA61:CQ61" si="129">CA52/CA51</f>
         <v>0.31750372948781702</v>
       </c>
       <c r="CB61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.24417475728155341</v>
       </c>
       <c r="CC61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.24215757930127174</v>
       </c>
       <c r="CD61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.25160052364471064</v>
       </c>
       <c r="CE61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.26154919748778788</v>
       </c>
       <c r="CF61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.26126058747639436</v>
       </c>
       <c r="CG61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.26368337585327173</v>
       </c>
       <c r="CH61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.25557257381216192</v>
       </c>
       <c r="CI61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.24556476150353415</v>
       </c>
       <c r="CJ61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.18342180705869443</v>
       </c>
       <c r="CK61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.15943836804235059</v>
       </c>
       <c r="CL61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.14428164731484103</v>
       </c>
       <c r="CM61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.13302260844085087</v>
       </c>
       <c r="CN61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.16190867679504711</v>
       </c>
       <c r="CO61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.14719174228036858</v>
       </c>
       <c r="CP61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>0.24091185164189982</v>
       </c>
       <c r="CQ61" s="71">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
+        <v>0.23536335151813975</v>
+      </c>
+      <c r="CR61" s="73">
+        <v>0.23536335151813975</v>
+      </c>
+      <c r="CS61" s="73">
+        <v>0.23536335151813975</v>
+      </c>
+      <c r="CT61" s="73">
+        <v>0.23536335151813975</v>
+      </c>
+      <c r="CU61" s="73">
+        <v>0.23536335151813975</v>
+      </c>
+      <c r="CV61" s="73">
+        <v>0.23536335151813975</v>
+      </c>
+      <c r="CW61" s="73">
+        <v>0.23536335151813975</v>
+      </c>
+      <c r="CX61" s="73">
+        <v>0.23536335151813975</v>
+      </c>
+      <c r="CY61" s="73">
+        <v>0.23536335151813975</v>
+      </c>
+      <c r="CZ61" s="73">
+        <v>0.23536335151813975</v>
+      </c>
+      <c r="DA61" s="73">
         <v>0.23536335151813975</v>
       </c>
     </row>
@@ -27464,271 +28287,271 @@
         <v>126</v>
       </c>
       <c r="C62" s="71">
-        <f t="shared" ref="C62:AT62" si="120">C53/C44</f>
+        <f t="shared" ref="C62:AT62" si="130">C53/C44</f>
         <v>0.21539246317668814</v>
       </c>
       <c r="D62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.17833553500660501</v>
       </c>
       <c r="E62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.1877953564824327</v>
       </c>
       <c r="F62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.16765825797239409</v>
       </c>
       <c r="G62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.21539246317668814</v>
       </c>
       <c r="H62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.22772057189421438</v>
       </c>
       <c r="I62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.20719745222929936</v>
       </c>
       <c r="J62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.2117681757852824</v>
       </c>
       <c r="K62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.22452413896264165</v>
       </c>
       <c r="L62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.24271293631167146</v>
       </c>
       <c r="M62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.25578383675755134</v>
       </c>
       <c r="N62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.23427661832331093</v>
       </c>
       <c r="O62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.28195886301340295</v>
       </c>
       <c r="P62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.2965855152350329</v>
       </c>
       <c r="Q62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.25194871941295721</v>
       </c>
       <c r="R62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.2286325974531502</v>
       </c>
       <c r="S62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.23991047842676841</v>
       </c>
       <c r="T62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.2189528243469486</v>
       </c>
       <c r="U62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.19534014664666083</v>
       </c>
       <c r="V62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.20046968403074295</v>
       </c>
       <c r="W62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.2269680869535021</v>
       </c>
       <c r="X62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.22396266923717303</v>
       </c>
       <c r="Y62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.20698867279333191</v>
       </c>
       <c r="Z62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.20100657597986848</v>
       </c>
       <c r="AA62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.24161181785278624</v>
       </c>
       <c r="AB62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.2339079469057059</v>
       </c>
       <c r="AC62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.21524039915331117</v>
       </c>
       <c r="AD62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.21599580590668144</v>
       </c>
       <c r="AE62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.24199968367777308</v>
       </c>
       <c r="AF62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.20800284827026921</v>
       </c>
       <c r="AG62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.18405023844374144</v>
       </c>
       <c r="AH62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.19239306753180227</v>
       </c>
       <c r="AI62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.22834424576584855</v>
       </c>
       <c r="AJ62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.20850347852389595</v>
       </c>
       <c r="AK62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.19197057787174066</v>
       </c>
       <c r="AL62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.20376956579623043</v>
       </c>
       <c r="AM62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.22725470875380835</v>
       </c>
       <c r="AN62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.22608240509020724</v>
       </c>
       <c r="AO62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.21625833098657654</v>
       </c>
       <c r="AP62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.22456279809220986</v>
       </c>
       <c r="AQ62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.23680464950776894</v>
       </c>
       <c r="AR62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.19927604929759546</v>
       </c>
       <c r="AS62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.18666022412607555</v>
       </c>
       <c r="AT62" s="71">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>0.2137101811367895</v>
       </c>
       <c r="AU62" s="71">
-        <f t="shared" ref="AU62:BQ62" si="121">AU53/AU44</f>
+        <f t="shared" ref="AU62:BQ62" si="131">AU53/AU44</f>
         <v>0.2421720994565395</v>
       </c>
       <c r="AV62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.19290724195290929</v>
       </c>
       <c r="AW62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.18853983412917819</v>
       </c>
       <c r="AX62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.19587931620761073</v>
       </c>
       <c r="AY62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.25803354301456405</v>
       </c>
       <c r="AZ62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.26377478121093051</v>
       </c>
       <c r="BA62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.26701377802883319</v>
       </c>
       <c r="BB62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.2465331094049904</v>
       </c>
       <c r="BC62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.27939812013393039</v>
       </c>
       <c r="BD62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.25709821336787353</v>
       </c>
       <c r="BE62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.23435673043310551</v>
       </c>
       <c r="BF62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.23071382665159676</v>
       </c>
       <c r="BG62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.2560561312460522</v>
       </c>
       <c r="BH62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.25475557805052934</v>
       </c>
       <c r="BI62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.24305292370135825</v>
       </c>
       <c r="BJ62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.25649735189613176</v>
       </c>
       <c r="BK62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.28363788417311309</v>
       </c>
       <c r="BL62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.26044318094167684</v>
       </c>
       <c r="BM62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.25004371801298714</v>
       </c>
       <c r="BN62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.15523016959865163</v>
       </c>
       <c r="BO62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.29227674979887369</v>
       </c>
       <c r="BP62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.25986010759341016</v>
       </c>
       <c r="BQ62" s="71">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0.24920243311072354</v>
       </c>
       <c r="BR62" s="71">
@@ -27736,71 +28559,101 @@
         <v>0.26934767360299278</v>
       </c>
       <c r="CA62" s="71">
-        <f t="shared" ref="CA62:CQ62" si="122">CA53/CA44</f>
+        <f t="shared" ref="CA62:CQ62" si="132">CA53/CA44</f>
         <v>0.19193567183311969</v>
       </c>
       <c r="CB62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.21484093522422384</v>
       </c>
       <c r="CC62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.2394664153941376</v>
       </c>
       <c r="CD62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.26665090602397323</v>
       </c>
       <c r="CE62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.21670469837926393</v>
       </c>
       <c r="CF62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.21614376760852322</v>
       </c>
       <c r="CG62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.22845773698735639</v>
       </c>
       <c r="CH62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.211867983064288</v>
       </c>
       <c r="CI62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.21092420845075338</v>
       </c>
       <c r="CJ62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.22414202074587247</v>
       </c>
       <c r="CK62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.21238094505984456</v>
       </c>
       <c r="CL62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.20913611278072236</v>
       </c>
       <c r="CM62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.25881793355694238</v>
       </c>
       <c r="CN62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.25328577078706382</v>
       </c>
       <c r="CO62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.25306234264320282</v>
       </c>
       <c r="CP62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
         <v>0.23971255769943867</v>
       </c>
       <c r="CQ62" s="71">
-        <f t="shared" si="122"/>
+        <f t="shared" si="132"/>
+        <v>0.24295027289266222</v>
+      </c>
+      <c r="CR62" s="73">
+        <v>0.24295027289266222</v>
+      </c>
+      <c r="CS62" s="73">
+        <v>0.24295027289266222</v>
+      </c>
+      <c r="CT62" s="73">
+        <v>0.24295027289266222</v>
+      </c>
+      <c r="CU62" s="73">
+        <v>0.24295027289266222</v>
+      </c>
+      <c r="CV62" s="73">
+        <v>0.24295027289266222</v>
+      </c>
+      <c r="CW62" s="73">
+        <v>0.24295027289266222</v>
+      </c>
+      <c r="CX62" s="73">
+        <v>0.24295027289266222</v>
+      </c>
+      <c r="CY62" s="73">
+        <v>0.24295027289266222</v>
+      </c>
+      <c r="CZ62" s="73">
+        <v>0.24295027289266222</v>
+      </c>
+      <c r="DA62" s="73">
         <v>0.24295027289266222</v>
       </c>
     </row>
@@ -27901,6 +28754,46 @@
         <f>BO64</f>
         <v>30299</v>
       </c>
+      <c r="CR64" s="75">
+        <f>CQ64+CR53</f>
+        <v>153812.17325100343</v>
+      </c>
+      <c r="CS64" s="75">
+        <f t="shared" ref="CS64:DA64" si="133">CR64+CS53</f>
+        <v>310559.85075138346</v>
+      </c>
+      <c r="CT64" s="75">
+        <f t="shared" si="133"/>
+        <v>507808.69246769731</v>
+      </c>
+      <c r="CU64" s="75">
+        <f t="shared" si="133"/>
+        <v>754323.70996052888</v>
+      </c>
+      <c r="CV64" s="75">
+        <f t="shared" si="133"/>
+        <v>1060671.2069487718</v>
+      </c>
+      <c r="CW64" s="75">
+        <f t="shared" si="133"/>
+        <v>1439582.5455389759</v>
+      </c>
+      <c r="CX64" s="75">
+        <f t="shared" si="133"/>
+        <v>1906390.9205086746</v>
+      </c>
+      <c r="CY64" s="75">
+        <f t="shared" si="133"/>
+        <v>2479555.7617638777</v>
+      </c>
+      <c r="CZ64" s="75">
+        <f t="shared" si="133"/>
+        <v>3181292.3104594722</v>
+      </c>
+      <c r="DA64" s="75">
+        <f t="shared" si="133"/>
+        <v>4038327.4248112277</v>
+      </c>
     </row>
     <row r="65" spans="2:156">
       <c r="B65" s="1" t="s">
@@ -27973,27 +28866,27 @@
         <v>18763</v>
       </c>
       <c r="CL65" s="1">
-        <f t="shared" ref="CL65:CL73" si="123">AX65</f>
+        <f t="shared" ref="CL65:CL73" si="134">AX65</f>
         <v>52927</v>
       </c>
       <c r="CM65" s="1">
-        <f t="shared" ref="CM65:CM73" si="124">BB65</f>
+        <f t="shared" ref="CM65:CM73" si="135">BB65</f>
         <v>27699</v>
       </c>
       <c r="CN65" s="1">
-        <f t="shared" ref="CN65:CN73" si="125">BF65</f>
+        <f t="shared" ref="CN65:CN73" si="136">BF65</f>
         <v>24658</v>
       </c>
       <c r="CO65" s="1">
-        <f t="shared" ref="CO65:CO73" si="126">BJ65</f>
+        <f t="shared" ref="CO65:CO73" si="137">BJ65</f>
         <v>31590</v>
       </c>
       <c r="CP65" s="1">
-        <f t="shared" ref="CP65:CP73" si="127">BN65</f>
+        <f t="shared" ref="CP65:CP73" si="138">BN65</f>
         <v>35228</v>
       </c>
       <c r="CQ65" s="1">
-        <f t="shared" ref="CQ65:CQ73" si="128">BO65</f>
+        <f t="shared" ref="CQ65:CQ73" si="139">BO65</f>
         <v>23476</v>
       </c>
     </row>
@@ -28068,27 +28961,27 @@
         <v>39777</v>
       </c>
       <c r="CL66" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="134"/>
         <v>16120</v>
       </c>
       <c r="CM66" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="135"/>
         <v>26278</v>
       </c>
       <c r="CN66" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>28184</v>
       </c>
       <c r="CO66" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="137"/>
         <v>29508</v>
       </c>
       <c r="CP66" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>33410</v>
       </c>
       <c r="CQ66" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>29639</v>
       </c>
       <c r="CS66" s="47" t="s">
@@ -28108,7 +29001,7 @@
         <v>173</v>
       </c>
       <c r="DA66" s="51">
-        <v>0.06</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="DB66" s="48"/>
     </row>
@@ -28183,27 +29076,27 @@
         <v>33180</v>
       </c>
       <c r="CL67" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="134"/>
         <v>4061</v>
       </c>
       <c r="CM67" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="135"/>
         <v>6580</v>
       </c>
       <c r="CN67" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>32748</v>
       </c>
       <c r="CO67" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="137"/>
         <v>31477</v>
       </c>
       <c r="CP67" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>32833</v>
       </c>
       <c r="CQ67" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>29667</v>
       </c>
       <c r="CS67" s="48">
@@ -28225,7 +29118,7 @@
         <v>175</v>
       </c>
       <c r="DA67" s="51">
-        <v>2.5000000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="DB67" s="48"/>
     </row>
@@ -28300,27 +29193,27 @@
         <v>5718</v>
       </c>
       <c r="CL68" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="134"/>
         <v>21325</v>
       </c>
       <c r="CM68" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="135"/>
         <v>25228</v>
       </c>
       <c r="CN68" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>4946</v>
       </c>
       <c r="CO68" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="137"/>
         <v>6331</v>
       </c>
       <c r="CP68" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>7286</v>
       </c>
       <c r="CQ68" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>6911</v>
       </c>
       <c r="CS68" s="52">
@@ -28346,7 +29239,7 @@
         <v>176</v>
       </c>
       <c r="DA68" s="51">
-        <v>4.3400000000000001E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="DB68" s="48"/>
     </row>
@@ -28421,27 +29314,27 @@
         <v>14585</v>
       </c>
       <c r="CL69" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="134"/>
         <v>11264</v>
       </c>
       <c r="CM69" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="135"/>
         <v>14111</v>
       </c>
       <c r="CN69" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>21223</v>
       </c>
       <c r="CO69" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="137"/>
         <v>14695</v>
       </c>
       <c r="CP69" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>14287</v>
       </c>
       <c r="CQ69" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>13248</v>
       </c>
       <c r="CS69" s="54">
@@ -28459,7 +29352,7 @@
       </c>
       <c r="DA69" s="51">
         <f>13.4%-DA68</f>
-        <v>9.0600000000000014E-2</v>
+        <v>9.4100000000000017E-2</v>
       </c>
       <c r="DB69" s="48"/>
     </row>
@@ -28534,27 +29427,27 @@
         <v>77723</v>
       </c>
       <c r="CL70" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="134"/>
         <v>100887</v>
       </c>
       <c r="CM70" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="135"/>
         <v>127877</v>
       </c>
       <c r="CN70" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>120805</v>
       </c>
       <c r="CO70" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="137"/>
         <v>100544</v>
       </c>
       <c r="CP70" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>91479</v>
       </c>
       <c r="CQ70" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>87593</v>
       </c>
       <c r="CS70" s="48"/>
@@ -28644,27 +29537,27 @@
         <v>49834</v>
       </c>
       <c r="CL71" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="134"/>
         <v>36766</v>
       </c>
       <c r="CM71" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="135"/>
         <v>39440</v>
       </c>
       <c r="CN71" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>42117</v>
       </c>
       <c r="CO71" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="137"/>
         <v>43715</v>
       </c>
       <c r="CP71" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>45680</v>
       </c>
       <c r="CQ71" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>46069</v>
       </c>
       <c r="CS71" s="48"/>
@@ -28679,7 +29572,7 @@
       </c>
       <c r="DA71" s="51">
         <f>+DA68+(DA69*DA70)</f>
-        <v>0.14396600000000004</v>
+        <v>0.14435100000000003</v>
       </c>
       <c r="DB71" s="55"/>
     </row>
@@ -28754,27 +29647,27 @@
         <v>83727</v>
       </c>
       <c r="CL72" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="134"/>
         <v>42522</v>
       </c>
       <c r="CM72" s="1">
-        <f t="shared" si="124"/>
+        <f t="shared" si="135"/>
         <v>48849</v>
       </c>
       <c r="CN72" s="1">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>54428</v>
       </c>
       <c r="CO72" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="137"/>
         <v>64758</v>
       </c>
       <c r="CP72" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>74834</v>
       </c>
       <c r="CQ72" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>77183</v>
       </c>
       <c r="CS72" s="55"/>
@@ -28796,87 +29689,87 @@
       <c r="AV73" s="70"/>
       <c r="AW73" s="70"/>
       <c r="AX73" s="70">
-        <f t="shared" ref="AX73" si="129">SUM(AX64:AX72)</f>
+        <f t="shared" ref="AX73" si="140">SUM(AX64:AX72)</f>
         <v>323888</v>
       </c>
       <c r="AY73" s="70">
-        <f t="shared" ref="AY73:BR73" si="130">SUM(AY64:AY72)</f>
+        <f t="shared" ref="AY73:BR73" si="141">SUM(AY64:AY72)</f>
         <v>354054</v>
       </c>
       <c r="AZ73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>337158</v>
       </c>
       <c r="BA73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>329840</v>
       </c>
       <c r="BB73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>351002</v>
       </c>
       <c r="BC73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>381191</v>
       </c>
       <c r="BD73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>350662</v>
       </c>
       <c r="BE73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>336309</v>
       </c>
       <c r="BF73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>352755</v>
       </c>
       <c r="BG73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>346747</v>
       </c>
       <c r="BH73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>332160</v>
       </c>
       <c r="BI73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>335038</v>
       </c>
       <c r="BJ73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>352583</v>
       </c>
       <c r="BK73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>353514</v>
       </c>
       <c r="BL73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>337411</v>
       </c>
       <c r="BM73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>331612</v>
       </c>
       <c r="BN73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>364980</v>
       </c>
       <c r="BO73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>344085</v>
       </c>
       <c r="BP73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>331233</v>
       </c>
       <c r="BQ73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>331495</v>
       </c>
       <c r="BR73" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="141"/>
         <v>359241</v>
       </c>
       <c r="BS73" s="34"/>
@@ -28884,27 +29777,27 @@
       <c r="BU73" s="34"/>
       <c r="BV73" s="34"/>
       <c r="CL73" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="134"/>
         <v>323888</v>
       </c>
       <c r="CM73" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="135"/>
         <v>351002</v>
       </c>
       <c r="CN73" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>352755</v>
       </c>
       <c r="CO73" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="137"/>
         <v>352583</v>
       </c>
       <c r="CP73" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="138"/>
         <v>364980</v>
       </c>
       <c r="CQ73" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="139"/>
         <v>344085</v>
       </c>
       <c r="CS73" s="55"/>
@@ -28919,7 +29812,7 @@
       </c>
       <c r="DA73" s="53">
         <f>NPV(DA71,CR53:EO53)</f>
-        <v>0</v>
+        <v>3204606.1234038491</v>
       </c>
       <c r="DB73" s="55"/>
       <c r="DC73" s="34"/>
@@ -29060,27 +29953,27 @@
         <v>69860</v>
       </c>
       <c r="CL75" s="1">
-        <f t="shared" ref="CL75:CL84" si="131">AX75</f>
+        <f t="shared" ref="CL75:CL84" si="142">AX75</f>
         <v>42296</v>
       </c>
       <c r="CM75" s="1">
-        <f t="shared" ref="CM75:CM84" si="132">BB75</f>
+        <f t="shared" ref="CM75:CM84" si="143">BB75</f>
         <v>54763</v>
       </c>
       <c r="CN75" s="1">
-        <f t="shared" ref="CN75:CN84" si="133">BF75</f>
+        <f t="shared" ref="CN75:CN84" si="144">BF75</f>
         <v>64115</v>
       </c>
       <c r="CO75" s="1">
-        <f t="shared" ref="CO75:CO84" si="134">BJ75</f>
+        <f t="shared" ref="CO75:CO84" si="145">BJ75</f>
         <v>62611</v>
       </c>
       <c r="CP75" s="1">
-        <f t="shared" ref="CP75:CP84" si="135">BN75</f>
+        <f t="shared" ref="CP75:CP84" si="146">BN75</f>
         <v>68960</v>
       </c>
       <c r="CQ75" s="1">
-        <f t="shared" ref="CQ75:CQ84" si="136">BO75</f>
+        <f t="shared" ref="CQ75:CQ84" si="147">BO75</f>
         <v>61910</v>
       </c>
       <c r="CS75" s="48"/>
@@ -29095,7 +29988,7 @@
       </c>
       <c r="DA75" s="57">
         <f>DA73/DA74</f>
-        <v>0</v>
+        <v>215.94380885470682</v>
       </c>
       <c r="DB75" s="47"/>
     </row>
@@ -29167,27 +30060,27 @@
         <v>66387</v>
       </c>
       <c r="CL76" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>42684</v>
       </c>
       <c r="CM76" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>47493</v>
       </c>
       <c r="CN76" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="144"/>
         <v>60845</v>
       </c>
       <c r="CO76" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="145"/>
         <v>58829</v>
       </c>
       <c r="CP76" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="146"/>
         <v>78304</v>
       </c>
       <c r="CQ76" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="147"/>
         <v>61151</v>
       </c>
       <c r="CS76" s="48"/>
@@ -29274,27 +30167,27 @@
         <v>9055</v>
       </c>
       <c r="CL77" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>6643</v>
       </c>
       <c r="CM77" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>7612</v>
       </c>
       <c r="CN77" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="144"/>
         <v>7912</v>
       </c>
       <c r="CO77" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="145"/>
         <v>8061</v>
       </c>
       <c r="CP77" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="146"/>
         <v>8249</v>
       </c>
       <c r="CQ77" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="147"/>
         <v>8461</v>
       </c>
       <c r="CS77" s="55"/>
@@ -29309,7 +30202,7 @@
       </c>
       <c r="DA77" s="51">
         <f>DA75/DA76-1</f>
-        <v>-1</v>
+        <v>-0.12039181729243664</v>
       </c>
       <c r="DB77" s="59" t="str">
         <f>IF(DA77&gt;0,"Upside","Downside")</f>
@@ -29384,32 +30277,32 @@
         <v>7979</v>
       </c>
       <c r="CL78" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>4996</v>
       </c>
       <c r="CM78" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>6000</v>
       </c>
       <c r="CN78" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="144"/>
         <v>9982</v>
       </c>
       <c r="CO78" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="145"/>
         <v>5985</v>
       </c>
       <c r="CP78" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="146"/>
         <v>9967</v>
       </c>
       <c r="CQ78" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="147"/>
         <v>1995</v>
       </c>
       <c r="CZ78" s="77" t="str" cm="1">
         <f t="array" ref="CZ78">_xlfn.IFS(DA77&gt;=25%,"Strong Buy",DA77&gt;=10.00001%,"Buy",AND(DA77&lt;=10%,DA77&gt;=-4.9999%),"Hold",AND(DA77&lt;=-5%,DA77&gt;=-14.999999%),"Sell",DA77&lt;=-15%,"Strong Sell")</f>
-        <v>Strong Sell</v>
+        <v>Sell</v>
       </c>
       <c r="DA78" s="77"/>
     </row>
@@ -29481,27 +30374,27 @@
         <v>12350</v>
       </c>
       <c r="CL79" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>8773</v>
       </c>
       <c r="CM79" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>9613</v>
       </c>
       <c r="CN79" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="144"/>
         <v>11128</v>
       </c>
       <c r="CO79" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="145"/>
         <v>9822</v>
       </c>
       <c r="CP79" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="146"/>
         <v>10912</v>
       </c>
       <c r="CQ79" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="147"/>
         <v>10848</v>
       </c>
     </row>
@@ -29573,27 +30466,27 @@
         <v>78328</v>
       </c>
       <c r="CL80" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>98667</v>
       </c>
       <c r="CM80" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>109106</v>
       </c>
       <c r="CN80" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="144"/>
         <v>98959</v>
       </c>
       <c r="CO80" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="145"/>
         <v>95281</v>
       </c>
       <c r="CP80" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="146"/>
         <v>85750</v>
       </c>
       <c r="CQ80" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="147"/>
         <v>83956</v>
       </c>
     </row>
@@ -29665,27 +30558,27 @@
         <v>41549</v>
       </c>
       <c r="CL81" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>54490</v>
       </c>
       <c r="CM81" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>53325</v>
       </c>
       <c r="CN81" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="144"/>
         <v>49142</v>
       </c>
       <c r="CO81" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="145"/>
         <v>49848</v>
       </c>
       <c r="CP81" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="146"/>
         <v>45888</v>
       </c>
       <c r="CQ81" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="147"/>
         <v>49006</v>
       </c>
     </row>
@@ -29694,87 +30587,87 @@
         <v>1550</v>
       </c>
       <c r="AX82" s="2">
-        <f t="shared" ref="AX82" si="137">SUM(AX75:AX81)</f>
+        <f t="shared" ref="AX82" si="148">SUM(AX75:AX81)</f>
         <v>258549</v>
       </c>
       <c r="AY82" s="2">
-        <f t="shared" ref="AY82:BR82" si="138">SUM(AY75:AY81)</f>
+        <f t="shared" ref="AY82:BR82" si="149">SUM(AY75:AY81)</f>
         <v>287830</v>
       </c>
       <c r="AZ82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>267980</v>
       </c>
       <c r="BA82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>265560</v>
       </c>
       <c r="BB82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>287912</v>
       </c>
       <c r="BC82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>309259</v>
       </c>
       <c r="BD82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>283263</v>
       </c>
       <c r="BE82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>278202</v>
       </c>
       <c r="BF82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>302083</v>
       </c>
       <c r="BG82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>290020</v>
       </c>
       <c r="BH82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>270002</v>
       </c>
       <c r="BI82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>274764</v>
       </c>
       <c r="BJ82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>290437</v>
       </c>
       <c r="BK82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>279414</v>
       </c>
       <c r="BL82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>263217</v>
       </c>
       <c r="BM82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>264904</v>
       </c>
       <c r="BN82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>308030</v>
       </c>
       <c r="BO82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>277327</v>
       </c>
       <c r="BP82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>264437</v>
       </c>
       <c r="BQ82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>265665</v>
       </c>
       <c r="BR82" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="149"/>
         <v>285508</v>
       </c>
       <c r="BS82" s="34"/>
@@ -29782,27 +30675,27 @@
       <c r="BU82" s="34"/>
       <c r="BV82" s="34"/>
       <c r="CL82" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>258549</v>
       </c>
       <c r="CM82" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>287912</v>
       </c>
       <c r="CN82" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="144"/>
         <v>302083</v>
       </c>
       <c r="CO82" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="145"/>
         <v>290437</v>
       </c>
       <c r="CP82" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="146"/>
         <v>308030</v>
       </c>
       <c r="CQ82" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="147"/>
         <v>277327</v>
       </c>
       <c r="CR82" s="34"/>
@@ -29935,27 +30828,27 @@
         <v>73733</v>
       </c>
       <c r="CL83" s="1">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>65339</v>
       </c>
       <c r="CM83" s="1">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>63090</v>
       </c>
       <c r="CN83" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="144"/>
         <v>148101</v>
       </c>
       <c r="CO83" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="145"/>
         <v>62146</v>
       </c>
       <c r="CP83" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="146"/>
         <v>56950</v>
       </c>
       <c r="CQ83" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="147"/>
         <v>66758</v>
       </c>
     </row>
@@ -29964,87 +30857,87 @@
         <v>1552</v>
       </c>
       <c r="AX84" s="2">
-        <f t="shared" ref="AX84" si="139">AX82+AX83</f>
+        <f t="shared" ref="AX84" si="150">AX82+AX83</f>
         <v>323888</v>
       </c>
       <c r="AY84" s="2">
-        <f t="shared" ref="AY84:BR84" si="140">AY82+AY83</f>
+        <f t="shared" ref="AY84:BR84" si="151">AY82+AY83</f>
         <v>354054</v>
       </c>
       <c r="AZ84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>337158</v>
       </c>
       <c r="BA84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>329840</v>
       </c>
       <c r="BB84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>351002</v>
       </c>
       <c r="BC84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>381191</v>
       </c>
       <c r="BD84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>350662</v>
       </c>
       <c r="BE84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>336309</v>
       </c>
       <c r="BF84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>450184</v>
       </c>
       <c r="BG84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>346747</v>
       </c>
       <c r="BH84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>332160</v>
       </c>
       <c r="BI84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>335038</v>
       </c>
       <c r="BJ84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>352583</v>
       </c>
       <c r="BK84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>353514</v>
       </c>
       <c r="BL84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>337411</v>
       </c>
       <c r="BM84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>331612</v>
       </c>
       <c r="BN84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>364980</v>
       </c>
       <c r="BO84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>344085</v>
       </c>
       <c r="BP84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>331233</v>
       </c>
       <c r="BQ84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>331495</v>
       </c>
       <c r="BR84" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="151"/>
         <v>359241</v>
       </c>
       <c r="BS84" s="34"/>
@@ -30052,27 +30945,27 @@
       <c r="BU84" s="34"/>
       <c r="BV84" s="34"/>
       <c r="CL84" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>323888</v>
       </c>
       <c r="CM84" s="2">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>351002</v>
       </c>
       <c r="CN84" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="144"/>
         <v>450184</v>
       </c>
       <c r="CO84" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="145"/>
         <v>352583</v>
       </c>
       <c r="CP84" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="146"/>
         <v>364980</v>
       </c>
       <c r="CQ84" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="147"/>
         <v>344085</v>
       </c>
       <c r="CR84" s="34"/>
@@ -30142,83 +31035,83 @@
         <v>129</v>
       </c>
       <c r="AX86" s="39">
-        <f t="shared" ref="AX86" si="141">SUM(AX64:AX69)/SUM(AX75:AX79)</f>
+        <f t="shared" ref="AX86" si="152">SUM(AX64:AX69)/SUM(AX75:AX79)</f>
         <v>1.3636044481554577</v>
       </c>
       <c r="AY86" s="39">
-        <f t="shared" ref="AY86:BQ86" si="142">SUM(AY64:AY69)/SUM(AY75:AY79)</f>
+        <f t="shared" ref="AY86:BQ86" si="153">SUM(AY64:AY69)/SUM(AY75:AY79)</f>
         <v>1.1630027092908299</v>
       </c>
       <c r="AZ86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>1.1417493067631714</v>
       </c>
       <c r="BA86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>1.0618909738849602</v>
       </c>
       <c r="BB86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>1.0745531195957954</v>
       </c>
       <c r="BC86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>1.0378115386179136</v>
       </c>
       <c r="BD86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.92684380587884685</v>
       </c>
       <c r="BE86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.86462929169265357</v>
       </c>
       <c r="BF86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.87935602862672257</v>
       </c>
       <c r="BG86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.93801990006264291</v>
       </c>
       <c r="BH86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.9403539454507599</v>
       </c>
       <c r="BI86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.98156254251258368</v>
       </c>
       <c r="BJ86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.98801167175929749</v>
       </c>
       <c r="BK86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>1.072544467915177</v>
       </c>
       <c r="BL86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>1.0371016459110658</v>
       </c>
       <c r="BM86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.95297969975080532</v>
       </c>
       <c r="BN86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.86731257653408322</v>
       </c>
       <c r="BO86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.92293838534270767</v>
       </c>
       <c r="BP86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.82087002234196349</v>
       </c>
       <c r="BQ86" s="39">
-        <f t="shared" si="142"/>
+        <f t="shared" si="153"/>
         <v>0.86799178004535149</v>
       </c>
       <c r="BR86" s="39">
@@ -30226,27 +31119,27 @@
         <v>0.89329292221866674</v>
       </c>
       <c r="CL86" s="39">
-        <f t="shared" ref="CL86:CQ86" si="143">SUM(CL64:CL69)/SUM(CL75:CL79)</f>
+        <f t="shared" ref="CL86:CQ86" si="154">SUM(CL64:CL69)/SUM(CL75:CL79)</f>
         <v>1.3636044481554577</v>
       </c>
       <c r="CM86" s="39">
-        <f t="shared" si="143"/>
+        <f t="shared" si="154"/>
         <v>1.0745531195957954</v>
       </c>
       <c r="CN86" s="39">
-        <f t="shared" si="143"/>
+        <f t="shared" si="154"/>
         <v>0.87935602862672257</v>
       </c>
       <c r="CO86" s="39">
-        <f t="shared" si="143"/>
+        <f t="shared" si="154"/>
         <v>0.98801167175929749</v>
       </c>
       <c r="CP86" s="39">
-        <f t="shared" si="143"/>
+        <f t="shared" si="154"/>
         <v>0.86731257653408322</v>
       </c>
       <c r="CQ86" s="39">
-        <f t="shared" si="143"/>
+        <f t="shared" si="154"/>
         <v>0.92293838534270767</v>
       </c>
     </row>
@@ -30255,79 +31148,79 @@
         <v>130</v>
       </c>
       <c r="AX87" s="39">
-        <f t="shared" ref="AX87" si="144">(SUM(AX64:AX69)-AX68)/SUM(AX75:AX79)</f>
+        <f t="shared" ref="AX87" si="155">(SUM(AX64:AX69)-AX68)/SUM(AX75:AX79)</f>
         <v>1.1612646121147716</v>
       </c>
       <c r="AY87" s="39">
-        <f t="shared" ref="AY87:BR87" si="145">(SUM(AY64:AY69)-AY68)/SUM(AY75:AY79)</f>
+        <f t="shared" ref="AY87:BR87" si="156">(SUM(AY64:AY69)-AY68)/SUM(AY75:AY79)</f>
         <v>0.92513603054932947</v>
       </c>
       <c r="AZ87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>1.0051417023076561</v>
       </c>
       <c r="BA87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.90938619448001934</v>
       </c>
       <c r="BB87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.873502761374232</v>
       </c>
       <c r="BC87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.80037133912477809</v>
       </c>
       <c r="BD87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.73403237443925085</v>
       </c>
       <c r="BE87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.70725246972041922</v>
       </c>
       <c r="BF87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.84723539114961488</v>
       </c>
       <c r="BG87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.7163804029544163</v>
       </c>
       <c r="BH87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.79075577763897564</v>
       </c>
       <c r="BI87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.82442002832838523</v>
       </c>
       <c r="BJ87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.94444215046659508</v>
       </c>
       <c r="BK87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>1.0239451232711068</v>
       </c>
       <c r="BL87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.98677133304259335</v>
       </c>
       <c r="BM87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.90614173706922752</v>
       </c>
       <c r="BN87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.82600684838314664</v>
       </c>
       <c r="BO87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.87506667128459115</v>
       </c>
       <c r="BP87" s="39">
-        <f t="shared" si="145"/>
+        <f t="shared" si="156"/>
         <v>0.77750724557483863</v>
       </c>
       <c r="BQ87" s="39">
@@ -30335,31 +31228,31 @@
         <v>0.82600623582766441</v>
       </c>
       <c r="BR87" s="39">
-        <f t="shared" ref="BR87" si="146">(SUM(BR64:BR69)-BR68)/SUM(BR75:BR79)</f>
+        <f t="shared" ref="BR87" si="157">(SUM(BR64:BR69)-BR68)/SUM(BR75:BR79)</f>
         <v>0.85877039926100796</v>
       </c>
       <c r="CL87" s="39">
-        <f t="shared" ref="CL87:CQ87" si="147">(SUM(CL64:CL69)-CL68)/SUM(CL75:CL79)</f>
+        <f t="shared" ref="CL87:CQ87" si="158">(SUM(CL64:CL69)-CL68)/SUM(CL75:CL79)</f>
         <v>1.1612646121147716</v>
       </c>
       <c r="CM87" s="39">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v>0.873502761374232</v>
       </c>
       <c r="CN87" s="39">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v>0.84723539114961488</v>
       </c>
       <c r="CO87" s="39">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v>0.94444215046659508</v>
       </c>
       <c r="CP87" s="39">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v>0.82600684838314664</v>
       </c>
       <c r="CQ87" s="39">
-        <f t="shared" si="147"/>
+        <f t="shared" si="158"/>
         <v>0.87506667128459115</v>
       </c>
     </row>
@@ -30368,83 +31261,83 @@
         <v>131</v>
       </c>
       <c r="AX88" s="39">
-        <f t="shared" ref="AX88" si="148">(SUM(AX64:AX65)+AX70)/SUM(AX75:AX79)</f>
+        <f t="shared" ref="AX88" si="159">(SUM(AX64:AX65)+AX70)/SUM(AX75:AX79)</f>
         <v>1.8201571276757249</v>
       </c>
       <c r="AY88" s="39">
-        <f t="shared" ref="AY88:BQ88" si="149">(SUM(AY64:AY65)+AY70)/SUM(AY75:AY79)</f>
+        <f t="shared" ref="AY88:BQ88" si="160">(SUM(AY64:AY65)+AY70)/SUM(AY75:AY79)</f>
         <v>1.4759295735319644</v>
       </c>
       <c r="AZ88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.9210696996757062</v>
       </c>
       <c r="BA88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.7970933793641071</v>
       </c>
       <c r="BB88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.5182856368693269</v>
       </c>
       <c r="BC88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.3728434548091126</v>
       </c>
       <c r="BD88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.5115130031056876</v>
       </c>
       <c r="BE88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.3806410878319588</v>
       </c>
       <c r="BF88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.0982387551791768</v>
       </c>
       <c r="BG88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.2051483763821511</v>
       </c>
       <c r="BH88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.3852425567353737</v>
       </c>
       <c r="BI88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.3327384905932156</v>
       </c>
       <c r="BJ88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.1155545462053018</v>
       </c>
       <c r="BK88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.2881326834511431</v>
       </c>
       <c r="BL88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.3110513479026344</v>
       </c>
       <c r="BM88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>1.1627134869020848</v>
       </c>
       <c r="BN88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>0.88807882443648234</v>
       </c>
       <c r="BO88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>0.97924012052782872</v>
       </c>
       <c r="BP88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>0.91942367418085236</v>
       </c>
       <c r="BQ88" s="39">
-        <f t="shared" si="149"/>
+        <f t="shared" si="160"/>
         <v>0.94236111111111109</v>
       </c>
       <c r="BR88" s="39">
@@ -30452,27 +31345,27 @@
         <v>0.7994880185472526</v>
       </c>
       <c r="CL88" s="39">
-        <f t="shared" ref="CL88:CQ88" si="150">(SUM(CL64:CL65)+CL70)/SUM(CL75:CL79)</f>
+        <f t="shared" ref="CL88:CQ88" si="161">(SUM(CL64:CL65)+CL70)/SUM(CL75:CL79)</f>
         <v>1.8201571276757249</v>
       </c>
       <c r="CM88" s="39">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>1.5182856368693269</v>
       </c>
       <c r="CN88" s="39">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>1.0982387551791768</v>
       </c>
       <c r="CO88" s="39">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>1.1155545462053018</v>
       </c>
       <c r="CP88" s="39">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.88807882443648234</v>
       </c>
       <c r="CQ88" s="39">
-        <f t="shared" si="150"/>
+        <f t="shared" si="161"/>
         <v>0.97924012052782872</v>
       </c>
     </row>
@@ -30481,83 +31374,83 @@
         <v>132</v>
       </c>
       <c r="AX89" s="39">
-        <f t="shared" ref="AX89" si="151">AX44/AX73</f>
+        <f t="shared" ref="AX89" si="162">AX44/AX73</f>
         <v>0.19975423603220865</v>
       </c>
       <c r="AY89" s="39">
-        <f t="shared" ref="AY89:BQ89" si="152">AY44/AY73</f>
+        <f t="shared" ref="AY89:BQ89" si="163">AY44/AY73</f>
         <v>0.31475142209945378</v>
       </c>
       <c r="AZ89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.26570332010511394</v>
       </c>
       <c r="BA89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.24688940092165898</v>
       </c>
       <c r="BB89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.23749152426481901</v>
       </c>
       <c r="BC89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.32515195794234386</v>
       </c>
       <c r="BD89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.27741243704764129</v>
       </c>
       <c r="BE89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.24667493287423173</v>
       </c>
       <c r="BF89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.25583195135433939</v>
       </c>
       <c r="BG89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.33786593683579091</v>
       </c>
       <c r="BH89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.28551300578034683</v>
       </c>
       <c r="BI89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.24414245548266167</v>
       </c>
       <c r="BJ89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.25383526715695309</v>
       </c>
       <c r="BK89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.33824685868169296</v>
       </c>
       <c r="BL89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.26896870582168336</v>
       </c>
       <c r="BM89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.25866675512345755</v>
       </c>
       <c r="BN89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.26009644364074747</v>
       </c>
       <c r="BO89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.36124794745484401</v>
       </c>
       <c r="BP89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.2878910011985521</v>
       </c>
       <c r="BQ89" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="163"/>
         <v>0.283672453581502</v>
       </c>
       <c r="BR89" s="39">
@@ -30565,27 +31458,27 @@
         <v>0.28573575955973846</v>
       </c>
       <c r="CL89" s="39">
-        <f t="shared" ref="CL89:CQ89" si="153">CL44/CL73</f>
+        <f t="shared" ref="CL89:CQ89" si="164">CL44/CL73</f>
         <v>0.84756150274168851</v>
       </c>
       <c r="CM89" s="39">
-        <f t="shared" si="153"/>
+        <f t="shared" si="164"/>
         <v>1.0422077367080529</v>
       </c>
       <c r="CN89" s="39">
-        <f t="shared" si="153"/>
+        <f t="shared" si="164"/>
         <v>1.1181358166432793</v>
       </c>
       <c r="CO89" s="39">
-        <f t="shared" si="153"/>
+        <f t="shared" si="164"/>
         <v>1.0870773690166571</v>
       </c>
       <c r="CP89" s="39">
-        <f t="shared" si="153"/>
+        <f t="shared" si="164"/>
         <v>1.0713874732862074</v>
       </c>
       <c r="CQ89" s="39">
-        <f t="shared" si="153"/>
+        <f t="shared" si="164"/>
         <v>1.1501809145995903</v>
       </c>
     </row>
@@ -30594,83 +31487,83 @@
         <v>133</v>
       </c>
       <c r="AX90" s="39">
-        <f t="shared" ref="AX90:BQ90" si="154">AX45/AVERAGE(AU68:AX68)</f>
+        <f t="shared" ref="AX90:BQ90" si="165">AX45/AVERAGE(AU68:AX68)</f>
         <v>1.8761547479484173</v>
       </c>
       <c r="AY90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>2.5399666944213157</v>
       </c>
       <c r="AZ90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>2.2932899951021861</v>
       </c>
       <c r="BA90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>2.203985204629519</v>
       </c>
       <c r="BB90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>2.1974393761472073</v>
       </c>
       <c r="BC90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>3.0559659775960717</v>
       </c>
       <c r="BD90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>2.1609699267420965</v>
       </c>
       <c r="BE90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>1.7883219997720625</v>
       </c>
       <c r="BF90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>2.4491706858016702</v>
       </c>
       <c r="BG90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>3.3245603124455831</v>
       </c>
       <c r="BH90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>2.8659726740403384</v>
       </c>
       <c r="BI90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>2.4876805437553102</v>
       </c>
       <c r="BJ90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>2.6396804690757003</v>
       </c>
       <c r="BK90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>5.1322310772768729</v>
       </c>
       <c r="BL90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>5.0096355041202756</v>
       </c>
       <c r="BM90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>7.3059946907563695</v>
       </c>
       <c r="BN90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>7.795831106360235</v>
       </c>
       <c r="BO90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>9.9308114612318565</v>
       </c>
       <c r="BP90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>7.5839435244639706</v>
       </c>
       <c r="BQ90" s="39">
-        <f t="shared" si="154"/>
+        <f t="shared" si="165"/>
         <v>7.6265393505361674</v>
       </c>
       <c r="BR90" s="39">
@@ -30678,27 +31571,27 @@
         <v>8.7217499899286945</v>
       </c>
       <c r="CL90" s="39">
-        <f t="shared" ref="CL90:CQ90" si="155">CL45/AVERAGE(CI68:CL68)</f>
+        <f t="shared" ref="CL90:CQ90" si="166">CL45/AVERAGE(CI68:CL68)</f>
         <v>7.9511840562719813</v>
       </c>
       <c r="CM90" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="166"/>
         <v>9.1500440358301294</v>
       </c>
       <c r="CN90" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="166"/>
         <v>13.022349948542692</v>
       </c>
       <c r="CO90" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="166"/>
         <v>14.811481929794224</v>
       </c>
       <c r="CP90" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="166"/>
         <v>19.214176428946587</v>
       </c>
       <c r="CQ90" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="166"/>
         <v>33.234984690272434</v>
       </c>
     </row>
@@ -30707,83 +31600,83 @@
         <v>134</v>
       </c>
       <c r="AX91" s="71">
-        <f t="shared" ref="AX91" si="156">AX53/AX73</f>
+        <f t="shared" ref="AX91" si="167">AX53/AX73</f>
         <v>3.9127723163562715E-2</v>
       </c>
       <c r="AY91" s="71">
-        <f t="shared" ref="AY91:BQ91" si="157">AY53/AY73</f>
+        <f t="shared" ref="AY91:BQ91" si="168">AY53/AY73</f>
         <v>8.1216424613194602E-2</v>
       </c>
       <c r="AZ91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>7.0085835127744259E-2</v>
       </c>
       <c r="BA91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>6.5922871695367452E-2</v>
       </c>
       <c r="BB91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>5.8549523934336559E-2</v>
       </c>
       <c r="BC91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>9.0846845806957663E-2</v>
       </c>
       <c r="BD91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>7.1322241930976263E-2</v>
       </c>
       <c r="BE91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>5.7809930748210725E-2</v>
       </c>
       <c r="BF91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>5.9023968476704797E-2</v>
       </c>
       <c r="BG91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>8.6512644665995675E-2</v>
       </c>
       <c r="BH91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>7.2736030828516374E-2</v>
       </c>
       <c r="BI91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>5.9339537604689616E-2</v>
       </c>
       <c r="BJ91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>6.5108073843605618E-2</v>
       </c>
       <c r="BK91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>9.5939623324677384E-2</v>
       </c>
       <c r="BL91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>7.005106531796533E-2</v>
       </c>
       <c r="BM91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>6.4677997177424215E-2</v>
       </c>
       <c r="BN91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>4.037481505835936E-2</v>
       </c>
       <c r="BO91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>0.10558437595361611</v>
       </c>
       <c r="BP91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>7.4811386546630318E-2</v>
       </c>
       <c r="BQ91" s="71">
-        <f t="shared" si="157"/>
+        <f t="shared" si="168"/>
         <v>7.0691865638999082E-2</v>
       </c>
       <c r="BR91" s="71">
@@ -30791,27 +31684,27 @@
         <v>7.6962262102599655E-2</v>
       </c>
       <c r="CL91" s="71">
-        <f t="shared" ref="CL91:CQ91" si="158">CL53/CL73</f>
+        <f t="shared" ref="CL91:CQ91" si="169">CL53/CL73</f>
         <v>0.1772557180259843</v>
       </c>
       <c r="CM91" s="71">
-        <f t="shared" si="158"/>
+        <f t="shared" si="169"/>
         <v>0.26974205275183616</v>
       </c>
       <c r="CN91" s="71">
-        <f t="shared" si="158"/>
+        <f t="shared" si="169"/>
         <v>0.28320789216311604</v>
       </c>
       <c r="CO91" s="71">
-        <f t="shared" si="158"/>
+        <f t="shared" si="169"/>
         <v>0.27509834563776475</v>
       </c>
       <c r="CP91" s="71">
-        <f t="shared" si="158"/>
+        <f t="shared" si="169"/>
         <v>0.25682503150857583</v>
       </c>
       <c r="CQ91" s="71">
-        <f t="shared" si="158"/>
+        <f t="shared" si="169"/>
         <v>0.27943676707790227</v>
       </c>
     </row>
@@ -30820,83 +31713,83 @@
         <v>135</v>
       </c>
       <c r="AX92" s="71">
-        <f t="shared" ref="AX92" si="159">AX53/AX73</f>
+        <f t="shared" ref="AX92" si="170">AX53/AX73</f>
         <v>3.9127723163562715E-2</v>
       </c>
       <c r="AY92" s="71">
-        <f t="shared" ref="AY92:BQ92" si="160">AY53/AY73</f>
+        <f t="shared" ref="AY92:BQ92" si="171">AY53/AY73</f>
         <v>8.1216424613194602E-2</v>
       </c>
       <c r="AZ92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>7.0085835127744259E-2</v>
       </c>
       <c r="BA92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>6.5922871695367452E-2</v>
       </c>
       <c r="BB92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>5.8549523934336559E-2</v>
       </c>
       <c r="BC92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>9.0846845806957663E-2</v>
       </c>
       <c r="BD92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>7.1322241930976263E-2</v>
       </c>
       <c r="BE92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>5.7809930748210725E-2</v>
       </c>
       <c r="BF92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>5.9023968476704797E-2</v>
       </c>
       <c r="BG92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>8.6512644665995675E-2</v>
       </c>
       <c r="BH92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>7.2736030828516374E-2</v>
       </c>
       <c r="BI92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>5.9339537604689616E-2</v>
       </c>
       <c r="BJ92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>6.5108073843605618E-2</v>
       </c>
       <c r="BK92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>9.5939623324677384E-2</v>
       </c>
       <c r="BL92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>7.005106531796533E-2</v>
       </c>
       <c r="BM92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>6.4677997177424215E-2</v>
       </c>
       <c r="BN92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>4.037481505835936E-2</v>
       </c>
       <c r="BO92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>0.10558437595361611</v>
       </c>
       <c r="BP92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>7.4811386546630318E-2</v>
       </c>
       <c r="BQ92" s="71">
-        <f t="shared" si="160"/>
+        <f t="shared" si="171"/>
         <v>7.0691865638999082E-2</v>
       </c>
       <c r="BR92" s="71">
@@ -30904,27 +31797,27 @@
         <v>7.6962262102599655E-2</v>
       </c>
       <c r="CL92" s="71">
-        <f t="shared" ref="CL92:CQ92" si="161">CL53/CL73</f>
+        <f t="shared" ref="CL92:CQ92" si="172">CL53/CL73</f>
         <v>0.1772557180259843</v>
       </c>
       <c r="CM92" s="71">
-        <f t="shared" si="161"/>
+        <f t="shared" si="172"/>
         <v>0.26974205275183616</v>
       </c>
       <c r="CN92" s="71">
-        <f t="shared" si="161"/>
+        <f t="shared" si="172"/>
         <v>0.28320789216311604</v>
       </c>
       <c r="CO92" s="71">
-        <f t="shared" si="161"/>
+        <f t="shared" si="172"/>
         <v>0.27509834563776475</v>
       </c>
       <c r="CP92" s="71">
-        <f t="shared" si="161"/>
+        <f t="shared" si="172"/>
         <v>0.25682503150857583</v>
       </c>
       <c r="CQ92" s="71">
-        <f t="shared" si="161"/>
+        <f t="shared" si="172"/>
         <v>0.27943676707790227</v>
       </c>
     </row>
@@ -30933,271 +31826,271 @@
         <v>136</v>
       </c>
       <c r="C94" s="69">
-        <f t="shared" ref="C94:AT94" si="162">C53</f>
+        <f t="shared" ref="C94:AT94" si="173">C53</f>
         <v>3378</v>
       </c>
       <c r="D94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>1620</v>
       </c>
       <c r="E94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>1828</v>
       </c>
       <c r="F94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>1409</v>
       </c>
       <c r="G94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>3378</v>
       </c>
       <c r="H94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>3074</v>
       </c>
       <c r="I94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>3253</v>
       </c>
       <c r="J94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>4308</v>
       </c>
       <c r="K94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>6004</v>
       </c>
       <c r="L94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>5987</v>
       </c>
       <c r="M94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>7308</v>
       </c>
       <c r="N94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>6623</v>
       </c>
       <c r="O94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>13064</v>
       </c>
       <c r="P94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>11622</v>
       </c>
       <c r="Q94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>8824</v>
       </c>
       <c r="R94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>8223</v>
       </c>
       <c r="S94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>13078</v>
       </c>
       <c r="T94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>9547</v>
       </c>
       <c r="U94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>6900</v>
       </c>
       <c r="V94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>7512</v>
       </c>
       <c r="W94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>13072</v>
       </c>
       <c r="X94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>10223</v>
       </c>
       <c r="Y94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>7748</v>
       </c>
       <c r="Z94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>8467</v>
       </c>
       <c r="AA94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>18024</v>
       </c>
       <c r="AB94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>13569</v>
       </c>
       <c r="AC94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>10677</v>
       </c>
       <c r="AD94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>11124</v>
       </c>
       <c r="AE94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>18361</v>
       </c>
       <c r="AF94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>10516</v>
       </c>
       <c r="AG94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>7796</v>
       </c>
       <c r="AH94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>9014</v>
       </c>
       <c r="AI94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>17891</v>
       </c>
       <c r="AJ94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>11029</v>
       </c>
       <c r="AK94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>8717</v>
       </c>
       <c r="AL94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>10714</v>
       </c>
       <c r="AM94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>20065</v>
       </c>
       <c r="AN94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>13822</v>
       </c>
       <c r="AO94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>11519</v>
       </c>
       <c r="AP94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>14125</v>
       </c>
       <c r="AQ94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>19965</v>
       </c>
       <c r="AR94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>11561</v>
       </c>
       <c r="AS94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>10044</v>
       </c>
       <c r="AT94" s="69">
-        <f t="shared" si="162"/>
+        <f t="shared" si="173"/>
         <v>13686</v>
       </c>
       <c r="AU94" s="69">
-        <f t="shared" ref="AU94:BQ94" si="163">AU53</f>
+        <f t="shared" ref="AU94:BQ94" si="174">AU53</f>
         <v>22236</v>
       </c>
       <c r="AV94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>11249</v>
       </c>
       <c r="AW94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>11253</v>
       </c>
       <c r="AX94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>12673</v>
       </c>
       <c r="AY94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>28755</v>
       </c>
       <c r="AZ94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>23630</v>
       </c>
       <c r="BA94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>21744</v>
       </c>
       <c r="BB94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>20551</v>
       </c>
       <c r="BC94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>34630</v>
       </c>
       <c r="BD94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>25010</v>
       </c>
       <c r="BE94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>19442</v>
       </c>
       <c r="BF94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>20821</v>
       </c>
       <c r="BG94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>29998</v>
       </c>
       <c r="BH94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>24160</v>
       </c>
       <c r="BI94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>19881</v>
       </c>
       <c r="BJ94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>22956</v>
       </c>
       <c r="BK94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>33916</v>
       </c>
       <c r="BL94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>23636</v>
       </c>
       <c r="BM94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>21448</v>
       </c>
       <c r="BN94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>14736</v>
       </c>
       <c r="BO94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>36330</v>
       </c>
       <c r="BP94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>24780</v>
       </c>
       <c r="BQ94" s="69">
-        <f t="shared" si="163"/>
+        <f t="shared" si="174"/>
         <v>23434</v>
       </c>
       <c r="BR94" s="69">
@@ -31209,67 +32102,67 @@
         <v>8235</v>
       </c>
       <c r="CB94" s="69">
-        <f t="shared" ref="CB94:CQ94" si="164">CB53</f>
+        <f t="shared" ref="CB94:CQ94" si="175">CB53</f>
         <v>14013</v>
       </c>
       <c r="CC94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>25922</v>
       </c>
       <c r="CD94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>41733</v>
       </c>
       <c r="CE94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>37037</v>
       </c>
       <c r="CF94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>39510</v>
       </c>
       <c r="CG94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>53394</v>
       </c>
       <c r="CH94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>45687</v>
       </c>
       <c r="CI94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>48351</v>
       </c>
       <c r="CJ94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>59531</v>
       </c>
       <c r="CK94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>55256</v>
       </c>
       <c r="CL94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>57411</v>
       </c>
       <c r="CM94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>94680</v>
       </c>
       <c r="CN94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>99903</v>
       </c>
       <c r="CO94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>96995</v>
       </c>
       <c r="CP94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>93736</v>
       </c>
       <c r="CQ94" s="69">
-        <f t="shared" si="164"/>
+        <f t="shared" si="175"/>
         <v>96150</v>
       </c>
     </row>
@@ -31486,71 +32379,71 @@
       <c r="BU95" s="34"/>
       <c r="BV95" s="34"/>
       <c r="CA95" s="70">
-        <f t="shared" ref="CA94:CA99" si="165">SUM(C95:F95)</f>
+        <f t="shared" ref="CA94:CA99" si="176">SUM(C95:F95)</f>
         <v>10159</v>
       </c>
       <c r="CB95" s="70">
-        <f t="shared" ref="CB94:CB99" si="166">SUM(G95:J95)</f>
+        <f t="shared" ref="CB94:CB99" si="177">SUM(G95:J95)</f>
         <v>18595</v>
       </c>
       <c r="CC95" s="70">
-        <f t="shared" ref="CC94:CC99" si="167">SUM(K95:N95)</f>
+        <f t="shared" ref="CC94:CC99" si="178">SUM(K95:N95)</f>
         <v>37529</v>
       </c>
       <c r="CD95" s="70">
-        <f t="shared" ref="CD94:CD99" si="168">SUM(O95:R95)</f>
+        <f t="shared" ref="CD94:CD99" si="179">SUM(O95:R95)</f>
         <v>50856</v>
       </c>
       <c r="CE95" s="70">
-        <f t="shared" ref="CE94:CE99" si="169">SUM(S95:V95)</f>
+        <f t="shared" ref="CE94:CE99" si="180">SUM(S95:V95)</f>
         <v>53666</v>
       </c>
       <c r="CF95" s="70">
-        <f t="shared" ref="CF94:CF99" si="170">SUM(W95:Z95)</f>
+        <f t="shared" ref="CF94:CF99" si="181">SUM(W95:Z95)</f>
         <v>59713</v>
       </c>
       <c r="CG95" s="70">
-        <f t="shared" ref="CG94:CG99" si="171">SUM(AA95:AD95)</f>
+        <f t="shared" ref="CG94:CG99" si="182">SUM(AA95:AD95)</f>
         <v>81266</v>
       </c>
       <c r="CH95" s="70">
-        <f t="shared" ref="CH94:CH99" si="172">SUM(AE95:AH95)</f>
+        <f t="shared" ref="CH94:CH99" si="183">SUM(AE95:AH95)</f>
         <v>66231</v>
       </c>
       <c r="CI95" s="70">
-        <f t="shared" ref="CI94:CI99" si="173">SUM(AI95:AL95)</f>
+        <f t="shared" ref="CI94:CI99" si="184">SUM(AI95:AL95)</f>
         <v>64225</v>
       </c>
       <c r="CJ95" s="70">
-        <f t="shared" ref="CJ94:CJ99" si="174">SUM(AM95:AP95)</f>
+        <f t="shared" ref="CJ94:CJ99" si="185">SUM(AM95:AP95)</f>
         <v>77434</v>
       </c>
       <c r="CK95" s="70">
-        <f t="shared" ref="CK94:CK99" si="175">SUM(AQ95:AT95)</f>
+        <f t="shared" ref="CK94:CK99" si="186">SUM(AQ95:AT95)</f>
         <v>69391</v>
       </c>
       <c r="CL95" s="70">
-        <f t="shared" ref="CL94:CL99" si="176">SUM(AU95:AX95)</f>
+        <f t="shared" ref="CL94:CL99" si="187">SUM(AU95:AX95)</f>
         <v>80674</v>
       </c>
       <c r="CM95" s="70">
-        <f t="shared" ref="CM94:CM99" si="177">SUM(AY95:BB95)</f>
+        <f t="shared" ref="CM94:CM99" si="188">SUM(AY95:BB95)</f>
         <v>104038</v>
       </c>
       <c r="CN95" s="70">
-        <f t="shared" ref="CN94:CN99" si="178">SUM(BC95:BF95)</f>
+        <f t="shared" ref="CN94:CN99" si="189">SUM(BC95:BF95)</f>
         <v>122151</v>
       </c>
       <c r="CO95" s="70">
-        <f t="shared" ref="CO94:CO99" si="179">SUM(BG95:BJ95)</f>
+        <f t="shared" ref="CO94:CO99" si="190">SUM(BG95:BJ95)</f>
         <v>110543</v>
       </c>
       <c r="CP95" s="70">
-        <f t="shared" ref="CP94:CP99" si="180">SUM(BK95:BN95)</f>
+        <f t="shared" ref="CP94:CP99" si="191">SUM(BK95:BN95)</f>
         <v>118254</v>
       </c>
       <c r="CQ95" s="70">
-        <f t="shared" ref="CQ94:CQ99" si="181">SUM(BL95:BO95)</f>
+        <f t="shared" ref="CQ94:CQ99" si="192">SUM(BL95:BO95)</f>
         <v>108294</v>
       </c>
       <c r="CR95" s="34"/>
@@ -31824,71 +32717,71 @@
         <v>-3242</v>
       </c>
       <c r="CA96" s="69">
-        <f t="shared" si="165"/>
+        <f t="shared" si="176"/>
         <v>-1213</v>
       </c>
       <c r="CB96" s="69">
-        <f t="shared" si="166"/>
+        <f t="shared" si="177"/>
         <v>-2121</v>
       </c>
       <c r="CC96" s="69">
-        <f t="shared" si="167"/>
+        <f t="shared" si="178"/>
         <v>-7452</v>
       </c>
       <c r="CD96" s="69">
-        <f t="shared" si="168"/>
+        <f t="shared" si="179"/>
         <v>-9402</v>
       </c>
       <c r="CE96" s="69">
-        <f t="shared" si="169"/>
+        <f t="shared" si="180"/>
         <v>-9076</v>
       </c>
       <c r="CF96" s="69">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>-9571</v>
       </c>
       <c r="CG96" s="69">
-        <f t="shared" si="171"/>
+        <f t="shared" si="182"/>
         <v>-11247</v>
       </c>
       <c r="CH96" s="69">
-        <f t="shared" si="172"/>
+        <f t="shared" si="183"/>
         <v>-12734</v>
       </c>
       <c r="CI96" s="69">
-        <f t="shared" si="173"/>
+        <f t="shared" si="184"/>
         <v>-12451</v>
       </c>
       <c r="CJ96" s="69">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>-13313</v>
       </c>
       <c r="CK96" s="69">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>-10495</v>
       </c>
       <c r="CL96" s="69">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>-7309</v>
       </c>
       <c r="CM96" s="69">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>-11085</v>
       </c>
       <c r="CN96" s="69">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>-10708</v>
       </c>
       <c r="CO96" s="69">
-        <f t="shared" si="179"/>
+        <f t="shared" si="190"/>
         <v>-10959</v>
       </c>
       <c r="CP96" s="69">
-        <f t="shared" si="180"/>
+        <f t="shared" si="191"/>
         <v>-9447</v>
       </c>
       <c r="CQ96" s="69">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>-9995</v>
       </c>
     </row>
@@ -31897,271 +32790,271 @@
         <v>139</v>
       </c>
       <c r="C97" s="70">
-        <f t="shared" ref="C97" si="182">C95-C96</f>
+        <f t="shared" ref="C97" si="193">C95-C96</f>
         <v>6134</v>
       </c>
       <c r="D97" s="70">
-        <f t="shared" ref="D97" si="183">D95-D96</f>
+        <f t="shared" ref="D97" si="194">D95-D96</f>
         <v>-886</v>
       </c>
       <c r="E97" s="70">
-        <f t="shared" ref="E97" si="184">E95-E96</f>
+        <f t="shared" ref="E97" si="195">E95-E96</f>
         <v>2542</v>
       </c>
       <c r="F97" s="70">
-        <f t="shared" ref="F97" si="185">F95-F96</f>
+        <f t="shared" ref="F97" si="196">F95-F96</f>
         <v>3582</v>
       </c>
       <c r="G97" s="70">
-        <f t="shared" ref="G97" si="186">G95-G96</f>
+        <f t="shared" ref="G97" si="197">G95-G96</f>
         <v>6162</v>
       </c>
       <c r="H97" s="70">
-        <f t="shared" ref="H97" si="187">H95-H96</f>
+        <f t="shared" ref="H97" si="198">H95-H96</f>
         <v>2631</v>
       </c>
       <c r="I97" s="70">
-        <f t="shared" ref="I97" si="188">I95-I96</f>
+        <f t="shared" ref="I97" si="199">I95-I96</f>
         <v>5427</v>
       </c>
       <c r="J97" s="70">
-        <f t="shared" ref="J97" si="189">J95-J96</f>
+        <f t="shared" ref="J97" si="200">J95-J96</f>
         <v>6496</v>
       </c>
       <c r="K97" s="70">
-        <f t="shared" ref="K97" si="190">K95-K96</f>
+        <f t="shared" ref="K97" si="201">K95-K96</f>
         <v>11036</v>
       </c>
       <c r="L97" s="70">
-        <f t="shared" ref="L97" si="191">L95-L96</f>
+        <f t="shared" ref="L97" si="202">L95-L96</f>
         <v>6875</v>
       </c>
       <c r="M97" s="70">
-        <f t="shared" ref="M97" si="192">M95-M96</f>
+        <f t="shared" ref="M97" si="203">M95-M96</f>
         <v>12070</v>
       </c>
       <c r="N97" s="70">
-        <f t="shared" ref="N97" si="193">N95-N96</f>
+        <f t="shared" ref="N97" si="204">N95-N96</f>
         <v>15000</v>
       </c>
       <c r="O97" s="70">
-        <f t="shared" ref="O97" si="194">O95-O96</f>
+        <f t="shared" ref="O97" si="205">O95-O96</f>
         <v>18983</v>
       </c>
       <c r="P97" s="70">
-        <f t="shared" ref="P97" si="195">P95-P96</f>
+        <f t="shared" ref="P97" si="206">P95-P96</f>
         <v>15486</v>
       </c>
       <c r="Q97" s="70">
-        <f t="shared" ref="Q97" si="196">Q95-Q96</f>
+        <f t="shared" ref="Q97" si="207">Q95-Q96</f>
         <v>13152</v>
       </c>
       <c r="R97" s="70">
-        <f t="shared" ref="R97" si="197">R95-R96</f>
+        <f t="shared" ref="R97" si="208">R95-R96</f>
         <v>12637</v>
       </c>
       <c r="S97" s="70">
-        <f t="shared" ref="S97" si="198">S95-S96</f>
+        <f t="shared" ref="S97" si="209">S95-S96</f>
         <v>25881</v>
       </c>
       <c r="T97" s="70">
-        <f t="shared" ref="T97" si="199">T95-T96</f>
+        <f t="shared" ref="T97" si="210">T95-T96</f>
         <v>14803</v>
       </c>
       <c r="U97" s="70">
-        <f t="shared" ref="U97" si="200">U95-U96</f>
+        <f t="shared" ref="U97" si="211">U95-U96</f>
         <v>9844</v>
       </c>
       <c r="V97" s="70">
-        <f t="shared" ref="V97" si="201">V95-V96</f>
+        <f t="shared" ref="V97" si="212">V95-V96</f>
         <v>12214</v>
       </c>
       <c r="W97" s="70">
-        <f t="shared" ref="W97" si="202">W95-W96</f>
+        <f t="shared" ref="W97" si="213">W95-W96</f>
         <v>24655</v>
       </c>
       <c r="X97" s="70">
-        <f t="shared" ref="X97" si="203">X95-X96</f>
+        <f t="shared" ref="X97" si="214">X95-X96</f>
         <v>14920</v>
       </c>
       <c r="Y97" s="70">
-        <f t="shared" ref="Y97" si="204">Y95-Y96</f>
+        <f t="shared" ref="Y97" si="215">Y95-Y96</f>
         <v>12633</v>
       </c>
       <c r="Z97" s="70">
-        <f t="shared" ref="Z97" si="205">Z95-Z96</f>
+        <f t="shared" ref="Z97" si="216">Z95-Z96</f>
         <v>17076</v>
       </c>
       <c r="AA97" s="70">
-        <f t="shared" ref="AA97" si="206">AA95-AA96</f>
+        <f t="shared" ref="AA97" si="217">AA95-AA96</f>
         <v>36939</v>
       </c>
       <c r="AB97" s="70">
-        <f t="shared" ref="AB97" si="207">AB95-AB96</f>
+        <f t="shared" ref="AB97" si="218">AB95-AB96</f>
         <v>21450</v>
       </c>
       <c r="AC97" s="70">
-        <f t="shared" ref="AC97" si="208">AC95-AC96</f>
+        <f t="shared" ref="AC97" si="219">AC95-AC96</f>
         <v>17031</v>
       </c>
       <c r="AD97" s="70">
-        <f t="shared" ref="AD97" si="209">AD95-AD96</f>
+        <f t="shared" ref="AD97" si="220">AD95-AD96</f>
         <v>17093</v>
       </c>
       <c r="AE97" s="70">
-        <f t="shared" ref="AE97" si="210">AE95-AE96</f>
+        <f t="shared" ref="AE97" si="221">AE95-AE96</f>
         <v>31075</v>
       </c>
       <c r="AF97" s="70">
-        <f t="shared" ref="AF97" si="211">AF95-AF96</f>
+        <f t="shared" ref="AF97" si="222">AF95-AF96</f>
         <v>13937</v>
       </c>
       <c r="AG97" s="70">
-        <f t="shared" ref="AG97" si="212">AG95-AG96</f>
+        <f t="shared" ref="AG97" si="223">AG95-AG96</f>
         <v>13443</v>
       </c>
       <c r="AH97" s="70">
-        <f t="shared" ref="AH97" si="213">AH95-AH96</f>
+        <f t="shared" ref="AH97" si="224">AH95-AH96</f>
         <v>20510</v>
       </c>
       <c r="AI97" s="70">
-        <f t="shared" ref="AI97" si="214">AI95-AI96</f>
+        <f t="shared" ref="AI97" si="225">AI95-AI96</f>
         <v>30568</v>
       </c>
       <c r="AJ97" s="70">
-        <f t="shared" ref="AJ97" si="215">AJ95-AJ96</f>
+        <f t="shared" ref="AJ97" si="226">AJ95-AJ96</f>
         <v>15545</v>
       </c>
       <c r="AK97" s="70">
-        <f t="shared" ref="AK97" si="216">AK95-AK96</f>
+        <f t="shared" ref="AK97" si="227">AK95-AK96</f>
         <v>10949</v>
       </c>
       <c r="AL97" s="70">
-        <f t="shared" ref="AL97" si="217">AL95-AL96</f>
+        <f t="shared" ref="AL97" si="228">AL95-AL96</f>
         <v>19614</v>
       </c>
       <c r="AM97" s="70">
-        <f t="shared" ref="AM97" si="218">AM95-AM96</f>
+        <f t="shared" ref="AM97" si="229">AM95-AM96</f>
         <v>31103</v>
       </c>
       <c r="AN97" s="70">
-        <f t="shared" ref="AN97" si="219">AN95-AN96</f>
+        <f t="shared" ref="AN97" si="230">AN95-AN96</f>
         <v>19325</v>
       </c>
       <c r="AO97" s="70">
-        <f t="shared" ref="AO97" si="220">AO95-AO96</f>
+        <f t="shared" ref="AO97" si="231">AO95-AO96</f>
         <v>17755</v>
       </c>
       <c r="AP97" s="70">
-        <f t="shared" ref="AP97" si="221">AP95-AP96</f>
+        <f t="shared" ref="AP97" si="232">AP95-AP96</f>
         <v>22564</v>
       </c>
       <c r="AQ97" s="70">
-        <f t="shared" ref="AQ97" si="222">AQ95-AQ96</f>
+        <f t="shared" ref="AQ97" si="233">AQ95-AQ96</f>
         <v>30045</v>
       </c>
       <c r="AR97" s="70">
-        <f t="shared" ref="AR97" si="223">AR95-AR96</f>
+        <f t="shared" ref="AR97" si="234">AR95-AR96</f>
         <v>13518</v>
       </c>
       <c r="AS97" s="70">
-        <f t="shared" ref="AS97" si="224">AS95-AS96</f>
+        <f t="shared" ref="AS97" si="235">AS95-AS96</f>
         <v>13636</v>
       </c>
       <c r="AT97" s="70">
-        <f t="shared" ref="AT97" si="225">AT95-AT96</f>
+        <f t="shared" ref="AT97" si="236">AT95-AT96</f>
         <v>22687</v>
       </c>
       <c r="AU97" s="70">
-        <f t="shared" ref="AU97:BQ97" si="226">AU95-AU96</f>
+        <f t="shared" ref="AU97:BQ97" si="237">AU95-AU96</f>
         <v>32623</v>
       </c>
       <c r="AV97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>15164</v>
       </c>
       <c r="AW97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>17836</v>
       </c>
       <c r="AX97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>22360</v>
       </c>
       <c r="AY97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>42263</v>
       </c>
       <c r="AZ97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>26250</v>
       </c>
       <c r="BA97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>23187</v>
       </c>
       <c r="BB97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>23423</v>
       </c>
       <c r="BC97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>49769</v>
       </c>
       <c r="BD97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>30680</v>
       </c>
       <c r="BE97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>24994</v>
       </c>
       <c r="BF97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>27416</v>
       </c>
       <c r="BG97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>37792</v>
       </c>
       <c r="BH97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>31476</v>
       </c>
       <c r="BI97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>28473</v>
       </c>
       <c r="BJ97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>23761</v>
       </c>
       <c r="BK97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>42287</v>
       </c>
       <c r="BL97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>24686</v>
       </c>
       <c r="BM97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>31009</v>
       </c>
       <c r="BN97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>29719</v>
       </c>
       <c r="BO97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>32875</v>
       </c>
       <c r="BP97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>27023</v>
       </c>
       <c r="BQ97" s="70">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>31329</v>
       </c>
       <c r="BR97" s="70">
@@ -32173,71 +33066,71 @@
       <c r="BU97" s="34"/>
       <c r="BV97" s="34"/>
       <c r="CA97" s="70">
-        <f t="shared" si="165"/>
+        <f t="shared" si="176"/>
         <v>11372</v>
       </c>
       <c r="CB97" s="70">
-        <f t="shared" si="166"/>
+        <f t="shared" si="177"/>
         <v>20716</v>
       </c>
       <c r="CC97" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="178"/>
         <v>44981</v>
       </c>
       <c r="CD97" s="70">
-        <f t="shared" si="168"/>
+        <f t="shared" si="179"/>
         <v>60258</v>
       </c>
       <c r="CE97" s="70">
-        <f t="shared" si="169"/>
+        <f t="shared" si="180"/>
         <v>62742</v>
       </c>
       <c r="CF97" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>69284</v>
       </c>
       <c r="CG97" s="70">
-        <f t="shared" si="171"/>
+        <f t="shared" si="182"/>
         <v>92513</v>
       </c>
       <c r="CH97" s="70">
-        <f t="shared" si="172"/>
+        <f t="shared" si="183"/>
         <v>78965</v>
       </c>
       <c r="CI97" s="70">
-        <f t="shared" si="173"/>
+        <f t="shared" si="184"/>
         <v>76676</v>
       </c>
       <c r="CJ97" s="70">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>90747</v>
       </c>
       <c r="CK97" s="70">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>79886</v>
       </c>
       <c r="CL97" s="70">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>87983</v>
       </c>
       <c r="CM97" s="70">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>115123</v>
       </c>
       <c r="CN97" s="70">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>132859</v>
       </c>
       <c r="CO97" s="70">
-        <f t="shared" si="179"/>
+        <f t="shared" si="190"/>
         <v>121502</v>
       </c>
       <c r="CP97" s="70">
-        <f t="shared" si="180"/>
+        <f t="shared" si="191"/>
         <v>127701</v>
       </c>
       <c r="CQ97" s="70">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>118289</v>
       </c>
       <c r="CR97" s="34"/>
@@ -32307,271 +33200,271 @@
         <v>140</v>
       </c>
       <c r="C98" s="69">
-        <f t="shared" ref="C98:AT98" si="227">C54</f>
+        <f t="shared" ref="C98:AT98" si="238">C54</f>
         <v>24974</v>
       </c>
       <c r="D98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25081</v>
       </c>
       <c r="E98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25195</v>
       </c>
       <c r="F98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25376</v>
       </c>
       <c r="G98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25470</v>
       </c>
       <c r="H98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25578</v>
       </c>
       <c r="I98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25647</v>
       </c>
       <c r="J98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25789</v>
       </c>
       <c r="K98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25740</v>
       </c>
       <c r="L98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25849</v>
       </c>
       <c r="M98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25931</v>
       </c>
       <c r="N98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25879</v>
       </c>
       <c r="O98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>26069</v>
       </c>
       <c r="P98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>26140</v>
       </c>
       <c r="Q98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>26225</v>
       </c>
       <c r="R98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>26175</v>
       </c>
       <c r="S98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>26290</v>
       </c>
       <c r="T98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>26310</v>
       </c>
       <c r="U98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25721</v>
       </c>
       <c r="V98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25909</v>
       </c>
       <c r="W98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>25090</v>
       </c>
       <c r="X98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>24493</v>
       </c>
       <c r="Y98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>24051</v>
       </c>
       <c r="Z98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>24342</v>
       </c>
       <c r="AA98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>23372</v>
       </c>
       <c r="AB98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>23175</v>
       </c>
       <c r="AC98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>22920</v>
       </c>
       <c r="AD98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>23014</v>
       </c>
       <c r="AE98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>22236</v>
       </c>
       <c r="AF98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>22058</v>
       </c>
       <c r="AG98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>21772</v>
       </c>
       <c r="AH98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>21883</v>
       </c>
       <c r="AI98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>21195</v>
       </c>
       <c r="AJ98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>20903</v>
       </c>
       <c r="AK98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>20780</v>
       </c>
       <c r="AL98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>20869</v>
       </c>
       <c r="AM98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>20452</v>
       </c>
       <c r="AN98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>20100</v>
       </c>
       <c r="AO98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>19529</v>
       </c>
       <c r="AP98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>19822</v>
       </c>
       <c r="AQ98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>18943</v>
       </c>
       <c r="AR98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>18696</v>
       </c>
       <c r="AS98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>18283</v>
       </c>
       <c r="AT98" s="69">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>18471</v>
       </c>
       <c r="AU98" s="69">
-        <f t="shared" ref="AU98:BQ98" si="228">AU54</f>
+        <f t="shared" ref="AU98:BQ98" si="239">AU54</f>
         <v>17660</v>
       </c>
       <c r="AV98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>17440</v>
       </c>
       <c r="AW98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>17250</v>
       </c>
       <c r="AX98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>17352</v>
       </c>
       <c r="AY98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>16935</v>
       </c>
       <c r="AZ98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>16753</v>
       </c>
       <c r="BA98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>16629</v>
       </c>
       <c r="BB98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>16701</v>
       </c>
       <c r="BC98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>16392</v>
       </c>
       <c r="BD98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>16279</v>
       </c>
       <c r="BE98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>16163</v>
       </c>
       <c r="BF98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>16216</v>
       </c>
       <c r="BG98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>15893</v>
       </c>
       <c r="BH98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>15787</v>
       </c>
       <c r="BI98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>15698</v>
       </c>
       <c r="BJ98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>15744</v>
       </c>
       <c r="BK98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>15510</v>
       </c>
       <c r="BL98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>15406</v>
       </c>
       <c r="BM98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>15288</v>
       </c>
       <c r="BN98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>15343</v>
       </c>
       <c r="BO98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>15082</v>
       </c>
       <c r="BP98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>14994</v>
       </c>
       <c r="BQ98" s="69">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>14903</v>
       </c>
       <c r="BR98" s="69">
@@ -32583,67 +33476,67 @@
         <v>25156.5</v>
       </c>
       <c r="CB98" s="69">
-        <f t="shared" ref="CB98:CQ98" si="229">CB54</f>
+        <f t="shared" ref="CB98:CQ98" si="240">CB54</f>
         <v>25621</v>
       </c>
       <c r="CC98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>25849.75</v>
       </c>
       <c r="CD98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>26152.25</v>
       </c>
       <c r="CE98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>26057.5</v>
       </c>
       <c r="CF98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>24494</v>
       </c>
       <c r="CG98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>23120.25</v>
       </c>
       <c r="CH98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>21987.25</v>
       </c>
       <c r="CI98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>20936.75</v>
       </c>
       <c r="CJ98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>19975.75</v>
       </c>
       <c r="CK98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>18598.25</v>
       </c>
       <c r="CL98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>17425.5</v>
       </c>
       <c r="CM98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>16754.5</v>
       </c>
       <c r="CN98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>16262.5</v>
       </c>
       <c r="CO98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>15780.5</v>
       </c>
       <c r="CP98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>15386.75</v>
       </c>
       <c r="CQ98" s="69">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>15279.75</v>
       </c>
     </row>
@@ -32652,271 +33545,271 @@
         <v>141</v>
       </c>
       <c r="C99" s="39">
-        <f t="shared" ref="C99" si="230">C97/C98</f>
+        <f t="shared" ref="C99" si="241">C97/C98</f>
         <v>0.24561544005765998</v>
       </c>
       <c r="D99" s="39">
-        <f t="shared" ref="D99" si="231">D97/D98</f>
+        <f t="shared" ref="D99" si="242">D97/D98</f>
         <v>-3.5325545233443639E-2</v>
       </c>
       <c r="E99" s="39">
-        <f t="shared" ref="E99" si="232">E97/E98</f>
+        <f t="shared" ref="E99" si="243">E97/E98</f>
         <v>0.10089303433220877</v>
       </c>
       <c r="F99" s="39">
-        <f t="shared" ref="F99" si="233">F97/F98</f>
+        <f t="shared" ref="F99" si="244">F97/F98</f>
         <v>0.14115699873896595</v>
       </c>
       <c r="G99" s="39">
-        <f t="shared" ref="G99" si="234">G97/G98</f>
+        <f t="shared" ref="G99" si="245">G97/G98</f>
         <v>0.24193168433451118</v>
       </c>
       <c r="H99" s="39">
-        <f t="shared" ref="H99" si="235">H97/H98</f>
+        <f t="shared" ref="H99" si="246">H97/H98</f>
         <v>0.10286183438892799</v>
       </c>
       <c r="I99" s="39">
-        <f t="shared" ref="I99" si="236">I97/I98</f>
+        <f t="shared" ref="I99" si="247">I97/I98</f>
         <v>0.21160369633875306</v>
       </c>
       <c r="J99" s="39">
-        <f t="shared" ref="J99" si="237">J97/J98</f>
+        <f t="shared" ref="J99" si="248">J97/J98</f>
         <v>0.25189034084299505</v>
       </c>
       <c r="K99" s="39">
-        <f t="shared" ref="K99" si="238">K97/K98</f>
+        <f t="shared" ref="K99" si="249">K97/K98</f>
         <v>0.42874902874902876</v>
       </c>
       <c r="L99" s="39">
-        <f t="shared" ref="L99" si="239">L97/L98</f>
+        <f t="shared" ref="L99" si="250">L97/L98</f>
         <v>0.26596773569577159</v>
       </c>
       <c r="M99" s="39">
-        <f t="shared" ref="M99" si="240">M97/M98</f>
+        <f t="shared" ref="M99" si="251">M97/M98</f>
         <v>0.46546604450271878</v>
       </c>
       <c r="N99" s="39">
-        <f t="shared" ref="N99" si="241">N97/N98</f>
+        <f t="shared" ref="N99" si="252">N97/N98</f>
         <v>0.57962054175199973</v>
       </c>
       <c r="O99" s="39">
-        <f t="shared" ref="O99" si="242">O97/O98</f>
+        <f t="shared" ref="O99" si="253">O97/O98</f>
         <v>0.72818289922896928</v>
       </c>
       <c r="P99" s="39">
-        <f t="shared" ref="P99" si="243">P97/P98</f>
+        <f t="shared" ref="P99" si="254">P97/P98</f>
         <v>0.59242540168324409</v>
       </c>
       <c r="Q99" s="39">
-        <f t="shared" ref="Q99" si="244">Q97/Q98</f>
+        <f t="shared" ref="Q99" si="255">Q97/Q98</f>
         <v>0.50150619637750238</v>
       </c>
       <c r="R99" s="39">
-        <f t="shared" ref="R99" si="245">R97/R98</f>
+        <f t="shared" ref="R99" si="256">R97/R98</f>
         <v>0.48278892072588347</v>
       </c>
       <c r="S99" s="39">
-        <f t="shared" ref="S99" si="246">S97/S98</f>
+        <f t="shared" ref="S99" si="257">S97/S98</f>
         <v>0.98444275389882085</v>
       </c>
       <c r="T99" s="39">
-        <f t="shared" ref="T99" si="247">T97/T98</f>
+        <f t="shared" ref="T99" si="258">T97/T98</f>
         <v>0.56263778031166856</v>
       </c>
       <c r="U99" s="39">
-        <f t="shared" ref="U99" si="248">U97/U98</f>
+        <f t="shared" ref="U99" si="259">U97/U98</f>
         <v>0.38272228918004741</v>
       </c>
       <c r="V99" s="39">
-        <f t="shared" ref="V99" si="249">V97/V98</f>
+        <f t="shared" ref="V99" si="260">V97/V98</f>
         <v>0.47141919796209814</v>
       </c>
       <c r="W99" s="39">
-        <f t="shared" ref="W99" si="250">W97/W98</f>
+        <f t="shared" ref="W99" si="261">W97/W98</f>
         <v>0.98266241530490239</v>
       </c>
       <c r="X99" s="39">
-        <f t="shared" ref="X99" si="251">X97/X98</f>
+        <f t="shared" ref="X99" si="262">X97/X98</f>
         <v>0.60915363573265835</v>
       </c>
       <c r="Y99" s="39">
-        <f t="shared" ref="Y99" si="252">Y97/Y98</f>
+        <f t="shared" ref="Y99" si="263">Y97/Y98</f>
         <v>0.52525882499688159</v>
       </c>
       <c r="Z99" s="39">
-        <f t="shared" ref="Z99" si="253">Z97/Z98</f>
+        <f t="shared" ref="Z99" si="264">Z97/Z98</f>
         <v>0.70150357406950947</v>
       </c>
       <c r="AA99" s="39">
-        <f t="shared" ref="AA99" si="254">AA97/AA98</f>
+        <f t="shared" ref="AA99" si="265">AA97/AA98</f>
         <v>1.5804809173369845</v>
       </c>
       <c r="AB99" s="39">
-        <f t="shared" ref="AB99" si="255">AB97/AB98</f>
+        <f t="shared" ref="AB99" si="266">AB97/AB98</f>
         <v>0.92556634304207119</v>
       </c>
       <c r="AC99" s="39">
-        <f t="shared" ref="AC99" si="256">AC97/AC98</f>
+        <f t="shared" ref="AC99" si="267">AC97/AC98</f>
         <v>0.74306282722513084</v>
       </c>
       <c r="AD99" s="39">
-        <f t="shared" ref="AD99" si="257">AD97/AD98</f>
+        <f t="shared" ref="AD99" si="268">AD97/AD98</f>
         <v>0.74272182149995658</v>
       </c>
       <c r="AE99" s="39">
-        <f t="shared" ref="AE99" si="258">AE97/AE98</f>
+        <f t="shared" ref="AE99" si="269">AE97/AE98</f>
         <v>1.3975085447022846</v>
       </c>
       <c r="AF99" s="39">
-        <f t="shared" ref="AF99" si="259">AF97/AF98</f>
+        <f t="shared" ref="AF99" si="270">AF97/AF98</f>
         <v>0.63183425514552538</v>
       </c>
       <c r="AG99" s="39">
-        <f t="shared" ref="AG99" si="260">AG97/AG98</f>
+        <f t="shared" ref="AG99" si="271">AG97/AG98</f>
         <v>0.6174444240308653</v>
       </c>
       <c r="AH99" s="39">
-        <f t="shared" ref="AH99" si="261">AH97/AH98</f>
+        <f t="shared" ref="AH99" si="272">AH97/AH98</f>
         <v>0.93725723164099983</v>
       </c>
       <c r="AI99" s="39">
-        <f t="shared" ref="AI99" si="262">AI97/AI98</f>
+        <f t="shared" ref="AI99" si="273">AI97/AI98</f>
         <v>1.4422269403161123</v>
       </c>
       <c r="AJ99" s="39">
-        <f t="shared" ref="AJ99" si="263">AJ97/AJ98</f>
+        <f t="shared" ref="AJ99" si="274">AJ97/AJ98</f>
         <v>0.74367315696311531</v>
       </c>
       <c r="AK99" s="39">
-        <f t="shared" ref="AK99" si="264">AK97/AK98</f>
+        <f t="shared" ref="AK99" si="275">AK97/AK98</f>
         <v>0.52690086621751686</v>
       </c>
       <c r="AL99" s="39">
-        <f t="shared" ref="AL99" si="265">AL97/AL98</f>
+        <f t="shared" ref="AL99" si="276">AL97/AL98</f>
         <v>0.93986295462168767</v>
       </c>
       <c r="AM99" s="39">
-        <f t="shared" ref="AM99" si="266">AM97/AM98</f>
+        <f t="shared" ref="AM99" si="277">AM97/AM98</f>
         <v>1.5207803637786035</v>
       </c>
       <c r="AN99" s="39">
-        <f t="shared" ref="AN99" si="267">AN97/AN98</f>
+        <f t="shared" ref="AN99" si="278">AN97/AN98</f>
         <v>0.96144278606965172</v>
       </c>
       <c r="AO99" s="39">
-        <f t="shared" ref="AO99" si="268">AO97/AO98</f>
+        <f t="shared" ref="AO99" si="279">AO97/AO98</f>
         <v>0.90916073531670849</v>
       </c>
       <c r="AP99" s="39">
-        <f t="shared" ref="AP99" si="269">AP97/AP98</f>
+        <f t="shared" ref="AP99" si="280">AP97/AP98</f>
         <v>1.1383311472101705</v>
       </c>
       <c r="AQ99" s="39">
-        <f t="shared" ref="AQ99" si="270">AQ97/AQ98</f>
+        <f t="shared" ref="AQ99" si="281">AQ97/AQ98</f>
         <v>1.5860740115082088</v>
       </c>
       <c r="AR99" s="39">
-        <f t="shared" ref="AR99" si="271">AR97/AR98</f>
+        <f t="shared" ref="AR99" si="282">AR97/AR98</f>
         <v>0.72304236200256744</v>
       </c>
       <c r="AS99" s="39">
-        <f t="shared" ref="AS99" si="272">AS97/AS98</f>
+        <f t="shared" ref="AS99" si="283">AS97/AS98</f>
         <v>0.74582945906032927</v>
       </c>
       <c r="AT99" s="39">
-        <f t="shared" ref="AT99" si="273">AT97/AT98</f>
+        <f t="shared" ref="AT99" si="284">AT97/AT98</f>
         <v>1.2282496887012073</v>
       </c>
       <c r="AU99" s="39">
-        <f t="shared" ref="AU99:BQ99" si="274">AU97/AU98</f>
+        <f t="shared" ref="AU99:BQ99" si="285">AU97/AU98</f>
         <v>1.8472819932049831</v>
       </c>
       <c r="AV99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>0.86949541284403675</v>
       </c>
       <c r="AW99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.0339710144927536</v>
       </c>
       <c r="AX99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.2886122637159982</v>
       </c>
       <c r="AY99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>2.4956008266902865</v>
       </c>
       <c r="AZ99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.5668835432459858</v>
       </c>
       <c r="BA99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.394371279090745</v>
       </c>
       <c r="BB99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.4024908688102509</v>
       </c>
       <c r="BC99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>3.0361761835041485</v>
       </c>
       <c r="BD99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.884636648442779</v>
       </c>
       <c r="BE99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.5463713419538452</v>
       </c>
       <c r="BF99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.6906758756783424</v>
       </c>
       <c r="BG99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>2.3779022211036307</v>
       </c>
       <c r="BH99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.9937923608031924</v>
       </c>
       <c r="BI99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.813797936042808</v>
       </c>
       <c r="BJ99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.5092098577235773</v>
       </c>
       <c r="BK99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>2.7264345583494518</v>
       </c>
       <c r="BL99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.6023627158250033</v>
       </c>
       <c r="BM99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>2.028322867608582</v>
       </c>
       <c r="BN99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.9369745160659584</v>
       </c>
       <c r="BO99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>2.1797506961941386</v>
       </c>
       <c r="BP99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>1.8022542350273443</v>
       </c>
       <c r="BQ99" s="39">
-        <f t="shared" si="274"/>
+        <f t="shared" si="285"/>
         <v>2.1021941890894449</v>
       </c>
       <c r="BR99" s="39">
@@ -32924,71 +33817,71 @@
         <v>2.2054986955649207</v>
       </c>
       <c r="CA99" s="39">
-        <f t="shared" si="165"/>
+        <f t="shared" si="176"/>
         <v>0.45233992789539101</v>
       </c>
       <c r="CB99" s="39">
-        <f t="shared" si="166"/>
+        <f t="shared" si="177"/>
         <v>0.80828755590518719</v>
       </c>
       <c r="CC99" s="39">
-        <f t="shared" si="167"/>
+        <f t="shared" si="178"/>
         <v>1.7398033506995187</v>
       </c>
       <c r="CD99" s="39">
-        <f t="shared" si="168"/>
+        <f t="shared" si="179"/>
         <v>2.3049034180155989</v>
       </c>
       <c r="CE99" s="39">
-        <f t="shared" si="169"/>
+        <f t="shared" si="180"/>
         <v>2.401222021352635</v>
       </c>
       <c r="CF99" s="39">
-        <f t="shared" si="170"/>
+        <f t="shared" si="181"/>
         <v>2.8185784501039519</v>
       </c>
       <c r="CG99" s="39">
-        <f t="shared" si="171"/>
+        <f t="shared" si="182"/>
         <v>3.991831909104143</v>
       </c>
       <c r="CH99" s="39">
-        <f t="shared" si="172"/>
+        <f t="shared" si="183"/>
         <v>3.5840444555196753</v>
       </c>
       <c r="CI99" s="39">
-        <f t="shared" si="173"/>
+        <f t="shared" si="184"/>
         <v>3.6526639181184319</v>
       </c>
       <c r="CJ99" s="39">
-        <f t="shared" si="174"/>
+        <f t="shared" si="185"/>
         <v>4.5297150323751341</v>
       </c>
       <c r="CK99" s="39">
-        <f t="shared" si="175"/>
+        <f t="shared" si="186"/>
         <v>4.2831955212723134</v>
       </c>
       <c r="CL99" s="39">
-        <f t="shared" si="176"/>
+        <f t="shared" si="187"/>
         <v>5.0393606842577716</v>
       </c>
       <c r="CM99" s="39">
-        <f t="shared" si="177"/>
+        <f t="shared" si="188"/>
         <v>6.8593465178372677</v>
       </c>
       <c r="CN99" s="39">
-        <f t="shared" si="178"/>
+        <f t="shared" si="189"/>
         <v>8.1578600495791154</v>
       </c>
       <c r="CO99" s="39">
-        <f t="shared" si="179"/>
+        <f t="shared" si="190"/>
         <v>7.6947023756732076</v>
       </c>
       <c r="CP99" s="39">
-        <f t="shared" si="180"/>
+        <f t="shared" si="191"/>
         <v>8.294094657848996</v>
       </c>
       <c r="CQ99" s="39">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>7.747410795693682</v>
       </c>
     </row>
@@ -33041,8 +33934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CB1558"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE140" sqref="AE140"/>
+    <sheetView topLeftCell="H118" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AV171" sqref="AV170:AV171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>

--- a/AAPL_Model.xlsx
+++ b/AAPL_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Technology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0F004A-3C43-4D95-8092-0F2945EE5AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72883B8-0766-4829-864E-2C6DF766B868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4827,8 +4827,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5305,7 +5305,7 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5342,20 +5342,20 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -15083,7 +15083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -15477,11 +15477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B27957-A42B-4AB7-A411-12A70E029F5D}">
   <dimension ref="B1:FA99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="CF42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="CF39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DA73" sqref="DA73"/>
+      <selection pane="bottomRight" activeCell="DA45" sqref="DA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -15495,7 +15495,7 @@
     <col min="75" max="94" width="9.140625" style="1"/>
     <col min="95" max="95" width="9.140625" style="35"/>
     <col min="96" max="104" width="9.140625" style="35" customWidth="1"/>
-    <col min="105" max="105" width="12" style="35" customWidth="1"/>
+    <col min="105" max="105" width="11.5703125" style="35" customWidth="1"/>
     <col min="106" max="156" width="9.140625" style="35"/>
     <col min="157" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -21836,11 +21836,11 @@
         <v>223546</v>
       </c>
       <c r="CO45" s="68">
-        <f t="shared" ref="CO44:CO53" si="91">SUM(BG45:BJ45)</f>
+        <f t="shared" ref="CO45:CO53" si="91">SUM(BG45:BJ45)</f>
         <v>214137</v>
       </c>
       <c r="CP45" s="68">
-        <f t="shared" ref="CP44:CP53" si="92">SUM(BK45:BN45)</f>
+        <f t="shared" ref="CP45:CP53" si="92">SUM(BK45:BN45)</f>
         <v>210352</v>
       </c>
       <c r="CQ45" s="68">
@@ -21883,7 +21883,7 @@
         <f t="shared" si="94"/>
         <v>383177.25679743232</v>
       </c>
-      <c r="DA45" s="35">
+      <c r="DA45" s="74">
         <f t="shared" si="94"/>
         <v>392802.99085181014</v>
       </c>
@@ -23573,39 +23573,39 @@
         <v>7366.4699999999993</v>
       </c>
       <c r="CS50" s="74">
-        <f>CR64*($DA$66)-(10000*(0.035))</f>
+        <f t="shared" ref="CS50:DA50" si="104">CR64*($DA$66)-(10000*(0.035))</f>
         <v>32683.160014161913</v>
       </c>
       <c r="CT50" s="74">
-        <f>CS64*($DA$66)-(10000*(0.035))</f>
+        <f t="shared" si="104"/>
         <v>64837.190050263773</v>
       </c>
       <c r="CU50" s="74">
-        <f>CT64*($DA$66)-(10000*(0.035))</f>
+        <f t="shared" si="104"/>
         <v>104331.77022796409</v>
       </c>
       <c r="CV50" s="74">
-        <f>CU64*($DA$66)-(10000*(0.035))</f>
+        <f t="shared" si="104"/>
         <v>153557.04974517695</v>
       </c>
       <c r="CW50" s="74">
-        <f>CV64*($DA$66)-(10000*(0.035))</f>
+        <f t="shared" si="104"/>
         <v>214137.22925049099</v>
       </c>
       <c r="CX50" s="74">
-        <f>CW64*($DA$66)-(10000*(0.035))</f>
+        <f t="shared" si="104"/>
         <v>287538.45978714107</v>
       </c>
       <c r="CY50" s="74">
-        <f>CX64*($DA$66)-(10000*(0.035))</f>
+        <f t="shared" si="104"/>
         <v>375507.3362708317</v>
       </c>
       <c r="CZ50" s="74">
-        <f>CY64*($DA$66)-(10000*(0.035))</f>
+        <f t="shared" si="104"/>
         <v>480387.63252803293</v>
       </c>
       <c r="DA50" s="74">
-        <f>CZ64*($DA$66)-(10000*(0.035))</f>
+        <f t="shared" si="104"/>
         <v>604756.08088044228</v>
       </c>
     </row>
@@ -23614,271 +23614,271 @@
         <v>1531</v>
       </c>
       <c r="C51" s="68">
-        <f t="shared" ref="C51:AT51" si="104">C49+C50</f>
+        <f t="shared" ref="C51:AT51" si="105">C49+C50</f>
         <v>4758</v>
       </c>
       <c r="D51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2386</v>
       </c>
       <c r="E51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2692</v>
       </c>
       <c r="F51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2230</v>
       </c>
       <c r="G51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4758</v>
       </c>
       <c r="H51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4029</v>
       </c>
       <c r="I51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4292</v>
       </c>
       <c r="J51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>5461</v>
       </c>
       <c r="K51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>7963</v>
       </c>
       <c r="L51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>7900</v>
       </c>
       <c r="M51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>9551</v>
       </c>
       <c r="N51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>8791</v>
       </c>
       <c r="O51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>17477</v>
       </c>
       <c r="P51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>15532</v>
       </c>
       <c r="Q51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>11861</v>
       </c>
       <c r="R51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>10893</v>
       </c>
       <c r="S51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>17672</v>
       </c>
       <c r="T51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>12905</v>
       </c>
       <c r="U51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>9435</v>
       </c>
       <c r="V51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>10143</v>
       </c>
       <c r="W51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>17709</v>
       </c>
       <c r="X51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>13818</v>
       </c>
       <c r="Y51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>10484</v>
       </c>
       <c r="Z51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>11472</v>
       </c>
       <c r="AA51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>24416</v>
       </c>
       <c r="AB51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>18564</v>
       </c>
       <c r="AC51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>14473</v>
       </c>
       <c r="AD51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>15062</v>
       </c>
       <c r="AE51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>24573</v>
       </c>
       <c r="AF51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>14142</v>
       </c>
       <c r="AG51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>10469</v>
       </c>
       <c r="AH51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>12188</v>
       </c>
       <c r="AI51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>24180</v>
       </c>
       <c r="AJ51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>14684</v>
       </c>
       <c r="AK51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>11308</v>
       </c>
       <c r="AL51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>13917</v>
       </c>
       <c r="AM51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>27030</v>
       </c>
       <c r="AN51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>16168</v>
       </c>
       <c r="AO51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>13284</v>
       </c>
       <c r="AP51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>16421</v>
       </c>
       <c r="AQ51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>23906</v>
       </c>
       <c r="AR51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>13793</v>
       </c>
       <c r="AS51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>11911</v>
       </c>
       <c r="AT51" s="68">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>16127</v>
       </c>
       <c r="AU51" s="68">
-        <f t="shared" ref="AU51:BQ51" si="105">AU49+AU50</f>
+        <f t="shared" ref="AU51:BQ51" si="106">AU49+AU50</f>
         <v>25918</v>
       </c>
       <c r="AV51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>13135</v>
       </c>
       <c r="AW51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>13137</v>
       </c>
       <c r="AX51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>14901</v>
       </c>
       <c r="AY51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>33579</v>
       </c>
       <c r="AZ51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>28011</v>
       </c>
       <c r="BA51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>24369</v>
       </c>
       <c r="BB51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>23248</v>
       </c>
       <c r="BC51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>41241</v>
       </c>
       <c r="BD51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>30139</v>
       </c>
       <c r="BE51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>23066</v>
       </c>
       <c r="BF51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>24757</v>
       </c>
       <c r="BG51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>35623</v>
       </c>
       <c r="BH51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>28382</v>
       </c>
       <c r="BI51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>22733</v>
       </c>
       <c r="BJ51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>26998</v>
       </c>
       <c r="BK51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>40323</v>
       </c>
       <c r="BL51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>28058</v>
       </c>
       <c r="BM51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>25494</v>
       </c>
       <c r="BN51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>29610</v>
       </c>
       <c r="BO51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>42584</v>
       </c>
       <c r="BP51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>29310</v>
       </c>
       <c r="BQ51" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>28031</v>
       </c>
       <c r="BR51" s="68">
@@ -23958,39 +23958,39 @@
         <v>152687.03161309884</v>
       </c>
       <c r="CS51" s="74">
-        <f t="shared" ref="CS51:DA51" si="106">CS49+CS50</f>
+        <f t="shared" ref="CS51:DA51" si="107">CS49+CS50</f>
         <v>191279.1792748475</v>
       </c>
       <c r="CT51" s="74">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>234946.93740452308</v>
       </c>
       <c r="CU51" s="74">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>292833.31063184328</v>
       </c>
       <c r="CV51" s="74">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>360381.79360686499</v>
       </c>
       <c r="CW51" s="74">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>436652.17451903672</v>
       </c>
       <c r="CX51" s="74">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>523312.76908798725</v>
       </c>
       <c r="CY51" s="74">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>623916.09909102449</v>
       </c>
       <c r="CZ51" s="74">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>739847.99733735458</v>
       </c>
       <c r="DA51" s="74">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>872772.26155075419</v>
       </c>
     </row>
@@ -24275,39 +24275,39 @@
         <v>27483.66569035779</v>
       </c>
       <c r="CS52" s="74">
-        <f t="shared" ref="CS52:DA52" si="107">CS51*CS61</f>
+        <f t="shared" ref="CS52:DA52" si="108">CS51*CS61</f>
         <v>34430.252269472549</v>
       </c>
       <c r="CT52" s="74">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>42290.448732814155</v>
       </c>
       <c r="CU52" s="74">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>52709.995913731786</v>
       </c>
       <c r="CV52" s="74">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>64868.722849235695</v>
       </c>
       <c r="CW52" s="74">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>78597.391413426609</v>
       </c>
       <c r="CX52" s="74">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>94196.2984358377</v>
       </c>
       <c r="CY52" s="74">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>112304.89783638441</v>
       </c>
       <c r="CZ52" s="74">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>133172.63952072381</v>
       </c>
       <c r="DA52" s="74">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>157099.00707913574</v>
       </c>
     </row>
@@ -24316,271 +24316,271 @@
         <v>136</v>
       </c>
       <c r="C53" s="69">
-        <f t="shared" ref="C53:AT53" si="108">C51-C52</f>
+        <f t="shared" ref="C53:AT53" si="109">C51-C52</f>
         <v>3378</v>
       </c>
       <c r="D53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1620</v>
       </c>
       <c r="E53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1828</v>
       </c>
       <c r="F53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>1409</v>
       </c>
       <c r="G53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>3378</v>
       </c>
       <c r="H53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>3074</v>
       </c>
       <c r="I53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>3253</v>
       </c>
       <c r="J53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>4308</v>
       </c>
       <c r="K53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>6004</v>
       </c>
       <c r="L53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>5987</v>
       </c>
       <c r="M53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>7308</v>
       </c>
       <c r="N53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>6623</v>
       </c>
       <c r="O53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>13064</v>
       </c>
       <c r="P53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>11622</v>
       </c>
       <c r="Q53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8824</v>
       </c>
       <c r="R53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8223</v>
       </c>
       <c r="S53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>13078</v>
       </c>
       <c r="T53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>9547</v>
       </c>
       <c r="U53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>6900</v>
       </c>
       <c r="V53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>7512</v>
       </c>
       <c r="W53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>13072</v>
       </c>
       <c r="X53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>10223</v>
       </c>
       <c r="Y53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>7748</v>
       </c>
       <c r="Z53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8467</v>
       </c>
       <c r="AA53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>18024</v>
       </c>
       <c r="AB53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>13569</v>
       </c>
       <c r="AC53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>10677</v>
       </c>
       <c r="AD53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>11124</v>
       </c>
       <c r="AE53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>18361</v>
       </c>
       <c r="AF53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>10516</v>
       </c>
       <c r="AG53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>7796</v>
       </c>
       <c r="AH53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>9014</v>
       </c>
       <c r="AI53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>17891</v>
       </c>
       <c r="AJ53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>11029</v>
       </c>
       <c r="AK53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8717</v>
       </c>
       <c r="AL53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>10714</v>
       </c>
       <c r="AM53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>20065</v>
       </c>
       <c r="AN53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>13822</v>
       </c>
       <c r="AO53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>11519</v>
       </c>
       <c r="AP53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>14125</v>
       </c>
       <c r="AQ53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>19965</v>
       </c>
       <c r="AR53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>11561</v>
       </c>
       <c r="AS53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>10044</v>
       </c>
       <c r="AT53" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>13686</v>
       </c>
       <c r="AU53" s="69">
-        <f t="shared" ref="AU53:BQ53" si="109">AU51-AU52</f>
+        <f t="shared" ref="AU53:BQ53" si="110">AU51-AU52</f>
         <v>22236</v>
       </c>
       <c r="AV53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>11249</v>
       </c>
       <c r="AW53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>11253</v>
       </c>
       <c r="AX53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>12673</v>
       </c>
       <c r="AY53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>28755</v>
       </c>
       <c r="AZ53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>23630</v>
       </c>
       <c r="BA53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>21744</v>
       </c>
       <c r="BB53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>20551</v>
       </c>
       <c r="BC53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>34630</v>
       </c>
       <c r="BD53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>25010</v>
       </c>
       <c r="BE53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>19442</v>
       </c>
       <c r="BF53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>20821</v>
       </c>
       <c r="BG53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>29998</v>
       </c>
       <c r="BH53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>24160</v>
       </c>
       <c r="BI53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>19881</v>
       </c>
       <c r="BJ53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>22956</v>
       </c>
       <c r="BK53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>33916</v>
       </c>
       <c r="BL53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>23636</v>
       </c>
       <c r="BM53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>21448</v>
       </c>
       <c r="BN53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>14736</v>
       </c>
       <c r="BO53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>36330</v>
       </c>
       <c r="BP53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>24780</v>
       </c>
       <c r="BQ53" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>23434</v>
       </c>
       <c r="BR53" s="69">
@@ -24664,39 +24664,39 @@
         <v>125203.36592274104</v>
       </c>
       <c r="CS53" s="75">
-        <f t="shared" ref="CS53:DA53" si="110">CS51-CS52</f>
+        <f t="shared" ref="CS53:DA53" si="111">CS51-CS52</f>
         <v>156848.92700537495</v>
       </c>
       <c r="CT53" s="75">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>192656.48867170891</v>
       </c>
       <c r="CU53" s="75">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>240123.31471811151</v>
       </c>
       <c r="CV53" s="75">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>295513.07075762929</v>
       </c>
       <c r="CW53" s="75">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>358054.78310561011</v>
       </c>
       <c r="CX53" s="75">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>429116.47065214952</v>
       </c>
       <c r="CY53" s="75">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>511611.20125464007</v>
       </c>
       <c r="CZ53" s="75">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>606675.35781663074</v>
       </c>
       <c r="DA53" s="75">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>715673.25447161845</v>
       </c>
       <c r="DB53" s="34">
@@ -24704,195 +24704,195 @@
         <v>729986.71956105088</v>
       </c>
       <c r="DC53" s="34">
-        <f t="shared" ref="DC53:EX53" si="111">DB53*(1+DB67)</f>
+        <f t="shared" ref="DC53:EX53" si="112">DB53*(1+DB67)</f>
         <v>729986.71956105088</v>
       </c>
       <c r="DD53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DE53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DF53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DG53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DH53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DI53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DJ53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DK53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DL53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DM53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DN53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DO53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DP53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DQ53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DR53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DS53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DT53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DU53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DV53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DW53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DX53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DY53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="DZ53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EA53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EB53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EC53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="ED53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EE53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EF53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EG53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EH53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EI53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EJ53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EK53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EL53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EM53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EN53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EO53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EP53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EQ53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="ER53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="ES53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="ET53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EU53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EV53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EW53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EX53" s="34">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>729986.71956105088</v>
       </c>
       <c r="EY53" s="34"/>
@@ -25180,271 +25180,271 @@
         <v>1533</v>
       </c>
       <c r="C55" s="39">
-        <f t="shared" ref="C55:AT55" si="112">C53/C54</f>
+        <f t="shared" ref="C55:AT55" si="113">C53/C54</f>
         <v>0.13526067109794185</v>
       </c>
       <c r="D55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>6.4590726047605754E-2</v>
       </c>
       <c r="E55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>7.2554078190117083E-2</v>
       </c>
       <c r="F55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>5.5524905422446404E-2</v>
       </c>
       <c r="G55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.13262661955241462</v>
       </c>
       <c r="H55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.12018140589569161</v>
       </c>
       <c r="I55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.12683744687487816</v>
       </c>
       <c r="J55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.16704796618713405</v>
       </c>
       <c r="K55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.23325563325563325</v>
       </c>
       <c r="L55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.2316143757979032</v>
       </c>
       <c r="M55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.28182484285218462</v>
       </c>
       <c r="N55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.25592178986823294</v>
       </c>
       <c r="O55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.5011316122597721</v>
       </c>
       <c r="P55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.44460596786534046</v>
       </c>
       <c r="Q55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.33647283126787414</v>
       </c>
       <c r="R55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.3141547277936963</v>
       </c>
       <c r="S55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.49745150247242298</v>
       </c>
       <c r="T55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.36286583048270621</v>
       </c>
       <c r="U55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.26826328680844447</v>
       </c>
       <c r="V55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.28993785943108574</v>
       </c>
       <c r="W55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.52100438421681949</v>
       </c>
       <c r="X55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.41738455885354997</v>
       </c>
       <c r="Y55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.32214876720302688</v>
       </c>
       <c r="Z55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.34783501766494124</v>
       </c>
       <c r="AA55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.7711791887728906</v>
       </c>
       <c r="AB55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.5855016181229773</v>
       </c>
       <c r="AC55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.46583769633507854</v>
       </c>
       <c r="AD55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.48335795602676629</v>
       </c>
       <c r="AE55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.82573304551178273</v>
       </c>
       <c r="AF55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.47674313174358507</v>
       </c>
       <c r="AG55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.35807459121807828</v>
       </c>
       <c r="AH55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.41191792715806791</v>
       </c>
       <c r="AI55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.8441141778721396</v>
       </c>
       <c r="AJ55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.5276276132612544</v>
       </c>
       <c r="AK55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.41948989412897014</v>
       </c>
       <c r="AL55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.51339307106234122</v>
       </c>
       <c r="AM55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.98107764521807161</v>
       </c>
       <c r="AN55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.68766169154228851</v>
       </c>
       <c r="AO55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.58984074965436017</v>
       </c>
       <c r="AP55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.71259206941781861</v>
       </c>
       <c r="AQ55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1.0539513276672121</v>
       </c>
       <c r="AR55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.6183675652545999</v>
       </c>
       <c r="AS55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.54936279604003724</v>
       </c>
       <c r="AT55" s="39">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.74094526555140494</v>
       </c>
       <c r="AU55" s="39">
-        <f t="shared" ref="AU55:BQ55" si="113">AU53/AU54</f>
+        <f t="shared" ref="AU55:BQ55" si="114">AU53/AU54</f>
         <v>1.2591166477916196</v>
       </c>
       <c r="AV55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0.64501146788990826</v>
       </c>
       <c r="AW55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0.65234782608695652</v>
       </c>
       <c r="AX55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0.73034808667588746</v>
       </c>
       <c r="AY55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.6979627989371124</v>
       </c>
       <c r="AZ55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.4104936429296246</v>
       </c>
       <c r="BA55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.3075951650730651</v>
       </c>
       <c r="BB55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.2305251182563919</v>
       </c>
       <c r="BC55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>2.1126159102000974</v>
       </c>
       <c r="BD55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.5363351557220959</v>
       </c>
       <c r="BE55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.2028707541916723</v>
       </c>
       <c r="BF55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.2839787863838183</v>
       </c>
       <c r="BG55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.8874976404706474</v>
       </c>
       <c r="BH55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.5303730917843796</v>
       </c>
       <c r="BI55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.2664670658682635</v>
       </c>
       <c r="BJ55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.4580792682926829</v>
       </c>
       <c r="BK55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>2.1867182462927142</v>
       </c>
       <c r="BL55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.5342074516422173</v>
       </c>
       <c r="BM55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.4029304029304028</v>
       </c>
       <c r="BN55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>0.96043798474874531</v>
       </c>
       <c r="BO55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>2.4088317199310438</v>
       </c>
       <c r="BP55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.6526610644257702</v>
       </c>
       <c r="BQ55" s="39">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>1.5724350801851976</v>
       </c>
       <c r="BR55" s="39">
@@ -25596,271 +25596,271 @@
         <v>121</v>
       </c>
       <c r="C57" s="70">
-        <f t="shared" ref="C57:AT57" si="114">C46/C44</f>
+        <f t="shared" ref="C57:AT57" si="115">C46/C44</f>
         <v>0.40878658419945163</v>
       </c>
       <c r="D57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.39927344782034346</v>
       </c>
       <c r="E57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.40918430244503801</v>
       </c>
       <c r="F57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38089005235602097</v>
       </c>
       <c r="G57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.40878658419945163</v>
       </c>
       <c r="H57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.41669753315060376</v>
       </c>
       <c r="I57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.39082802547770701</v>
       </c>
       <c r="J57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.36926706975372364</v>
       </c>
       <c r="K57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38510152948655624</v>
       </c>
       <c r="L57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.4142376454372238</v>
       </c>
       <c r="M57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.41727625914388716</v>
       </c>
       <c r="N57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.40254686947293949</v>
       </c>
       <c r="O57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.44683055273778949</v>
       </c>
       <c r="P57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.4737406216505895</v>
       </c>
       <c r="Q57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.42811866487736633</v>
       </c>
       <c r="R57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.40040593894233445</v>
       </c>
       <c r="S57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38633695333137658</v>
       </c>
       <c r="T57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.37495126482122787</v>
       </c>
       <c r="U57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.36871160433711747</v>
       </c>
       <c r="V57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.37016972672929122</v>
       </c>
       <c r="W57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.37931034482758619</v>
       </c>
       <c r="X57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.39317793453971872</v>
       </c>
       <c r="Y57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.39364714682624491</v>
       </c>
       <c r="Z57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38005365239892697</v>
       </c>
       <c r="AA57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.39867826646469789</v>
       </c>
       <c r="AB57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.40779176004137219</v>
       </c>
       <c r="AC57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.3967543594395726</v>
       </c>
       <c r="AD57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.39898254402827127</v>
       </c>
       <c r="AE57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.40097796288485871</v>
       </c>
       <c r="AF57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.39403050022746605</v>
       </c>
       <c r="AG57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38023513858066954</v>
       </c>
       <c r="AH57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38019721676769402</v>
       </c>
       <c r="AI57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38513867085295656</v>
       </c>
       <c r="AJ57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38927329098608593</v>
       </c>
       <c r="AK57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38513037350246654</v>
       </c>
       <c r="AL57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.37906768862093232</v>
       </c>
       <c r="AM57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38408480853521798</v>
       </c>
       <c r="AN57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38310679294044525</v>
       </c>
       <c r="AO57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38338496198254013</v>
       </c>
       <c r="AP57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.38289348171701115</v>
       </c>
       <c r="AQ57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.37991934527339583</v>
       </c>
       <c r="AR57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.37612686374213566</v>
       </c>
       <c r="AS57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.37590365923916075</v>
       </c>
       <c r="AT57" s="70">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>0.37965334166146159</v>
       </c>
       <c r="AU57" s="70">
-        <f t="shared" ref="AU57:BQ57" si="115">AU46/AU44</f>
+        <f t="shared" ref="AU57:BQ57" si="116">AU46/AU44</f>
         <v>0.38354806739345887</v>
       </c>
       <c r="AV57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.38361943305952362</v>
       </c>
       <c r="AW57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.37999497361146017</v>
       </c>
       <c r="AX57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.38160375900336951</v>
       </c>
       <c r="AY57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.39777815665969724</v>
       </c>
       <c r="AZ57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.42506474370423292</v>
       </c>
       <c r="BA57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.43292727853230839</v>
       </c>
       <c r="BB57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.42195297504798462</v>
       </c>
       <c r="BC57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.43763766186615033</v>
       </c>
       <c r="BD57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.43749871502292398</v>
       </c>
       <c r="BE57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.43256307332537758</v>
       </c>
       <c r="BF57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.42323205460629831</v>
       </c>
       <c r="BG57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.42962254809908323</v>
       </c>
       <c r="BH57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.44261672782487665</v>
       </c>
       <c r="BI57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.44516302553883397</v>
       </c>
       <c r="BJ57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.45170841806520817</v>
       </c>
       <c r="BK57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.45874973865774621</v>
       </c>
       <c r="BL57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.46578074554009236</v>
       </c>
       <c r="BM57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.46257155181458898</v>
       </c>
       <c r="BN57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.4622247972190035</v>
       </c>
       <c r="BO57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.46882542236524538</v>
       </c>
       <c r="BP57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.47050619238876246</v>
       </c>
       <c r="BQ57" s="70">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>0.46490705687183631</v>
       </c>
       <c r="BR57" s="70">
@@ -25868,71 +25868,71 @@
         <v>0.47271257111682646</v>
       </c>
       <c r="CA57" s="70">
-        <f t="shared" ref="CA57:CQ57" si="116">CA46/CA44</f>
+        <f t="shared" ref="CA57:CQ57" si="117">CA46/CA44</f>
         <v>0.40139843841044165</v>
       </c>
       <c r="CB57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.39377539287083174</v>
       </c>
       <c r="CC57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.40478895878945764</v>
       </c>
       <c r="CD57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.43871239808827661</v>
       </c>
       <c r="CE57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.37624480720847231</v>
       </c>
       <c r="CF57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.38588035777783858</v>
       </c>
       <c r="CG57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.40059902017414373</v>
       </c>
       <c r="CH57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.39075955648097049</v>
       </c>
       <c r="CI57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.38469860491899105</v>
       </c>
       <c r="CJ57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.38343718820007905</v>
       </c>
       <c r="CK57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.37817768109034722</v>
       </c>
       <c r="CL57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.38233247727810865</v>
       </c>
       <c r="CM57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.41779359625167778</v>
       </c>
       <c r="CN57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.43324003366900932</v>
       </c>
       <c r="CO57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.44131129577207562</v>
       </c>
       <c r="CP57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.46206349815233932</v>
       </c>
       <c r="CQ57" s="70">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>0.46928373960892822</v>
       </c>
       <c r="CR57" s="72">
@@ -25971,271 +25971,271 @@
         <v>122</v>
       </c>
       <c r="C58" s="70">
-        <f t="shared" ref="C58:AT58" si="117">C47/C44</f>
+        <f t="shared" ref="C58:AT58" si="118">C47/C44</f>
         <v>2.5377797615252183E-2</v>
       </c>
       <c r="D58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.5116688683399386E-2</v>
       </c>
       <c r="E58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.5031847133757961E-2</v>
       </c>
       <c r="F58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.2722513089005235E-2</v>
       </c>
       <c r="G58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.5377797615252183E-2</v>
       </c>
       <c r="H58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.1557893177272388E-2</v>
       </c>
       <c r="I58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.9554140127388533E-2</v>
       </c>
       <c r="J58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.428353733470973E-2</v>
       </c>
       <c r="K58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.1502561609513481E-2</v>
       </c>
       <c r="L58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.3553735760327564E-2</v>
       </c>
       <c r="M58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.1980329704945574E-2</v>
       </c>
       <c r="N58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.2815705695083129E-2</v>
       </c>
       <c r="O58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>1.6359829926834005E-2</v>
       </c>
       <c r="P58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.1461746542132395E-2</v>
       </c>
       <c r="Q58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.5012134882791307E-2</v>
       </c>
       <c r="R58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.5190457654451427E-2</v>
       </c>
       <c r="S58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>1.8528030525388907E-2</v>
       </c>
       <c r="T58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.5663371786344976E-2</v>
       </c>
       <c r="U58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.3349375760835714E-2</v>
       </c>
       <c r="V58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.1169940222032452E-2</v>
       </c>
       <c r="W58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.3092683265617947E-2</v>
       </c>
       <c r="X58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.1152784471804758E-2</v>
       </c>
       <c r="Y58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>4.2824321436204314E-2</v>
       </c>
       <c r="Z58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>4.0025639199487213E-2</v>
       </c>
       <c r="AA58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>2.5402485288006541E-2</v>
       </c>
       <c r="AB58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.3063264954318224E-2</v>
       </c>
       <c r="AC58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>4.1003931055337166E-2</v>
       </c>
       <c r="AD58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>4.3105959107590144E-2</v>
       </c>
       <c r="AE58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.1684943061999156E-2</v>
       </c>
       <c r="AF58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>4.966671281919418E-2</v>
       </c>
       <c r="AG58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>6.0437225553614429E-2</v>
       </c>
       <c r="AH58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.4853581490651414E-2</v>
       </c>
       <c r="AI58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.6642799709001798E-2</v>
       </c>
       <c r="AJ58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.2480338777979432E-2</v>
       </c>
       <c r="AK58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>6.4680232558139539E-2</v>
       </c>
       <c r="AL58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.6999942943000058E-2</v>
       </c>
       <c r="AM58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3.8587430487128087E-2</v>
       </c>
       <c r="AN58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.5252956474802495E-2</v>
       </c>
       <c r="AO58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>6.9482774805219194E-2</v>
       </c>
       <c r="AP58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>5.9618441971383149E-2</v>
       </c>
       <c r="AQ58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>4.6281579883762303E-2</v>
       </c>
       <c r="AR58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>6.8051366026027751E-2</v>
       </c>
       <c r="AS58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>7.9113159508632389E-2</v>
       </c>
       <c r="AT58" s="70">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>6.4178638351030604E-2</v>
       </c>
       <c r="AU58" s="70">
-        <f t="shared" ref="AU58:BQ58" si="118">AU47/AU44</f>
+        <f t="shared" ref="AU58:BQ58" si="119">AU47/AU44</f>
         <v>4.8475805661137676E-2</v>
       </c>
       <c r="AV58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>7.828443057294257E-2</v>
       </c>
       <c r="AW58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>7.9718522241769285E-2</v>
       </c>
       <c r="AX58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>7.694210021948128E-2</v>
       </c>
       <c r="AY58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>4.6330279345650982E-2</v>
       </c>
       <c r="AZ58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>5.8738167529916056E-2</v>
       </c>
       <c r="BA58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>7.0204091657047427E-2</v>
       </c>
       <c r="BB58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>6.9241842610364687E-2</v>
       </c>
       <c r="BC58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>5.0877405300738233E-2</v>
       </c>
       <c r="BD58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>6.5657188675754027E-2</v>
       </c>
       <c r="BE58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>8.1932038717920902E-2</v>
       </c>
       <c r="BF58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>7.4917447864725303E-2</v>
       </c>
       <c r="BG58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>6.5802277344350166E-2</v>
       </c>
       <c r="BH58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>7.863047787759922E-2</v>
       </c>
       <c r="BI58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>9.0981331833685827E-2</v>
       </c>
       <c r="BJ58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>8.1644282553800088E-2</v>
       </c>
       <c r="BK58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>6.4361279531674684E-2</v>
       </c>
       <c r="BL58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>8.7082520688021331E-2</v>
       </c>
       <c r="BM58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>9.3335043193396833E-2</v>
       </c>
       <c r="BN58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>8.1797113662698831E-2</v>
       </c>
       <c r="BO58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>6.6516492357200321E-2</v>
       </c>
       <c r="BP58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>8.9661175138162102E-2</v>
       </c>
       <c r="BQ58" s="70">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>9.4283040537666424E-2</v>
       </c>
       <c r="BR58" s="70">
@@ -26243,71 +26243,71 @@
         <v>8.6372847011144879E-2</v>
       </c>
       <c r="CA58" s="70">
-        <f t="shared" ref="CA58:CQ58" si="119">CA47/CA44</f>
+        <f t="shared" ref="CA58:CQ58" si="120">CA47/CA44</f>
         <v>3.1068640018645847E-2</v>
       </c>
       <c r="CB58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>2.7320812571866616E-2</v>
       </c>
       <c r="CC58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>2.2439006364954873E-2</v>
       </c>
       <c r="CD58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>2.1602729572929181E-2</v>
       </c>
       <c r="CE58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>2.6183371365045931E-2</v>
       </c>
       <c r="CF58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>3.3047949889220163E-2</v>
       </c>
       <c r="CG58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>3.4516398177267184E-2</v>
       </c>
       <c r="CH58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>4.6582482760539605E-2</v>
       </c>
       <c r="CI58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>5.0520428906706681E-2</v>
       </c>
       <c r="CJ58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>5.3600406634161032E-2</v>
       </c>
       <c r="CK58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>6.233136285716482E-2</v>
       </c>
       <c r="CL58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>6.8309564140393061E-2</v>
       </c>
       <c r="CM58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>5.9904269074427925E-2</v>
       </c>
       <c r="CN58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>6.6554605656799215E-2</v>
       </c>
       <c r="CO58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>7.8048971392045086E-2</v>
       </c>
       <c r="CP58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>8.0222997941360744E-2</v>
       </c>
       <c r="CQ58" s="70">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>8.298446233033821E-2</v>
       </c>
       <c r="CR58" s="72">
@@ -26346,271 +26346,271 @@
         <v>123</v>
       </c>
       <c r="C59" s="70">
-        <f t="shared" ref="C59:AT59" si="120">C48/C44</f>
+        <f t="shared" ref="C59:AT59" si="121">C48/C44</f>
         <v>8.2127144041318628E-2</v>
       </c>
       <c r="D59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.10843240863055922</v>
       </c>
       <c r="E59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.10376001643723033</v>
       </c>
       <c r="F59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>0.10304616849119468</v>
       </c>
       <c r="G59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>8.2127144041318628E-2</v>
       </c>
       <c r="H59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>9.0377064967775395E-2</v>
       </c>
       <c r="I59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>9.1592356687898085E-2</v>
       </c>
       <c r="J59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.7225581281030325E-2</v>
       </c>
       <c r="K59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.0902359672413151E-2</v>
       </c>
       <c r="L59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.147200713503872E-2</v>
       </c>
       <c r="M59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>6.7026005390080856E-2</v>
       </c>
       <c r="N59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.1630703926423775E-2</v>
       </c>
       <c r="O59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>5.6223426067813435E-2</v>
       </c>
       <c r="P59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>5.9689685091614354E-2</v>
       </c>
       <c r="Q59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.2666533420894838E-2</v>
       </c>
       <c r="R59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.0928098759939939E-2</v>
       </c>
       <c r="S59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>5.209862048723217E-2</v>
       </c>
       <c r="T59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>6.1280187143086487E-2</v>
       </c>
       <c r="U59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.4880389547886644E-2</v>
       </c>
       <c r="V59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.1333262169086253E-2</v>
       </c>
       <c r="W59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>5.3008993992429768E-2</v>
       </c>
       <c r="X59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>6.4233448714016567E-2</v>
       </c>
       <c r="Y59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.6138063688822394E-2</v>
       </c>
       <c r="Z59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.4970918500581629E-2</v>
       </c>
       <c r="AA59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>4.8258019544497918E-2</v>
       </c>
       <c r="AB59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>5.9644888812273748E-2</v>
       </c>
       <c r="AC59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.1847596008466894E-2</v>
       </c>
       <c r="AD59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.1940350672802467E-2</v>
       </c>
       <c r="AE59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>5.0716997047659217E-2</v>
       </c>
       <c r="AF59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>6.770575785746781E-2</v>
       </c>
       <c r="AG59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>8.1236130128901268E-2</v>
       </c>
       <c r="AH59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.4319132587723047E-2</v>
       </c>
       <c r="AI59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>5.0363109596559076E-2</v>
       </c>
       <c r="AJ59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.0288868723532974E-2</v>
       </c>
       <c r="AK59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>8.3311310782241021E-2</v>
       </c>
       <c r="AL59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.2538465927461535E-2</v>
       </c>
       <c r="AM59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>4.7919993657481341E-2</v>
       </c>
       <c r="AN59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>6.788033433109246E-2</v>
       </c>
       <c r="AO59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.7123814887825021E-2</v>
       </c>
       <c r="AP59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>6.7027027027027022E-2</v>
       </c>
       <c r="AQ59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>5.6731111374688649E-2</v>
       </c>
       <c r="AR59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.6842195983797296E-2</v>
       </c>
       <c r="AS59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>8.2253898046795143E-2</v>
       </c>
       <c r="AT59" s="70">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>7.1486570893191756E-2</v>
       </c>
       <c r="AU59" s="70">
-        <f t="shared" ref="AU59:BQ59" si="121">AU48/AU44</f>
+        <f t="shared" ref="AU59:BQ59" si="122">AU48/AU44</f>
         <v>5.6600485738245894E-2</v>
       </c>
       <c r="AV59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>8.4921029616037591E-2</v>
       </c>
       <c r="AW59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>8.0941610119795587E-2</v>
       </c>
       <c r="AX59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>7.6292930229682532E-2</v>
       </c>
       <c r="AY59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>5.0529886305512431E-2</v>
       </c>
       <c r="AZ59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>5.9318628326486871E-2</v>
       </c>
       <c r="BA59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>6.645872731291598E-2</v>
       </c>
       <c r="BB59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>6.7370441458733207E-2</v>
       </c>
       <c r="BC59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>5.2031142845617009E-2</v>
       </c>
       <c r="BD59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>6.3662904253788108E-2</v>
       </c>
       <c r="BE59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>7.2469533142877809E-2</v>
       </c>
       <c r="BF59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>7.1360503512621062E-2</v>
       </c>
       <c r="BG59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>5.6395855028424126E-2</v>
       </c>
       <c r="BH59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>6.5386562065038595E-2</v>
       </c>
       <c r="BI59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>7.3022237979387991E-2</v>
       </c>
       <c r="BJ59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>6.8727792799839107E-2</v>
       </c>
       <c r="BK59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>5.6750993100564501E-2</v>
       </c>
       <c r="BL59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>7.1270371227397447E-2</v>
       </c>
       <c r="BM59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>7.3679424554367726E-2</v>
       </c>
       <c r="BN59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>6.8713789107763615E-2</v>
       </c>
       <c r="BO59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>5.7723250201126307E-2</v>
       </c>
       <c r="BP59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>7.0554431149655511E-2</v>
       </c>
       <c r="BQ59" s="70">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>7.0717597515844999E-2</v>
       </c>
       <c r="BR59" s="70">
@@ -26618,71 +26618,71 @@
         <v>6.8661834619281423E-2</v>
       </c>
       <c r="CA59" s="70">
-        <f t="shared" ref="CA59:CQ59" si="122">CA48/CA44</f>
+        <f t="shared" ref="CA59:CQ59" si="123">CA48/CA44</f>
         <v>9.6702016082041722E-2</v>
       </c>
       <c r="CB59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>8.4584131851284022E-2</v>
       </c>
       <c r="CC59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7.0199262810741903E-2</v>
       </c>
       <c r="CD59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.4150075395506934E-2</v>
       </c>
       <c r="CE59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.3366684219764782E-2</v>
       </c>
       <c r="CF59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.5609015563883044E-2</v>
       </c>
       <c r="CG59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.1309714823609952E-2</v>
       </c>
       <c r="CH59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.5822972653369755E-2</v>
       </c>
       <c r="CI59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.6573893924984945E-2</v>
       </c>
       <c r="CJ59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.2896515371147807E-2</v>
       </c>
       <c r="CK59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7.0126146348213125E-2</v>
       </c>
       <c r="CL59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7.2549769593646979E-2</v>
       </c>
       <c r="CM59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.006555190163388E-2</v>
       </c>
       <c r="CN59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.3621243927915863E-2</v>
       </c>
       <c r="CO59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.5048201729783317E-2</v>
       </c>
       <c r="CP59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.6738271510222866E-2</v>
       </c>
       <c r="CQ59" s="70">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>6.629389709926671E-2</v>
       </c>
       <c r="CR59" s="72">
@@ -26721,271 +26721,271 @@
         <v>124</v>
       </c>
       <c r="C60" s="70">
-        <f t="shared" ref="C60:AT60" si="123">C49/C44</f>
+        <f t="shared" ref="C60:AT60" si="124">C49/C44</f>
         <v>0.30128164254288081</v>
       </c>
       <c r="D60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.25572435050638487</v>
       </c>
       <c r="E60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.27039243887404973</v>
       </c>
       <c r="F60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.24512137077582105</v>
       </c>
       <c r="G60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.30128164254288081</v>
       </c>
       <c r="H60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.29476257500555597</v>
       </c>
       <c r="I60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.2696815286624204</v>
       </c>
       <c r="J60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.26775795113798356</v>
       </c>
       <c r="K60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.29269660820462962</v>
       </c>
       <c r="L60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.31921190254185755</v>
       </c>
       <c r="M60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.32826992404886074</v>
       </c>
       <c r="N60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.30810045985143264</v>
       </c>
       <c r="O60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.37424729674314205</v>
       </c>
       <c r="P60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.39258919001684273</v>
       </c>
       <c r="Q60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.33043999657368017</v>
       </c>
       <c r="R60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.30428738252794307</v>
       </c>
       <c r="S60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.31571030231875552</v>
       </c>
       <c r="T60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.28800770589179642</v>
       </c>
       <c r="U60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.26048183902839511</v>
       </c>
       <c r="V60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.26766652433817251</v>
       </c>
       <c r="W60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.30320866756953851</v>
       </c>
       <c r="X60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.29779170135389738</v>
       </c>
       <c r="Y60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.27468476170121819</v>
       </c>
       <c r="Z60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.26505709469885813</v>
       </c>
       <c r="AA60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.32501776163219348</v>
       </c>
       <c r="AB60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.31508360627478021</v>
       </c>
       <c r="AC60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.28390283237576858</v>
       </c>
       <c r="AD60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.28393623424787867</v>
       </c>
       <c r="AE60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.31857602277520036</v>
       </c>
       <c r="AF60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.27665802955080404</v>
       </c>
       <c r="AG60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.23856178289815383</v>
       </c>
       <c r="AH60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.25102450268931958</v>
       </c>
       <c r="AI60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.29813276154739571</v>
       </c>
       <c r="AJ60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.2665040834845735</v>
       </c>
       <c r="AK60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.23713883016208598</v>
       </c>
       <c r="AL60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.24952927975047073</v>
       </c>
       <c r="AM60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.29757738439060855</v>
       </c>
       <c r="AN60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.25997350213455028</v>
       </c>
       <c r="AO60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.23677837228949591</v>
       </c>
       <c r="AP60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.25624801271860098</v>
       </c>
       <c r="AQ60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.27690665401494485</v>
       </c>
       <c r="AR60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.2312333017323106</v>
       </c>
       <c r="AS60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.2145366016837332</v>
       </c>
       <c r="AT60" s="70">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>0.24398813241723921</v>
       </c>
       <c r="AU60" s="70">
-        <f t="shared" ref="AU60:BQ60" si="124">AU49/AU44</f>
+        <f t="shared" ref="AU60:BQ60" si="125">AU49/AU44</f>
         <v>0.2784717759940753</v>
       </c>
       <c r="AV60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.22041397287054346</v>
       </c>
       <c r="AW60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.21933484124989527</v>
       </c>
       <c r="AX60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.2283687285542057</v>
       </c>
       <c r="AY60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.30091799100853384</v>
       </c>
       <c r="AZ60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.30700794784782998</v>
       </c>
       <c r="BA60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.29626445956234498</v>
       </c>
       <c r="BB60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.28534069097888676</v>
       </c>
       <c r="BC60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.33472911371979508</v>
       </c>
       <c r="BD60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.30817862209338187</v>
       </c>
       <c r="BE60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.27816150146457891</v>
       </c>
       <c r="BF60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.27695410322895198</v>
       </c>
       <c r="BG60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.30742441572630896</v>
       </c>
       <c r="BH60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.29859968788223878</v>
       </c>
       <c r="BI60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.28115945572576012</v>
       </c>
       <c r="BJ60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.30133634271156895</v>
       </c>
       <c r="BK60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.33763746602550698</v>
       </c>
       <c r="BL60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.30742785362467356</v>
       </c>
       <c r="BM60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.29555708406682446</v>
       </c>
       <c r="BN60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.31171389444854103</v>
       </c>
       <c r="BO60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.34458567980691873</v>
       </c>
       <c r="BP60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.31029058610094484</v>
       </c>
       <c r="BQ60" s="70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>0.29990641881832492</v>
       </c>
       <c r="BR60" s="70">
@@ -26993,71 +26993,71 @@
         <v>0.31767788948640013</v>
       </c>
       <c r="CA60" s="70">
-        <f t="shared" ref="CA60:CQ60" si="125">CA49/CA44</f>
+        <f t="shared" ref="CA60:CQ60" si="126">CA49/CA44</f>
         <v>0.2736277823097541</v>
       </c>
       <c r="CB60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.28187044844768111</v>
       </c>
       <c r="CC60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.31215068961376086</v>
       </c>
       <c r="CD60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.35295959311984054</v>
       </c>
       <c r="CE60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.28669475162366159</v>
       </c>
       <c r="CF60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.28722339232473537</v>
       </c>
       <c r="CG60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.30477290717326661</v>
       </c>
       <c r="CH60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.27835410106706115</v>
       </c>
       <c r="CI60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.26760428208729942</v>
       </c>
       <c r="CJ60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.26694026619477024</v>
       </c>
       <c r="CK60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.24572017188496928</v>
       </c>
       <c r="CL60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.24147314354406862</v>
       </c>
       <c r="CM60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.29782377527561593</v>
       </c>
       <c r="CN60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.3030641840842942</v>
       </c>
       <c r="CO60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.29821412265024722</v>
       </c>
       <c r="CP60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.31510222870075566</v>
       </c>
       <c r="CQ60" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.32000538017932328</v>
       </c>
       <c r="CR60" s="72">
@@ -27096,271 +27096,271 @@
         <v>125</v>
       </c>
       <c r="C61" s="70">
-        <f t="shared" ref="C61:AT61" si="126">C52/C51</f>
+        <f t="shared" ref="C61:AT61" si="127">C52/C51</f>
         <v>0.2900378310214376</v>
       </c>
       <c r="D61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.32103939647946356</v>
       </c>
       <c r="E61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.3209509658246657</v>
       </c>
       <c r="F61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.36816143497757847</v>
       </c>
       <c r="G61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.2900378310214376</v>
       </c>
       <c r="H61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.23703152146934722</v>
       </c>
       <c r="I61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.24207828518173347</v>
       </c>
       <c r="J61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.21113349203442594</v>
       </c>
       <c r="K61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.24601280924274771</v>
       </c>
       <c r="L61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.24215189873417722</v>
       </c>
       <c r="M61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.23484451889854466</v>
       </c>
       <c r="N61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.24661585712660675</v>
       </c>
       <c r="O61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.2525032900383361</v>
       </c>
       <c r="P61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.25173834663919648</v>
       </c>
       <c r="Q61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.25604923699519433</v>
       </c>
       <c r="R61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.24511153952079318</v>
       </c>
       <c r="S61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.25995925758261657</v>
       </c>
       <c r="T61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26020922123208057</v>
       </c>
       <c r="U61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.2686804451510334</v>
       </c>
       <c r="V61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.25939071280686188</v>
       </c>
       <c r="W61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26184425998080074</v>
       </c>
       <c r="X61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26016789694601244</v>
       </c>
       <c r="Y61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26096909576497518</v>
       </c>
       <c r="Z61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26194211994421202</v>
       </c>
       <c r="AA61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26179554390563564</v>
       </c>
       <c r="AB61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26906916612798965</v>
       </c>
       <c r="AC61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26228148967042081</v>
       </c>
       <c r="AD61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26145266232903996</v>
       </c>
       <c r="AE61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.25279778618809262</v>
       </c>
       <c r="AF61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.25639937774006505</v>
       </c>
       <c r="AG61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.25532524596427547</v>
       </c>
       <c r="AH61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26042008532983263</v>
       </c>
       <c r="AI61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.26009098428453264</v>
       </c>
       <c r="AJ61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.24891037864342141</v>
       </c>
       <c r="AK61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.22912981959674567</v>
       </c>
       <c r="AL61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.23015017604368757</v>
       </c>
       <c r="AM61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.25767665556788755</v>
       </c>
       <c r="AN61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.14510143493320138</v>
       </c>
       <c r="AO61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.13286660644384221</v>
       </c>
       <c r="AP61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.13982096096461846</v>
       </c>
       <c r="AQ61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.16485401154521878</v>
       </c>
       <c r="AR61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.16182121365910243</v>
       </c>
       <c r="AS61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.15674586516665268</v>
       </c>
       <c r="AT61" s="70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.15136107149500838</v>
       </c>
       <c r="AU61" s="70">
-        <f t="shared" ref="AU61:BQ61" si="127">AU52/AU51</f>
+        <f t="shared" ref="AU61:BQ61" si="128">AU52/AU51</f>
         <v>0.14206343082027933</v>
       </c>
       <c r="AV61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.14358583936048724</v>
       </c>
       <c r="AW61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.14341173783968944</v>
       </c>
       <c r="AX61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.14952016643178309</v>
       </c>
       <c r="AY61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.14366121683194855</v>
       </c>
       <c r="AZ61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.1564028417407447</v>
       </c>
       <c r="BA61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.10771882309491568</v>
       </c>
       <c r="BB61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.11600997935306263</v>
       </c>
       <c r="BC61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.16030164157028201</v>
       </c>
       <c r="BD61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.17017817445834302</v>
       </c>
       <c r="BE61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.15711436746726784</v>
       </c>
       <c r="BF61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.1589853374803086</v>
       </c>
       <c r="BG61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.15790360160570419</v>
       </c>
       <c r="BH61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.14875625396377987</v>
       </c>
       <c r="BI61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.12545638499098227</v>
       </c>
       <c r="BJ61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.14971479368842136</v>
       </c>
       <c r="BK61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.15889194752374575</v>
       </c>
       <c r="BL61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.1576021099151757</v>
       </c>
       <c r="BM61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.15870400878638111</v>
       </c>
       <c r="BN61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.50233029381965555</v>
       </c>
       <c r="BO61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.14686267142588766</v>
       </c>
       <c r="BP61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.15455475946775846</v>
       </c>
       <c r="BQ61" s="70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.16399700331775535</v>
       </c>
       <c r="BR61" s="70">
@@ -27368,71 +27368,71 @@
         <v>0.16182622930940399</v>
       </c>
       <c r="CA61" s="70">
-        <f t="shared" ref="CA61:CQ61" si="128">CA52/CA51</f>
+        <f t="shared" ref="CA61:CQ61" si="129">CA52/CA51</f>
         <v>0.31750372948781702</v>
       </c>
       <c r="CB61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.24417475728155341</v>
       </c>
       <c r="CC61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.24215757930127174</v>
       </c>
       <c r="CD61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.25160052364471064</v>
       </c>
       <c r="CE61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.26154919748778788</v>
       </c>
       <c r="CF61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.26126058747639436</v>
       </c>
       <c r="CG61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.26368337585327173</v>
       </c>
       <c r="CH61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.25557257381216192</v>
       </c>
       <c r="CI61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.24556476150353415</v>
       </c>
       <c r="CJ61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.18342180705869443</v>
       </c>
       <c r="CK61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.15943836804235059</v>
       </c>
       <c r="CL61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.14428164731484103</v>
       </c>
       <c r="CM61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.13302260844085087</v>
       </c>
       <c r="CN61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.16190867679504711</v>
       </c>
       <c r="CO61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.14719174228036858</v>
       </c>
       <c r="CP61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.24091185164189982</v>
       </c>
       <c r="CQ61" s="70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>0.1558862697594631</v>
       </c>
       <c r="CR61" s="72">
@@ -27471,271 +27471,271 @@
         <v>126</v>
       </c>
       <c r="C62" s="70">
-        <f t="shared" ref="C62:AT62" si="129">C53/C44</f>
+        <f t="shared" ref="C62:AT62" si="130">C53/C44</f>
         <v>0.21539246317668814</v>
       </c>
       <c r="D62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.17833553500660501</v>
       </c>
       <c r="E62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.1877953564824327</v>
       </c>
       <c r="F62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.16765825797239409</v>
       </c>
       <c r="G62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.21539246317668814</v>
       </c>
       <c r="H62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.22772057189421438</v>
       </c>
       <c r="I62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.20719745222929936</v>
       </c>
       <c r="J62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.2117681757852824</v>
       </c>
       <c r="K62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.22452413896264165</v>
       </c>
       <c r="L62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.24271293631167146</v>
       </c>
       <c r="M62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.25578383675755134</v>
       </c>
       <c r="N62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.23427661832331093</v>
       </c>
       <c r="O62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.28195886301340295</v>
       </c>
       <c r="P62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.2965855152350329</v>
       </c>
       <c r="Q62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.25194871941295721</v>
       </c>
       <c r="R62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.2286325974531502</v>
       </c>
       <c r="S62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.23991047842676841</v>
       </c>
       <c r="T62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.2189528243469486</v>
       </c>
       <c r="U62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.19534014664666083</v>
       </c>
       <c r="V62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.20046968403074295</v>
       </c>
       <c r="W62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.2269680869535021</v>
       </c>
       <c r="X62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.22396266923717303</v>
       </c>
       <c r="Y62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.20698867279333191</v>
       </c>
       <c r="Z62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.20100657597986848</v>
       </c>
       <c r="AA62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.24161181785278624</v>
       </c>
       <c r="AB62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.2339079469057059</v>
       </c>
       <c r="AC62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.21524039915331117</v>
       </c>
       <c r="AD62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.21599580590668144</v>
       </c>
       <c r="AE62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.24199968367777308</v>
       </c>
       <c r="AF62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.20800284827026921</v>
       </c>
       <c r="AG62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.18405023844374144</v>
       </c>
       <c r="AH62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.19239306753180227</v>
       </c>
       <c r="AI62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.22834424576584855</v>
       </c>
       <c r="AJ62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.20850347852389595</v>
       </c>
       <c r="AK62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.19197057787174066</v>
       </c>
       <c r="AL62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.20376956579623043</v>
       </c>
       <c r="AM62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.22725470875380835</v>
       </c>
       <c r="AN62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.22608240509020724</v>
       </c>
       <c r="AO62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.21625833098657654</v>
       </c>
       <c r="AP62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.22456279809220986</v>
       </c>
       <c r="AQ62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.23680464950776894</v>
       </c>
       <c r="AR62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.19927604929759546</v>
       </c>
       <c r="AS62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.18666022412607555</v>
       </c>
       <c r="AT62" s="70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>0.2137101811367895</v>
       </c>
       <c r="AU62" s="70">
-        <f t="shared" ref="AU62:BQ62" si="130">AU53/AU44</f>
+        <f t="shared" ref="AU62:BQ62" si="131">AU53/AU44</f>
         <v>0.2421720994565395</v>
       </c>
       <c r="AV62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.19290724195290929</v>
       </c>
       <c r="AW62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.18853983412917819</v>
       </c>
       <c r="AX62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.19587931620761073</v>
       </c>
       <c r="AY62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.25803354301456405</v>
       </c>
       <c r="AZ62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.26377478121093051</v>
       </c>
       <c r="BA62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.26701377802883319</v>
       </c>
       <c r="BB62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.2465331094049904</v>
       </c>
       <c r="BC62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.27939812013393039</v>
       </c>
       <c r="BD62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.25709821336787353</v>
       </c>
       <c r="BE62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.23435673043310551</v>
       </c>
       <c r="BF62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.23071382665159676</v>
       </c>
       <c r="BG62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.2560561312460522</v>
       </c>
       <c r="BH62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.25475557805052934</v>
       </c>
       <c r="BI62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.24305292370135825</v>
       </c>
       <c r="BJ62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.25649735189613176</v>
       </c>
       <c r="BK62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.28363788417311309</v>
       </c>
       <c r="BL62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.26044318094167684</v>
       </c>
       <c r="BM62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.25004371801298714</v>
       </c>
       <c r="BN62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.15523016959865163</v>
       </c>
       <c r="BO62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.29227674979887369</v>
       </c>
       <c r="BP62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.25986010759341016</v>
       </c>
       <c r="BQ62" s="70">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.24920243311072354</v>
       </c>
       <c r="BR62" s="70">
@@ -27743,71 +27743,71 @@
         <v>0.26934767360299278</v>
       </c>
       <c r="CA62" s="70">
-        <f t="shared" ref="CA62:CQ62" si="131">CA53/CA44</f>
+        <f t="shared" ref="CA62:CQ62" si="132">CA53/CA44</f>
         <v>0.19193567183311969</v>
       </c>
       <c r="CB62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.21484093522422384</v>
       </c>
       <c r="CC62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.2394664153941376</v>
       </c>
       <c r="CD62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.26665090602397323</v>
       </c>
       <c r="CE62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.21670469837926393</v>
       </c>
       <c r="CF62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.21614376760852322</v>
       </c>
       <c r="CG62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.22845773698735639</v>
       </c>
       <c r="CH62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.211867983064288</v>
       </c>
       <c r="CI62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.21092420845075338</v>
       </c>
       <c r="CJ62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.22414202074587247</v>
       </c>
       <c r="CK62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.21238094505984456</v>
       </c>
       <c r="CL62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.20913611278072236</v>
       </c>
       <c r="CM62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.25881793355694238</v>
       </c>
       <c r="CN62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.25328577078706382</v>
       </c>
       <c r="CO62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.25306234264320282</v>
       </c>
       <c r="CP62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.23971255769943867</v>
       </c>
       <c r="CQ62" s="70">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>0.26947012439262819</v>
       </c>
       <c r="CR62" s="72">
@@ -27943,39 +27943,39 @@
         <v>161137.36592274104</v>
       </c>
       <c r="CS64" s="74">
-        <f t="shared" ref="CS64:DA64" si="132">CR64+CS53</f>
+        <f t="shared" ref="CS64:DA64" si="133">CR64+CS53</f>
         <v>317986.29292811599</v>
       </c>
       <c r="CT64" s="74">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>510642.7815998249</v>
       </c>
       <c r="CU64" s="74">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>750766.09631793643</v>
       </c>
       <c r="CV64" s="74">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1046279.1670755658</v>
       </c>
       <c r="CW64" s="74">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1404333.950181176</v>
       </c>
       <c r="CX64" s="74">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1833450.4208333255</v>
       </c>
       <c r="CY64" s="74">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>2345061.6220879657</v>
       </c>
       <c r="CZ64" s="74">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>2951736.9799045967</v>
       </c>
       <c r="DA64" s="74">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>3667410.2343762154</v>
       </c>
     </row>
@@ -28050,27 +28050,27 @@
         <v>18763</v>
       </c>
       <c r="CL65" s="1">
-        <f t="shared" ref="CL65:CL73" si="133">AX65</f>
+        <f t="shared" ref="CL65:CL73" si="134">AX65</f>
         <v>52927</v>
       </c>
       <c r="CM65" s="1">
-        <f t="shared" ref="CM65:CM73" si="134">BB65</f>
+        <f t="shared" ref="CM65:CM73" si="135">BB65</f>
         <v>27699</v>
       </c>
       <c r="CN65" s="1">
-        <f t="shared" ref="CN65:CN73" si="135">BF65</f>
+        <f t="shared" ref="CN65:CN73" si="136">BF65</f>
         <v>24658</v>
       </c>
       <c r="CO65" s="1">
-        <f t="shared" ref="CO65:CO73" si="136">BJ65</f>
+        <f t="shared" ref="CO65:CO73" si="137">BJ65</f>
         <v>31590</v>
       </c>
       <c r="CP65" s="1">
-        <f t="shared" ref="CP65:CP73" si="137">BN65</f>
+        <f t="shared" ref="CP65:CP73" si="138">BN65</f>
         <v>35228</v>
       </c>
       <c r="CQ65" s="1">
-        <f t="shared" ref="CQ65:CQ73" si="138">BO65</f>
+        <f t="shared" ref="CQ65:CQ73" si="139">BO65</f>
         <v>23476</v>
       </c>
     </row>
@@ -28145,27 +28145,27 @@
         <v>39777</v>
       </c>
       <c r="CL66" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>16120</v>
       </c>
       <c r="CM66" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>26278</v>
       </c>
       <c r="CN66" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>28184</v>
       </c>
       <c r="CO66" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>29508</v>
       </c>
       <c r="CP66" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>33410</v>
       </c>
       <c r="CQ66" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>29639</v>
       </c>
       <c r="CS66" s="47" t="s">
@@ -28260,27 +28260,27 @@
         <v>33180</v>
       </c>
       <c r="CL67" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>4061</v>
       </c>
       <c r="CM67" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>6580</v>
       </c>
       <c r="CN67" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>32748</v>
       </c>
       <c r="CO67" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>31477</v>
       </c>
       <c r="CP67" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>32833</v>
       </c>
       <c r="CQ67" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>29667</v>
       </c>
       <c r="CS67" s="48">
@@ -28377,27 +28377,27 @@
         <v>5718</v>
       </c>
       <c r="CL68" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>21325</v>
       </c>
       <c r="CM68" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>25228</v>
       </c>
       <c r="CN68" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>4946</v>
       </c>
       <c r="CO68" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>6331</v>
       </c>
       <c r="CP68" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>7286</v>
       </c>
       <c r="CQ68" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>6911</v>
       </c>
       <c r="CS68" s="52">
@@ -28498,27 +28498,27 @@
         <v>14585</v>
       </c>
       <c r="CL69" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>11264</v>
       </c>
       <c r="CM69" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>14111</v>
       </c>
       <c r="CN69" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>21223</v>
       </c>
       <c r="CO69" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>14695</v>
       </c>
       <c r="CP69" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>14287</v>
       </c>
       <c r="CQ69" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>13248</v>
       </c>
       <c r="CS69" s="53">
@@ -28611,27 +28611,27 @@
         <v>77723</v>
       </c>
       <c r="CL70" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>100887</v>
       </c>
       <c r="CM70" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>127877</v>
       </c>
       <c r="CN70" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>120805</v>
       </c>
       <c r="CO70" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>100544</v>
       </c>
       <c r="CP70" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>91479</v>
       </c>
       <c r="CQ70" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>87593</v>
       </c>
       <c r="CS70" s="48"/>
@@ -28721,27 +28721,27 @@
         <v>49834</v>
       </c>
       <c r="CL71" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>36766</v>
       </c>
       <c r="CM71" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>39440</v>
       </c>
       <c r="CN71" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>42117</v>
       </c>
       <c r="CO71" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>43715</v>
       </c>
       <c r="CP71" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>45680</v>
       </c>
       <c r="CQ71" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>46069</v>
       </c>
       <c r="CS71" s="48"/>
@@ -28831,27 +28831,27 @@
         <v>83727</v>
       </c>
       <c r="CL72" s="1">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>42522</v>
       </c>
       <c r="CM72" s="1">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>48849</v>
       </c>
       <c r="CN72" s="1">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>54428</v>
       </c>
       <c r="CO72" s="1">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>64758</v>
       </c>
       <c r="CP72" s="1">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>74834</v>
       </c>
       <c r="CQ72" s="1">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>77183</v>
       </c>
       <c r="CS72" s="54"/>
@@ -28873,87 +28873,87 @@
       <c r="AV73" s="69"/>
       <c r="AW73" s="69"/>
       <c r="AX73" s="69">
-        <f t="shared" ref="AX73" si="139">SUM(AX64:AX72)</f>
+        <f t="shared" ref="AX73" si="140">SUM(AX64:AX72)</f>
         <v>323888</v>
       </c>
       <c r="AY73" s="69">
-        <f t="shared" ref="AY73:BR73" si="140">SUM(AY64:AY72)</f>
+        <f t="shared" ref="AY73:BR73" si="141">SUM(AY64:AY72)</f>
         <v>354054</v>
       </c>
       <c r="AZ73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>337158</v>
       </c>
       <c r="BA73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>329840</v>
       </c>
       <c r="BB73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>351002</v>
       </c>
       <c r="BC73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>381191</v>
       </c>
       <c r="BD73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>350662</v>
       </c>
       <c r="BE73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>336309</v>
       </c>
       <c r="BF73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>352755</v>
       </c>
       <c r="BG73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>346747</v>
       </c>
       <c r="BH73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>332160</v>
       </c>
       <c r="BI73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>335038</v>
       </c>
       <c r="BJ73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>352583</v>
       </c>
       <c r="BK73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>353514</v>
       </c>
       <c r="BL73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>337411</v>
       </c>
       <c r="BM73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>331612</v>
       </c>
       <c r="BN73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>364980</v>
       </c>
       <c r="BO73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>344085</v>
       </c>
       <c r="BP73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>331233</v>
       </c>
       <c r="BQ73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>331495</v>
       </c>
       <c r="BR73" s="69">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>359241</v>
       </c>
       <c r="BS73" s="34"/>
@@ -28961,27 +28961,27 @@
       <c r="BU73" s="34"/>
       <c r="BV73" s="34"/>
       <c r="CL73" s="2">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>323888</v>
       </c>
       <c r="CM73" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>351002</v>
       </c>
       <c r="CN73" s="2">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>352755</v>
       </c>
       <c r="CO73" s="2">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>352583</v>
       </c>
       <c r="CP73" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>364980</v>
       </c>
       <c r="CQ73" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>344085</v>
       </c>
       <c r="CS73" s="54"/>
@@ -28994,11 +28994,11 @@
       <c r="CZ73" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="DA73" s="78">
+      <c r="DA73" s="77">
         <f>NPV(DA71,CR53:EO53)</f>
         <v>4789000.8133773282</v>
       </c>
-      <c r="DB73" s="77"/>
+      <c r="DB73" s="76"/>
       <c r="DC73" s="34"/>
       <c r="DD73" s="34"/>
       <c r="DE73" s="34"/>
@@ -29137,27 +29137,27 @@
         <v>69860</v>
       </c>
       <c r="CL75" s="1">
-        <f t="shared" ref="CL75:CL84" si="141">AX75</f>
+        <f t="shared" ref="CL75:CL84" si="142">AX75</f>
         <v>42296</v>
       </c>
       <c r="CM75" s="1">
-        <f t="shared" ref="CM75:CM84" si="142">BB75</f>
+        <f t="shared" ref="CM75:CM84" si="143">BB75</f>
         <v>54763</v>
       </c>
       <c r="CN75" s="1">
-        <f t="shared" ref="CN75:CN84" si="143">BF75</f>
+        <f t="shared" ref="CN75:CN84" si="144">BF75</f>
         <v>64115</v>
       </c>
       <c r="CO75" s="1">
-        <f t="shared" ref="CO75:CO84" si="144">BJ75</f>
+        <f t="shared" ref="CO75:CO84" si="145">BJ75</f>
         <v>62611</v>
       </c>
       <c r="CP75" s="1">
-        <f t="shared" ref="CP75:CP84" si="145">BN75</f>
+        <f t="shared" ref="CP75:CP84" si="146">BN75</f>
         <v>68960</v>
       </c>
       <c r="CQ75" s="1">
-        <f t="shared" ref="CQ75:CQ84" si="146">BO75</f>
+        <f t="shared" ref="CQ75:CQ84" si="147">BO75</f>
         <v>61910</v>
       </c>
       <c r="CS75" s="48"/>
@@ -29244,27 +29244,27 @@
         <v>66387</v>
       </c>
       <c r="CL76" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>42684</v>
       </c>
       <c r="CM76" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>47493</v>
       </c>
       <c r="CN76" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>60845</v>
       </c>
       <c r="CO76" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>58829</v>
       </c>
       <c r="CP76" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>78304</v>
       </c>
       <c r="CQ76" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>61151</v>
       </c>
       <c r="CS76" s="48"/>
@@ -29351,27 +29351,27 @@
         <v>9055</v>
       </c>
       <c r="CL77" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>6643</v>
       </c>
       <c r="CM77" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>7612</v>
       </c>
       <c r="CN77" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>7912</v>
       </c>
       <c r="CO77" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>8061</v>
       </c>
       <c r="CP77" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>8249</v>
       </c>
       <c r="CQ77" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>8461</v>
       </c>
       <c r="CS77" s="54"/>
@@ -29461,34 +29461,34 @@
         <v>7979</v>
       </c>
       <c r="CL78" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>4996</v>
       </c>
       <c r="CM78" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>6000</v>
       </c>
       <c r="CN78" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>9982</v>
       </c>
       <c r="CO78" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>5985</v>
       </c>
       <c r="CP78" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>9967</v>
       </c>
       <c r="CQ78" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>1995</v>
       </c>
-      <c r="CZ78" s="76" t="str" cm="1">
+      <c r="CZ78" s="78" t="str" cm="1">
         <f t="array" ref="CZ78">_xlfn.IFS(DA77&gt;=25%,"Strong Buy",DA77&gt;=10.00001%,"Buy",AND(DA77&lt;=10%,DA77&gt;=-4.9999%),"Hold",AND(DA77&lt;=-5%,DA77&gt;=-14.999999%),"Sell",DA77&lt;=-15%,"Strong Sell")</f>
         <v>Buy</v>
       </c>
-      <c r="DA78" s="76"/>
+      <c r="DA78" s="78"/>
     </row>
     <row r="79" spans="2:156" ht="13.5" customHeight="1">
       <c r="B79" s="1" t="s">
@@ -29558,27 +29558,27 @@
         <v>12350</v>
       </c>
       <c r="CL79" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>8773</v>
       </c>
       <c r="CM79" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>9613</v>
       </c>
       <c r="CN79" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>11128</v>
       </c>
       <c r="CO79" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>9822</v>
       </c>
       <c r="CP79" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>10912</v>
       </c>
       <c r="CQ79" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>10848</v>
       </c>
     </row>
@@ -29650,27 +29650,27 @@
         <v>78328</v>
       </c>
       <c r="CL80" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>98667</v>
       </c>
       <c r="CM80" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>109106</v>
       </c>
       <c r="CN80" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>98959</v>
       </c>
       <c r="CO80" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>95281</v>
       </c>
       <c r="CP80" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>85750</v>
       </c>
       <c r="CQ80" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>83956</v>
       </c>
     </row>
@@ -29742,27 +29742,27 @@
         <v>41549</v>
       </c>
       <c r="CL81" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>54490</v>
       </c>
       <c r="CM81" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>53325</v>
       </c>
       <c r="CN81" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>49142</v>
       </c>
       <c r="CO81" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>49848</v>
       </c>
       <c r="CP81" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>45888</v>
       </c>
       <c r="CQ81" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>49006</v>
       </c>
     </row>
@@ -29771,87 +29771,87 @@
         <v>1549</v>
       </c>
       <c r="AX82" s="2">
-        <f t="shared" ref="AX82" si="147">SUM(AX75:AX81)</f>
+        <f t="shared" ref="AX82" si="148">SUM(AX75:AX81)</f>
         <v>258549</v>
       </c>
       <c r="AY82" s="2">
-        <f t="shared" ref="AY82:BR82" si="148">SUM(AY75:AY81)</f>
+        <f t="shared" ref="AY82:BR82" si="149">SUM(AY75:AY81)</f>
         <v>287830</v>
       </c>
       <c r="AZ82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>267980</v>
       </c>
       <c r="BA82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>265560</v>
       </c>
       <c r="BB82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>287912</v>
       </c>
       <c r="BC82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>309259</v>
       </c>
       <c r="BD82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>283263</v>
       </c>
       <c r="BE82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>278202</v>
       </c>
       <c r="BF82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>302083</v>
       </c>
       <c r="BG82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>290020</v>
       </c>
       <c r="BH82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>270002</v>
       </c>
       <c r="BI82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>274764</v>
       </c>
       <c r="BJ82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>290437</v>
       </c>
       <c r="BK82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>279414</v>
       </c>
       <c r="BL82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>263217</v>
       </c>
       <c r="BM82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>264904</v>
       </c>
       <c r="BN82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>308030</v>
       </c>
       <c r="BO82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>277327</v>
       </c>
       <c r="BP82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>264437</v>
       </c>
       <c r="BQ82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>265665</v>
       </c>
       <c r="BR82" s="2">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>285508</v>
       </c>
       <c r="BS82" s="34"/>
@@ -29859,27 +29859,27 @@
       <c r="BU82" s="34"/>
       <c r="BV82" s="34"/>
       <c r="CL82" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>258549</v>
       </c>
       <c r="CM82" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>287912</v>
       </c>
       <c r="CN82" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>302083</v>
       </c>
       <c r="CO82" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>290437</v>
       </c>
       <c r="CP82" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>308030</v>
       </c>
       <c r="CQ82" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>277327</v>
       </c>
       <c r="CR82" s="34"/>
@@ -30012,27 +30012,27 @@
         <v>73733</v>
       </c>
       <c r="CL83" s="1">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>65339</v>
       </c>
       <c r="CM83" s="1">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>63090</v>
       </c>
       <c r="CN83" s="1">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>148101</v>
       </c>
       <c r="CO83" s="1">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>62146</v>
       </c>
       <c r="CP83" s="1">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>56950</v>
       </c>
       <c r="CQ83" s="1">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>66758</v>
       </c>
     </row>
@@ -30041,87 +30041,87 @@
         <v>1551</v>
       </c>
       <c r="AX84" s="2">
-        <f t="shared" ref="AX84" si="149">AX82+AX83</f>
+        <f t="shared" ref="AX84" si="150">AX82+AX83</f>
         <v>323888</v>
       </c>
       <c r="AY84" s="2">
-        <f t="shared" ref="AY84:BR84" si="150">AY82+AY83</f>
+        <f t="shared" ref="AY84:BR84" si="151">AY82+AY83</f>
         <v>354054</v>
       </c>
       <c r="AZ84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>337158</v>
       </c>
       <c r="BA84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>329840</v>
       </c>
       <c r="BB84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>351002</v>
       </c>
       <c r="BC84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>381191</v>
       </c>
       <c r="BD84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>350662</v>
       </c>
       <c r="BE84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>336309</v>
       </c>
       <c r="BF84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>450184</v>
       </c>
       <c r="BG84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>346747</v>
       </c>
       <c r="BH84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>332160</v>
       </c>
       <c r="BI84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>335038</v>
       </c>
       <c r="BJ84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>352583</v>
       </c>
       <c r="BK84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>353514</v>
       </c>
       <c r="BL84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>337411</v>
       </c>
       <c r="BM84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>331612</v>
       </c>
       <c r="BN84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>364980</v>
       </c>
       <c r="BO84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>344085</v>
       </c>
       <c r="BP84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>331233</v>
       </c>
       <c r="BQ84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>331495</v>
       </c>
       <c r="BR84" s="2">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>359241</v>
       </c>
       <c r="BS84" s="34"/>
@@ -30129,27 +30129,27 @@
       <c r="BU84" s="34"/>
       <c r="BV84" s="34"/>
       <c r="CL84" s="2">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>323888</v>
       </c>
       <c r="CM84" s="2">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>351002</v>
       </c>
       <c r="CN84" s="2">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>450184</v>
       </c>
       <c r="CO84" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>352583</v>
       </c>
       <c r="CP84" s="2">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>364980</v>
       </c>
       <c r="CQ84" s="2">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>344085</v>
       </c>
       <c r="CR84" s="34"/>
@@ -30219,83 +30219,83 @@
         <v>129</v>
       </c>
       <c r="AX86" s="39">
-        <f t="shared" ref="AX86" si="151">SUM(AX64:AX69)/SUM(AX75:AX79)</f>
+        <f t="shared" ref="AX86" si="152">SUM(AX64:AX69)/SUM(AX75:AX79)</f>
         <v>1.3636044481554577</v>
       </c>
       <c r="AY86" s="39">
-        <f t="shared" ref="AY86:BQ86" si="152">SUM(AY64:AY69)/SUM(AY75:AY79)</f>
+        <f t="shared" ref="AY86:BQ86" si="153">SUM(AY64:AY69)/SUM(AY75:AY79)</f>
         <v>1.1630027092908299</v>
       </c>
       <c r="AZ86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.1417493067631714</v>
       </c>
       <c r="BA86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.0618909738849602</v>
       </c>
       <c r="BB86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.0745531195957954</v>
       </c>
       <c r="BC86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.0378115386179136</v>
       </c>
       <c r="BD86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.92684380587884685</v>
       </c>
       <c r="BE86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.86462929169265357</v>
       </c>
       <c r="BF86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.87935602862672257</v>
       </c>
       <c r="BG86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.93801990006264291</v>
       </c>
       <c r="BH86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.9403539454507599</v>
       </c>
       <c r="BI86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.98156254251258368</v>
       </c>
       <c r="BJ86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.98801167175929749</v>
       </c>
       <c r="BK86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.072544467915177</v>
       </c>
       <c r="BL86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.0371016459110658</v>
       </c>
       <c r="BM86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.95297969975080532</v>
       </c>
       <c r="BN86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.86731257653408322</v>
       </c>
       <c r="BO86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.92293838534270767</v>
       </c>
       <c r="BP86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.82087002234196349</v>
       </c>
       <c r="BQ86" s="39">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.86799178004535149</v>
       </c>
       <c r="BR86" s="39">
@@ -30303,27 +30303,27 @@
         <v>0.89329292221866674</v>
       </c>
       <c r="CL86" s="39">
-        <f t="shared" ref="CL86:CQ86" si="153">SUM(CL64:CL69)/SUM(CL75:CL79)</f>
+        <f t="shared" ref="CL86:CQ86" si="154">SUM(CL64:CL69)/SUM(CL75:CL79)</f>
         <v>1.3636044481554577</v>
       </c>
       <c r="CM86" s="39">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1.0745531195957954</v>
       </c>
       <c r="CN86" s="39">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.87935602862672257</v>
       </c>
       <c r="CO86" s="39">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.98801167175929749</v>
       </c>
       <c r="CP86" s="39">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.86731257653408322</v>
       </c>
       <c r="CQ86" s="39">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.9619713919578845</v>
       </c>
     </row>
@@ -30332,79 +30332,79 @@
         <v>130</v>
       </c>
       <c r="AX87" s="39">
-        <f t="shared" ref="AX87" si="154">(SUM(AX64:AX69)-AX68)/SUM(AX75:AX79)</f>
+        <f t="shared" ref="AX87" si="155">(SUM(AX64:AX69)-AX68)/SUM(AX75:AX79)</f>
         <v>1.1612646121147716</v>
       </c>
       <c r="AY87" s="39">
-        <f t="shared" ref="AY87:BP87" si="155">(SUM(AY64:AY69)-AY68)/SUM(AY75:AY79)</f>
+        <f t="shared" ref="AY87:BP87" si="156">(SUM(AY64:AY69)-AY68)/SUM(AY75:AY79)</f>
         <v>0.92513603054932947</v>
       </c>
       <c r="AZ87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1.0051417023076561</v>
       </c>
       <c r="BA87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.90938619448001934</v>
       </c>
       <c r="BB87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.873502761374232</v>
       </c>
       <c r="BC87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.80037133912477809</v>
       </c>
       <c r="BD87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.73403237443925085</v>
       </c>
       <c r="BE87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.70725246972041922</v>
       </c>
       <c r="BF87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.84723539114961488</v>
       </c>
       <c r="BG87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.7163804029544163</v>
       </c>
       <c r="BH87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.79075577763897564</v>
       </c>
       <c r="BI87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.82442002832838523</v>
       </c>
       <c r="BJ87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.94444215046659508</v>
       </c>
       <c r="BK87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1.0239451232711068</v>
       </c>
       <c r="BL87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.98677133304259335</v>
       </c>
       <c r="BM87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.90614173706922752</v>
       </c>
       <c r="BN87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.82600684838314664</v>
       </c>
       <c r="BO87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.87506667128459115</v>
       </c>
       <c r="BP87" s="39">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.77750724557483863</v>
       </c>
       <c r="BQ87" s="39">
@@ -30412,31 +30412,31 @@
         <v>0.82600623582766441</v>
       </c>
       <c r="BR87" s="39">
-        <f t="shared" ref="BR87" si="156">(SUM(BR64:BR69)-BR68)/SUM(BR75:BR79)</f>
+        <f t="shared" ref="BR87" si="157">(SUM(BR64:BR69)-BR68)/SUM(BR75:BR79)</f>
         <v>0.85877039926100796</v>
       </c>
       <c r="CL87" s="39">
-        <f t="shared" ref="CL87:CQ87" si="157">(SUM(CL64:CL69)-CL68)/SUM(CL75:CL79)</f>
+        <f t="shared" ref="CL87:CQ87" si="158">(SUM(CL64:CL69)-CL68)/SUM(CL75:CL79)</f>
         <v>1.1612646121147716</v>
       </c>
       <c r="CM87" s="39">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.873502761374232</v>
       </c>
       <c r="CN87" s="39">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.84723539114961488</v>
       </c>
       <c r="CO87" s="39">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.94444215046659508</v>
       </c>
       <c r="CP87" s="39">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.82600684838314664</v>
       </c>
       <c r="CQ87" s="39">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.91409967789976798</v>
       </c>
     </row>
@@ -30445,83 +30445,83 @@
         <v>131</v>
       </c>
       <c r="AX88" s="39">
-        <f t="shared" ref="AX88" si="158">(SUM(AX64:AX65)+AX70)/SUM(AX75:AX79)</f>
+        <f t="shared" ref="AX88" si="159">(SUM(AX64:AX65)+AX70)/SUM(AX75:AX79)</f>
         <v>1.8201571276757249</v>
       </c>
       <c r="AY88" s="39">
-        <f t="shared" ref="AY88:BQ88" si="159">(SUM(AY64:AY65)+AY70)/SUM(AY75:AY79)</f>
+        <f t="shared" ref="AY88:BQ88" si="160">(SUM(AY64:AY65)+AY70)/SUM(AY75:AY79)</f>
         <v>1.4759295735319644</v>
       </c>
       <c r="AZ88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.9210696996757062</v>
       </c>
       <c r="BA88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.7970933793641071</v>
       </c>
       <c r="BB88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.5182856368693269</v>
       </c>
       <c r="BC88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.3728434548091126</v>
       </c>
       <c r="BD88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.5115130031056876</v>
       </c>
       <c r="BE88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.3806410878319588</v>
       </c>
       <c r="BF88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.0982387551791768</v>
       </c>
       <c r="BG88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.2051483763821511</v>
       </c>
       <c r="BH88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.3852425567353737</v>
       </c>
       <c r="BI88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.3327384905932156</v>
       </c>
       <c r="BJ88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.1155545462053018</v>
       </c>
       <c r="BK88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.2881326834511431</v>
       </c>
       <c r="BL88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.3110513479026344</v>
       </c>
       <c r="BM88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.1627134869020848</v>
       </c>
       <c r="BN88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.88807882443648234</v>
       </c>
       <c r="BO88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.97924012052782872</v>
       </c>
       <c r="BP88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.91942367418085236</v>
       </c>
       <c r="BQ88" s="39">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.94236111111111109</v>
       </c>
       <c r="BR88" s="39">
@@ -30529,27 +30529,27 @@
         <v>0.7994880185472526</v>
       </c>
       <c r="CL88" s="39">
-        <f t="shared" ref="CL88:CQ88" si="160">(SUM(CL64:CL65)+CL70)/SUM(CL75:CL79)</f>
+        <f t="shared" ref="CL88:CQ88" si="161">(SUM(CL64:CL65)+CL70)/SUM(CL75:CL79)</f>
         <v>1.8201571276757249</v>
       </c>
       <c r="CM88" s="39">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.5182856368693269</v>
       </c>
       <c r="CN88" s="39">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.0982387551791768</v>
       </c>
       <c r="CO88" s="39">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.1155545462053018</v>
       </c>
       <c r="CP88" s="39">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.88807882443648234</v>
       </c>
       <c r="CQ88" s="39">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.0182731271430057</v>
       </c>
     </row>
@@ -30558,83 +30558,83 @@
         <v>132</v>
       </c>
       <c r="AX89" s="39">
-        <f t="shared" ref="AX89" si="161">AX44/AX73</f>
+        <f t="shared" ref="AX89" si="162">AX44/AX73</f>
         <v>0.19975423603220865</v>
       </c>
       <c r="AY89" s="39">
-        <f t="shared" ref="AY89:BQ89" si="162">AY44/AY73</f>
+        <f t="shared" ref="AY89:BQ89" si="163">AY44/AY73</f>
         <v>0.31475142209945378</v>
       </c>
       <c r="AZ89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.26570332010511394</v>
       </c>
       <c r="BA89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.24688940092165898</v>
       </c>
       <c r="BB89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.23749152426481901</v>
       </c>
       <c r="BC89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.32515195794234386</v>
       </c>
       <c r="BD89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.27741243704764129</v>
       </c>
       <c r="BE89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.24667493287423173</v>
       </c>
       <c r="BF89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.25583195135433939</v>
       </c>
       <c r="BG89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.33786593683579091</v>
       </c>
       <c r="BH89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.28551300578034683</v>
       </c>
       <c r="BI89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.24414245548266167</v>
       </c>
       <c r="BJ89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.25383526715695309</v>
       </c>
       <c r="BK89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.33824685868169296</v>
       </c>
       <c r="BL89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.26896870582168336</v>
       </c>
       <c r="BM89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.25866675512345755</v>
       </c>
       <c r="BN89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.26009644364074747</v>
       </c>
       <c r="BO89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.36124794745484401</v>
       </c>
       <c r="BP89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.2878910011985521</v>
       </c>
       <c r="BQ89" s="39">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.283672453581502</v>
       </c>
       <c r="BR89" s="39">
@@ -30642,27 +30642,27 @@
         <v>0.28573575955973846</v>
       </c>
       <c r="CL89" s="39">
-        <f t="shared" ref="CL89:CQ89" si="163">CL44/CL73</f>
+        <f t="shared" ref="CL89:CQ89" si="164">CL44/CL73</f>
         <v>0.84756150274168851</v>
       </c>
       <c r="CM89" s="39">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.0422077367080529</v>
       </c>
       <c r="CN89" s="39">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.1181358166432793</v>
       </c>
       <c r="CO89" s="39">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.0870773690166571</v>
       </c>
       <c r="CP89" s="39">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.0713874732862074</v>
       </c>
       <c r="CQ89" s="39">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>1.2100004359387941</v>
       </c>
     </row>
@@ -30671,83 +30671,83 @@
         <v>133</v>
       </c>
       <c r="AX90" s="39">
-        <f t="shared" ref="AX90:BQ90" si="164">AX45/AVERAGE(AU68:AX68)</f>
+        <f t="shared" ref="AX90:BQ90" si="165">AX45/AVERAGE(AU68:AX68)</f>
         <v>1.8761547479484173</v>
       </c>
       <c r="AY90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.5399666944213157</v>
       </c>
       <c r="AZ90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.2932899951021861</v>
       </c>
       <c r="BA90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.203985204629519</v>
       </c>
       <c r="BB90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.1974393761472073</v>
       </c>
       <c r="BC90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>3.0559659775960717</v>
       </c>
       <c r="BD90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.1609699267420965</v>
       </c>
       <c r="BE90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>1.7883219997720625</v>
       </c>
       <c r="BF90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.4491706858016702</v>
       </c>
       <c r="BG90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>3.3245603124455831</v>
       </c>
       <c r="BH90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.8659726740403384</v>
       </c>
       <c r="BI90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.4876805437553102</v>
       </c>
       <c r="BJ90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>2.6396804690757003</v>
       </c>
       <c r="BK90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>5.1322310772768729</v>
       </c>
       <c r="BL90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>5.0096355041202756</v>
       </c>
       <c r="BM90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>7.3059946907563695</v>
       </c>
       <c r="BN90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>7.795831106360235</v>
       </c>
       <c r="BO90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>9.9308114612318565</v>
       </c>
       <c r="BP90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>7.5839435244639706</v>
       </c>
       <c r="BQ90" s="39">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>7.6265393505361674</v>
       </c>
       <c r="BR90" s="39">
@@ -30755,27 +30755,27 @@
         <v>8.7217499899286945</v>
       </c>
       <c r="CL90" s="39">
-        <f t="shared" ref="CL90:CQ90" si="165">CL45/AVERAGE(CI68:CL68)</f>
+        <f t="shared" ref="CL90:CQ90" si="166">CL45/AVERAGE(CI68:CL68)</f>
         <v>7.9511840562719813</v>
       </c>
       <c r="CM90" s="39">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>9.1500440358301294</v>
       </c>
       <c r="CN90" s="39">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>13.022349948542692</v>
       </c>
       <c r="CO90" s="39">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>14.811481929794224</v>
       </c>
       <c r="CP90" s="39">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>19.214176428946587</v>
       </c>
       <c r="CQ90" s="39">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>34.695768234278084</v>
       </c>
     </row>
@@ -30784,83 +30784,83 @@
         <v>134</v>
       </c>
       <c r="AX91" s="70">
-        <f t="shared" ref="AX91" si="166">AX53/AX73</f>
+        <f t="shared" ref="AX91" si="167">AX53/AX73</f>
         <v>3.9127723163562715E-2</v>
       </c>
       <c r="AY91" s="70">
-        <f t="shared" ref="AY91:BQ91" si="167">AY53/AY73</f>
+        <f t="shared" ref="AY91:BQ91" si="168">AY53/AY73</f>
         <v>8.1216424613194602E-2</v>
       </c>
       <c r="AZ91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>7.0085835127744259E-2</v>
       </c>
       <c r="BA91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>6.5922871695367452E-2</v>
       </c>
       <c r="BB91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>5.8549523934336559E-2</v>
       </c>
       <c r="BC91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>9.0846845806957663E-2</v>
       </c>
       <c r="BD91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>7.1322241930976263E-2</v>
       </c>
       <c r="BE91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>5.7809930748210725E-2</v>
       </c>
       <c r="BF91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>5.9023968476704797E-2</v>
       </c>
       <c r="BG91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>8.6512644665995675E-2</v>
       </c>
       <c r="BH91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>7.2736030828516374E-2</v>
       </c>
       <c r="BI91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>5.9339537604689616E-2</v>
       </c>
       <c r="BJ91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>6.5108073843605618E-2</v>
       </c>
       <c r="BK91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>9.5939623324677384E-2</v>
       </c>
       <c r="BL91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>7.005106531796533E-2</v>
       </c>
       <c r="BM91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>6.4677997177424215E-2</v>
       </c>
       <c r="BN91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>4.037481505835936E-2</v>
       </c>
       <c r="BO91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>0.10558437595361611</v>
       </c>
       <c r="BP91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>7.4811386546630318E-2</v>
       </c>
       <c r="BQ91" s="70">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>7.0691865638999082E-2</v>
       </c>
       <c r="BR91" s="70">
@@ -30868,27 +30868,27 @@
         <v>7.6962262102599655E-2</v>
       </c>
       <c r="CL91" s="70">
-        <f t="shared" ref="CL91:CQ91" si="168">CL53/CL73</f>
+        <f t="shared" ref="CL91:CQ91" si="169">CL53/CL73</f>
         <v>0.1772557180259843</v>
       </c>
       <c r="CM91" s="70">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.26974205275183616</v>
       </c>
       <c r="CN91" s="70">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.28320789216311604</v>
       </c>
       <c r="CO91" s="70">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.27509834563776475</v>
       </c>
       <c r="CP91" s="70">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.25682503150857583</v>
       </c>
       <c r="CQ91" s="70">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.32605896798756123</v>
       </c>
     </row>
@@ -30897,83 +30897,83 @@
         <v>135</v>
       </c>
       <c r="AX92" s="70">
-        <f t="shared" ref="AX92" si="169">AX53/AX73</f>
+        <f t="shared" ref="AX92" si="170">AX53/AX73</f>
         <v>3.9127723163562715E-2</v>
       </c>
       <c r="AY92" s="70">
-        <f t="shared" ref="AY92:BQ92" si="170">AY53/AY73</f>
+        <f t="shared" ref="AY92:BQ92" si="171">AY53/AY73</f>
         <v>8.1216424613194602E-2</v>
       </c>
       <c r="AZ92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>7.0085835127744259E-2</v>
       </c>
       <c r="BA92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>6.5922871695367452E-2</v>
       </c>
       <c r="BB92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>5.8549523934336559E-2</v>
       </c>
       <c r="BC92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>9.0846845806957663E-2</v>
       </c>
       <c r="BD92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>7.1322241930976263E-2</v>
       </c>
       <c r="BE92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>5.7809930748210725E-2</v>
       </c>
       <c r="BF92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>5.9023968476704797E-2</v>
       </c>
       <c r="BG92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>8.6512644665995675E-2</v>
       </c>
       <c r="BH92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>7.2736030828516374E-2</v>
       </c>
       <c r="BI92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>5.9339537604689616E-2</v>
       </c>
       <c r="BJ92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>6.5108073843605618E-2</v>
       </c>
       <c r="BK92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>9.5939623324677384E-2</v>
       </c>
       <c r="BL92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>7.005106531796533E-2</v>
       </c>
       <c r="BM92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>6.4677997177424215E-2</v>
       </c>
       <c r="BN92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>4.037481505835936E-2</v>
       </c>
       <c r="BO92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>0.10558437595361611</v>
       </c>
       <c r="BP92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>7.4811386546630318E-2</v>
       </c>
       <c r="BQ92" s="70">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>7.0691865638999082E-2</v>
       </c>
       <c r="BR92" s="70">
@@ -30981,27 +30981,27 @@
         <v>7.6962262102599655E-2</v>
       </c>
       <c r="CL92" s="70">
-        <f t="shared" ref="CL92:CQ92" si="171">CL53/CL73</f>
+        <f t="shared" ref="CL92:CQ92" si="172">CL53/CL73</f>
         <v>0.1772557180259843</v>
       </c>
       <c r="CM92" s="70">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.26974205275183616</v>
       </c>
       <c r="CN92" s="70">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.28320789216311604</v>
       </c>
       <c r="CO92" s="70">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.27509834563776475</v>
       </c>
       <c r="CP92" s="70">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.25682503150857583</v>
       </c>
       <c r="CQ92" s="70">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.32605896798756123</v>
       </c>
     </row>
@@ -31010,271 +31010,271 @@
         <v>136</v>
       </c>
       <c r="C94" s="68">
-        <f t="shared" ref="C94:AT94" si="172">C53</f>
+        <f t="shared" ref="C94:AT94" si="173">C53</f>
         <v>3378</v>
       </c>
       <c r="D94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>1620</v>
       </c>
       <c r="E94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>1828</v>
       </c>
       <c r="F94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>1409</v>
       </c>
       <c r="G94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>3378</v>
       </c>
       <c r="H94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>3074</v>
       </c>
       <c r="I94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>3253</v>
       </c>
       <c r="J94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>4308</v>
       </c>
       <c r="K94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>6004</v>
       </c>
       <c r="L94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>5987</v>
       </c>
       <c r="M94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>7308</v>
       </c>
       <c r="N94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>6623</v>
       </c>
       <c r="O94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>13064</v>
       </c>
       <c r="P94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>11622</v>
       </c>
       <c r="Q94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>8824</v>
       </c>
       <c r="R94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>8223</v>
       </c>
       <c r="S94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>13078</v>
       </c>
       <c r="T94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>9547</v>
       </c>
       <c r="U94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>6900</v>
       </c>
       <c r="V94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>7512</v>
       </c>
       <c r="W94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>13072</v>
       </c>
       <c r="X94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>10223</v>
       </c>
       <c r="Y94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>7748</v>
       </c>
       <c r="Z94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>8467</v>
       </c>
       <c r="AA94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>18024</v>
       </c>
       <c r="AB94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>13569</v>
       </c>
       <c r="AC94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>10677</v>
       </c>
       <c r="AD94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>11124</v>
       </c>
       <c r="AE94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>18361</v>
       </c>
       <c r="AF94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>10516</v>
       </c>
       <c r="AG94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>7796</v>
       </c>
       <c r="AH94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>9014</v>
       </c>
       <c r="AI94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>17891</v>
       </c>
       <c r="AJ94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>11029</v>
       </c>
       <c r="AK94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>8717</v>
       </c>
       <c r="AL94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>10714</v>
       </c>
       <c r="AM94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>20065</v>
       </c>
       <c r="AN94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>13822</v>
       </c>
       <c r="AO94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>11519</v>
       </c>
       <c r="AP94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>14125</v>
       </c>
       <c r="AQ94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>19965</v>
       </c>
       <c r="AR94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>11561</v>
       </c>
       <c r="AS94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>10044</v>
       </c>
       <c r="AT94" s="68">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>13686</v>
       </c>
       <c r="AU94" s="68">
-        <f t="shared" ref="AU94:BQ94" si="173">AU53</f>
+        <f t="shared" ref="AU94:BQ94" si="174">AU53</f>
         <v>22236</v>
       </c>
       <c r="AV94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>11249</v>
       </c>
       <c r="AW94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>11253</v>
       </c>
       <c r="AX94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>12673</v>
       </c>
       <c r="AY94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>28755</v>
       </c>
       <c r="AZ94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>23630</v>
       </c>
       <c r="BA94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>21744</v>
       </c>
       <c r="BB94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>20551</v>
       </c>
       <c r="BC94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>34630</v>
       </c>
       <c r="BD94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>25010</v>
       </c>
       <c r="BE94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>19442</v>
       </c>
       <c r="BF94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>20821</v>
       </c>
       <c r="BG94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>29998</v>
       </c>
       <c r="BH94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>24160</v>
       </c>
       <c r="BI94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>19881</v>
       </c>
       <c r="BJ94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>22956</v>
       </c>
       <c r="BK94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>33916</v>
       </c>
       <c r="BL94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>23636</v>
       </c>
       <c r="BM94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>21448</v>
       </c>
       <c r="BN94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>14736</v>
       </c>
       <c r="BO94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>36330</v>
       </c>
       <c r="BP94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>24780</v>
       </c>
       <c r="BQ94" s="68">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>23434</v>
       </c>
       <c r="BR94" s="68">
@@ -31286,67 +31286,67 @@
         <v>8235</v>
       </c>
       <c r="CB94" s="68">
-        <f t="shared" ref="CB94:CQ94" si="174">CB53</f>
+        <f t="shared" ref="CB94:CQ94" si="175">CB53</f>
         <v>14013</v>
       </c>
       <c r="CC94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>25922</v>
       </c>
       <c r="CD94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>41733</v>
       </c>
       <c r="CE94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>37037</v>
       </c>
       <c r="CF94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>39510</v>
       </c>
       <c r="CG94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>53394</v>
       </c>
       <c r="CH94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>45687</v>
       </c>
       <c r="CI94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>48351</v>
       </c>
       <c r="CJ94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>59531</v>
       </c>
       <c r="CK94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>55256</v>
       </c>
       <c r="CL94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>57411</v>
       </c>
       <c r="CM94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>94680</v>
       </c>
       <c r="CN94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>99903</v>
       </c>
       <c r="CO94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>96995</v>
       </c>
       <c r="CP94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>93736</v>
       </c>
       <c r="CQ94" s="68">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>112192</v>
       </c>
     </row>
@@ -31563,71 +31563,71 @@
       <c r="BU95" s="34"/>
       <c r="BV95" s="34"/>
       <c r="CA95" s="69">
-        <f t="shared" ref="CA95:CA99" si="175">SUM(C95:F95)</f>
+        <f t="shared" ref="CA95:CA99" si="176">SUM(C95:F95)</f>
         <v>10159</v>
       </c>
       <c r="CB95" s="69">
-        <f t="shared" ref="CB95:CB99" si="176">SUM(G95:J95)</f>
+        <f t="shared" ref="CB95:CB99" si="177">SUM(G95:J95)</f>
         <v>18595</v>
       </c>
       <c r="CC95" s="69">
-        <f t="shared" ref="CC95:CC99" si="177">SUM(K95:N95)</f>
+        <f t="shared" ref="CC95:CC99" si="178">SUM(K95:N95)</f>
         <v>37529</v>
       </c>
       <c r="CD95" s="69">
-        <f t="shared" ref="CD95:CD99" si="178">SUM(O95:R95)</f>
+        <f t="shared" ref="CD95:CD99" si="179">SUM(O95:R95)</f>
         <v>50856</v>
       </c>
       <c r="CE95" s="69">
-        <f t="shared" ref="CE95:CE99" si="179">SUM(S95:V95)</f>
+        <f t="shared" ref="CE95:CE99" si="180">SUM(S95:V95)</f>
         <v>53666</v>
       </c>
       <c r="CF95" s="69">
-        <f t="shared" ref="CF95:CF99" si="180">SUM(W95:Z95)</f>
+        <f t="shared" ref="CF95:CF99" si="181">SUM(W95:Z95)</f>
         <v>59713</v>
       </c>
       <c r="CG95" s="69">
-        <f t="shared" ref="CG95:CG99" si="181">SUM(AA95:AD95)</f>
+        <f t="shared" ref="CG95:CG99" si="182">SUM(AA95:AD95)</f>
         <v>81266</v>
       </c>
       <c r="CH95" s="69">
-        <f t="shared" ref="CH95:CH99" si="182">SUM(AE95:AH95)</f>
+        <f t="shared" ref="CH95:CH99" si="183">SUM(AE95:AH95)</f>
         <v>66231</v>
       </c>
       <c r="CI95" s="69">
-        <f t="shared" ref="CI95:CI99" si="183">SUM(AI95:AL95)</f>
+        <f t="shared" ref="CI95:CI99" si="184">SUM(AI95:AL95)</f>
         <v>64225</v>
       </c>
       <c r="CJ95" s="69">
-        <f t="shared" ref="CJ95:CJ99" si="184">SUM(AM95:AP95)</f>
+        <f t="shared" ref="CJ95:CJ99" si="185">SUM(AM95:AP95)</f>
         <v>77434</v>
       </c>
       <c r="CK95" s="69">
-        <f t="shared" ref="CK95:CK99" si="185">SUM(AQ95:AT95)</f>
+        <f t="shared" ref="CK95:CK99" si="186">SUM(AQ95:AT95)</f>
         <v>69391</v>
       </c>
       <c r="CL95" s="69">
-        <f t="shared" ref="CL95:CL99" si="186">SUM(AU95:AX95)</f>
+        <f t="shared" ref="CL95:CL99" si="187">SUM(AU95:AX95)</f>
         <v>80674</v>
       </c>
       <c r="CM95" s="69">
-        <f t="shared" ref="CM95:CM99" si="187">SUM(AY95:BB95)</f>
+        <f t="shared" ref="CM95:CM99" si="188">SUM(AY95:BB95)</f>
         <v>104038</v>
       </c>
       <c r="CN95" s="69">
-        <f t="shared" ref="CN95:CN99" si="188">SUM(BC95:BF95)</f>
+        <f t="shared" ref="CN95:CN99" si="189">SUM(BC95:BF95)</f>
         <v>122151</v>
       </c>
       <c r="CO95" s="69">
-        <f t="shared" ref="CO95:CO99" si="189">SUM(BG95:BJ95)</f>
+        <f t="shared" ref="CO95:CO99" si="190">SUM(BG95:BJ95)</f>
         <v>110543</v>
       </c>
       <c r="CP95" s="69">
-        <f t="shared" ref="CP95:CP99" si="190">SUM(BK95:BN95)</f>
+        <f t="shared" ref="CP95:CP99" si="191">SUM(BK95:BN95)</f>
         <v>118254</v>
       </c>
       <c r="CQ95" s="69">
-        <f t="shared" ref="CQ95:CQ99" si="191">SUM(BL95:BO95)</f>
+        <f t="shared" ref="CQ95:CQ99" si="192">SUM(BL95:BO95)</f>
         <v>108294</v>
       </c>
       <c r="CR95" s="34"/>
@@ -31901,71 +31901,71 @@
         <v>-3242</v>
       </c>
       <c r="CA96" s="68">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-1213</v>
       </c>
       <c r="CB96" s="68">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>-2121</v>
       </c>
       <c r="CC96" s="68">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>-7452</v>
       </c>
       <c r="CD96" s="68">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>-9402</v>
       </c>
       <c r="CE96" s="68">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>-9076</v>
       </c>
       <c r="CF96" s="68">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>-9571</v>
       </c>
       <c r="CG96" s="68">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>-11247</v>
       </c>
       <c r="CH96" s="68">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>-12734</v>
       </c>
       <c r="CI96" s="68">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>-12451</v>
       </c>
       <c r="CJ96" s="68">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>-13313</v>
       </c>
       <c r="CK96" s="68">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>-10495</v>
       </c>
       <c r="CL96" s="68">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>-7309</v>
       </c>
       <c r="CM96" s="68">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>-11085</v>
       </c>
       <c r="CN96" s="68">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>-10708</v>
       </c>
       <c r="CO96" s="68">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>-10959</v>
       </c>
       <c r="CP96" s="68">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>-9447</v>
       </c>
       <c r="CQ96" s="68">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>-9995</v>
       </c>
     </row>
@@ -31974,271 +31974,271 @@
         <v>139</v>
       </c>
       <c r="C97" s="69">
-        <f t="shared" ref="C97" si="192">C95-C96</f>
+        <f t="shared" ref="C97" si="193">C95-C96</f>
         <v>6134</v>
       </c>
       <c r="D97" s="69">
-        <f t="shared" ref="D97" si="193">D95-D96</f>
+        <f t="shared" ref="D97" si="194">D95-D96</f>
         <v>-886</v>
       </c>
       <c r="E97" s="69">
-        <f t="shared" ref="E97" si="194">E95-E96</f>
+        <f t="shared" ref="E97" si="195">E95-E96</f>
         <v>2542</v>
       </c>
       <c r="F97" s="69">
-        <f t="shared" ref="F97" si="195">F95-F96</f>
+        <f t="shared" ref="F97" si="196">F95-F96</f>
         <v>3582</v>
       </c>
       <c r="G97" s="69">
-        <f t="shared" ref="G97" si="196">G95-G96</f>
+        <f t="shared" ref="G97" si="197">G95-G96</f>
         <v>6162</v>
       </c>
       <c r="H97" s="69">
-        <f t="shared" ref="H97" si="197">H95-H96</f>
+        <f t="shared" ref="H97" si="198">H95-H96</f>
         <v>2631</v>
       </c>
       <c r="I97" s="69">
-        <f t="shared" ref="I97" si="198">I95-I96</f>
+        <f t="shared" ref="I97" si="199">I95-I96</f>
         <v>5427</v>
       </c>
       <c r="J97" s="69">
-        <f t="shared" ref="J97" si="199">J95-J96</f>
+        <f t="shared" ref="J97" si="200">J95-J96</f>
         <v>6496</v>
       </c>
       <c r="K97" s="69">
-        <f t="shared" ref="K97" si="200">K95-K96</f>
+        <f t="shared" ref="K97" si="201">K95-K96</f>
         <v>11036</v>
       </c>
       <c r="L97" s="69">
-        <f t="shared" ref="L97" si="201">L95-L96</f>
+        <f t="shared" ref="L97" si="202">L95-L96</f>
         <v>6875</v>
       </c>
       <c r="M97" s="69">
-        <f t="shared" ref="M97" si="202">M95-M96</f>
+        <f t="shared" ref="M97" si="203">M95-M96</f>
         <v>12070</v>
       </c>
       <c r="N97" s="69">
-        <f t="shared" ref="N97" si="203">N95-N96</f>
+        <f t="shared" ref="N97" si="204">N95-N96</f>
         <v>15000</v>
       </c>
       <c r="O97" s="69">
-        <f t="shared" ref="O97" si="204">O95-O96</f>
+        <f t="shared" ref="O97" si="205">O95-O96</f>
         <v>18983</v>
       </c>
       <c r="P97" s="69">
-        <f t="shared" ref="P97" si="205">P95-P96</f>
+        <f t="shared" ref="P97" si="206">P95-P96</f>
         <v>15486</v>
       </c>
       <c r="Q97" s="69">
-        <f t="shared" ref="Q97" si="206">Q95-Q96</f>
+        <f t="shared" ref="Q97" si="207">Q95-Q96</f>
         <v>13152</v>
       </c>
       <c r="R97" s="69">
-        <f t="shared" ref="R97" si="207">R95-R96</f>
+        <f t="shared" ref="R97" si="208">R95-R96</f>
         <v>12637</v>
       </c>
       <c r="S97" s="69">
-        <f t="shared" ref="S97" si="208">S95-S96</f>
+        <f t="shared" ref="S97" si="209">S95-S96</f>
         <v>25881</v>
       </c>
       <c r="T97" s="69">
-        <f t="shared" ref="T97" si="209">T95-T96</f>
+        <f t="shared" ref="T97" si="210">T95-T96</f>
         <v>14803</v>
       </c>
       <c r="U97" s="69">
-        <f t="shared" ref="U97" si="210">U95-U96</f>
+        <f t="shared" ref="U97" si="211">U95-U96</f>
         <v>9844</v>
       </c>
       <c r="V97" s="69">
-        <f t="shared" ref="V97" si="211">V95-V96</f>
+        <f t="shared" ref="V97" si="212">V95-V96</f>
         <v>12214</v>
       </c>
       <c r="W97" s="69">
-        <f t="shared" ref="W97" si="212">W95-W96</f>
+        <f t="shared" ref="W97" si="213">W95-W96</f>
         <v>24655</v>
       </c>
       <c r="X97" s="69">
-        <f t="shared" ref="X97" si="213">X95-X96</f>
+        <f t="shared" ref="X97" si="214">X95-X96</f>
         <v>14920</v>
       </c>
       <c r="Y97" s="69">
-        <f t="shared" ref="Y97" si="214">Y95-Y96</f>
+        <f t="shared" ref="Y97" si="215">Y95-Y96</f>
         <v>12633</v>
       </c>
       <c r="Z97" s="69">
-        <f t="shared" ref="Z97" si="215">Z95-Z96</f>
+        <f t="shared" ref="Z97" si="216">Z95-Z96</f>
         <v>17076</v>
       </c>
       <c r="AA97" s="69">
-        <f t="shared" ref="AA97" si="216">AA95-AA96</f>
+        <f t="shared" ref="AA97" si="217">AA95-AA96</f>
         <v>36939</v>
       </c>
       <c r="AB97" s="69">
-        <f t="shared" ref="AB97" si="217">AB95-AB96</f>
+        <f t="shared" ref="AB97" si="218">AB95-AB96</f>
         <v>21450</v>
       </c>
       <c r="AC97" s="69">
-        <f t="shared" ref="AC97" si="218">AC95-AC96</f>
+        <f t="shared" ref="AC97" si="219">AC95-AC96</f>
         <v>17031</v>
       </c>
       <c r="AD97" s="69">
-        <f t="shared" ref="AD97" si="219">AD95-AD96</f>
+        <f t="shared" ref="AD97" si="220">AD95-AD96</f>
         <v>17093</v>
       </c>
       <c r="AE97" s="69">
-        <f t="shared" ref="AE97" si="220">AE95-AE96</f>
+        <f t="shared" ref="AE97" si="221">AE95-AE96</f>
         <v>31075</v>
       </c>
       <c r="AF97" s="69">
-        <f t="shared" ref="AF97" si="221">AF95-AF96</f>
+        <f t="shared" ref="AF97" si="222">AF95-AF96</f>
         <v>13937</v>
       </c>
       <c r="AG97" s="69">
-        <f t="shared" ref="AG97" si="222">AG95-AG96</f>
+        <f t="shared" ref="AG97" si="223">AG95-AG96</f>
         <v>13443</v>
       </c>
       <c r="AH97" s="69">
-        <f t="shared" ref="AH97" si="223">AH95-AH96</f>
+        <f t="shared" ref="AH97" si="224">AH95-AH96</f>
         <v>20510</v>
       </c>
       <c r="AI97" s="69">
-        <f t="shared" ref="AI97" si="224">AI95-AI96</f>
+        <f t="shared" ref="AI97" si="225">AI95-AI96</f>
         <v>30568</v>
       </c>
       <c r="AJ97" s="69">
-        <f t="shared" ref="AJ97" si="225">AJ95-AJ96</f>
+        <f t="shared" ref="AJ97" si="226">AJ95-AJ96</f>
         <v>15545</v>
       </c>
       <c r="AK97" s="69">
-        <f t="shared" ref="AK97" si="226">AK95-AK96</f>
+        <f t="shared" ref="AK97" si="227">AK95-AK96</f>
         <v>10949</v>
       </c>
       <c r="AL97" s="69">
-        <f t="shared" ref="AL97" si="227">AL95-AL96</f>
+        <f t="shared" ref="AL97" si="228">AL95-AL96</f>
         <v>19614</v>
       </c>
       <c r="AM97" s="69">
-        <f t="shared" ref="AM97" si="228">AM95-AM96</f>
+        <f t="shared" ref="AM97" si="229">AM95-AM96</f>
         <v>31103</v>
       </c>
       <c r="AN97" s="69">
-        <f t="shared" ref="AN97" si="229">AN95-AN96</f>
+        <f t="shared" ref="AN97" si="230">AN95-AN96</f>
         <v>19325</v>
       </c>
       <c r="AO97" s="69">
-        <f t="shared" ref="AO97" si="230">AO95-AO96</f>
+        <f t="shared" ref="AO97" si="231">AO95-AO96</f>
         <v>17755</v>
       </c>
       <c r="AP97" s="69">
-        <f t="shared" ref="AP97" si="231">AP95-AP96</f>
+        <f t="shared" ref="AP97" si="232">AP95-AP96</f>
         <v>22564</v>
       </c>
       <c r="AQ97" s="69">
-        <f t="shared" ref="AQ97" si="232">AQ95-AQ96</f>
+        <f t="shared" ref="AQ97" si="233">AQ95-AQ96</f>
         <v>30045</v>
       </c>
       <c r="AR97" s="69">
-        <f t="shared" ref="AR97" si="233">AR95-AR96</f>
+        <f t="shared" ref="AR97" si="234">AR95-AR96</f>
         <v>13518</v>
       </c>
       <c r="AS97" s="69">
-        <f t="shared" ref="AS97" si="234">AS95-AS96</f>
+        <f t="shared" ref="AS97" si="235">AS95-AS96</f>
         <v>13636</v>
       </c>
       <c r="AT97" s="69">
-        <f t="shared" ref="AT97" si="235">AT95-AT96</f>
+        <f t="shared" ref="AT97" si="236">AT95-AT96</f>
         <v>22687</v>
       </c>
       <c r="AU97" s="69">
-        <f t="shared" ref="AU97:BQ97" si="236">AU95-AU96</f>
+        <f t="shared" ref="AU97:BQ97" si="237">AU95-AU96</f>
         <v>32623</v>
       </c>
       <c r="AV97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>15164</v>
       </c>
       <c r="AW97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>17836</v>
       </c>
       <c r="AX97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>22360</v>
       </c>
       <c r="AY97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>42263</v>
       </c>
       <c r="AZ97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>26250</v>
       </c>
       <c r="BA97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>23187</v>
       </c>
       <c r="BB97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>23423</v>
       </c>
       <c r="BC97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>49769</v>
       </c>
       <c r="BD97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>30680</v>
       </c>
       <c r="BE97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>24994</v>
       </c>
       <c r="BF97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>27416</v>
       </c>
       <c r="BG97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>37792</v>
       </c>
       <c r="BH97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>31476</v>
       </c>
       <c r="BI97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>28473</v>
       </c>
       <c r="BJ97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>23761</v>
       </c>
       <c r="BK97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>42287</v>
       </c>
       <c r="BL97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>24686</v>
       </c>
       <c r="BM97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>31009</v>
       </c>
       <c r="BN97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>29719</v>
       </c>
       <c r="BO97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>32875</v>
       </c>
       <c r="BP97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>27023</v>
       </c>
       <c r="BQ97" s="69">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>31329</v>
       </c>
       <c r="BR97" s="69">
@@ -32250,71 +32250,71 @@
       <c r="BU97" s="34"/>
       <c r="BV97" s="34"/>
       <c r="CA97" s="69">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>11372</v>
       </c>
       <c r="CB97" s="69">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>20716</v>
       </c>
       <c r="CC97" s="69">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>44981</v>
       </c>
       <c r="CD97" s="69">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>60258</v>
       </c>
       <c r="CE97" s="69">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>62742</v>
       </c>
       <c r="CF97" s="69">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>69284</v>
       </c>
       <c r="CG97" s="69">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>92513</v>
       </c>
       <c r="CH97" s="69">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>78965</v>
       </c>
       <c r="CI97" s="69">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>76676</v>
       </c>
       <c r="CJ97" s="69">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>90747</v>
       </c>
       <c r="CK97" s="69">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>79886</v>
       </c>
       <c r="CL97" s="69">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>87983</v>
       </c>
       <c r="CM97" s="69">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>115123</v>
       </c>
       <c r="CN97" s="69">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>132859</v>
       </c>
       <c r="CO97" s="69">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>121502</v>
       </c>
       <c r="CP97" s="69">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>127701</v>
       </c>
       <c r="CQ97" s="69">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>118289</v>
       </c>
       <c r="CR97" s="34"/>
@@ -32384,271 +32384,271 @@
         <v>140</v>
       </c>
       <c r="C98" s="68">
-        <f t="shared" ref="C98:AT98" si="237">C54</f>
+        <f t="shared" ref="C98:AT98" si="238">C54</f>
         <v>24974</v>
       </c>
       <c r="D98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25081</v>
       </c>
       <c r="E98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25195</v>
       </c>
       <c r="F98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25376</v>
       </c>
       <c r="G98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25470</v>
       </c>
       <c r="H98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25578</v>
       </c>
       <c r="I98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25647</v>
       </c>
       <c r="J98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25789</v>
       </c>
       <c r="K98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25740</v>
       </c>
       <c r="L98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25849</v>
       </c>
       <c r="M98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25931</v>
       </c>
       <c r="N98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25879</v>
       </c>
       <c r="O98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>26069</v>
       </c>
       <c r="P98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>26140</v>
       </c>
       <c r="Q98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>26225</v>
       </c>
       <c r="R98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>26175</v>
       </c>
       <c r="S98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>26290</v>
       </c>
       <c r="T98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>26310</v>
       </c>
       <c r="U98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25721</v>
       </c>
       <c r="V98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25909</v>
       </c>
       <c r="W98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>25090</v>
       </c>
       <c r="X98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>24493</v>
       </c>
       <c r="Y98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>24051</v>
       </c>
       <c r="Z98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>24342</v>
       </c>
       <c r="AA98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>23372</v>
       </c>
       <c r="AB98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>23175</v>
       </c>
       <c r="AC98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>22920</v>
       </c>
       <c r="AD98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>23014</v>
       </c>
       <c r="AE98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>22236</v>
       </c>
       <c r="AF98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>22058</v>
       </c>
       <c r="AG98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>21772</v>
       </c>
       <c r="AH98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>21883</v>
       </c>
       <c r="AI98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>21195</v>
       </c>
       <c r="AJ98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>20903</v>
       </c>
       <c r="AK98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>20780</v>
       </c>
       <c r="AL98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>20869</v>
       </c>
       <c r="AM98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>20452</v>
       </c>
       <c r="AN98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>20100</v>
       </c>
       <c r="AO98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>19529</v>
       </c>
       <c r="AP98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>19822</v>
       </c>
       <c r="AQ98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>18943</v>
       </c>
       <c r="AR98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>18696</v>
       </c>
       <c r="AS98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>18283</v>
       </c>
       <c r="AT98" s="68">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>18471</v>
       </c>
       <c r="AU98" s="68">
-        <f t="shared" ref="AU98:BQ98" si="238">AU54</f>
+        <f t="shared" ref="AU98:BQ98" si="239">AU54</f>
         <v>17660</v>
       </c>
       <c r="AV98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>17440</v>
       </c>
       <c r="AW98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>17250</v>
       </c>
       <c r="AX98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>17352</v>
       </c>
       <c r="AY98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>16935</v>
       </c>
       <c r="AZ98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>16753</v>
       </c>
       <c r="BA98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>16629</v>
       </c>
       <c r="BB98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>16701</v>
       </c>
       <c r="BC98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>16392</v>
       </c>
       <c r="BD98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>16279</v>
       </c>
       <c r="BE98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>16163</v>
       </c>
       <c r="BF98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>16216</v>
       </c>
       <c r="BG98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>15893</v>
       </c>
       <c r="BH98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>15787</v>
       </c>
       <c r="BI98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>15698</v>
       </c>
       <c r="BJ98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>15744</v>
       </c>
       <c r="BK98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>15510</v>
       </c>
       <c r="BL98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>15406</v>
       </c>
       <c r="BM98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>15288</v>
       </c>
       <c r="BN98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>15343</v>
       </c>
       <c r="BO98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>15082</v>
       </c>
       <c r="BP98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>14994</v>
       </c>
       <c r="BQ98" s="68">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>14903</v>
       </c>
       <c r="BR98" s="68">
@@ -32660,67 +32660,67 @@
         <v>25156.5</v>
       </c>
       <c r="CB98" s="68">
-        <f t="shared" ref="CB98:CQ98" si="239">CB54</f>
+        <f t="shared" ref="CB98:CQ98" si="240">CB54</f>
         <v>25621</v>
       </c>
       <c r="CC98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>25849.75</v>
       </c>
       <c r="CD98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>26152.25</v>
       </c>
       <c r="CE98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>26057.5</v>
       </c>
       <c r="CF98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>24494</v>
       </c>
       <c r="CG98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>23120.25</v>
       </c>
       <c r="CH98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>21987.25</v>
       </c>
       <c r="CI98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>20936.75</v>
       </c>
       <c r="CJ98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>19975.75</v>
       </c>
       <c r="CK98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>18598.25</v>
       </c>
       <c r="CL98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>17425.5</v>
       </c>
       <c r="CM98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>16754.5</v>
       </c>
       <c r="CN98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>16262.5</v>
       </c>
       <c r="CO98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>15780.5</v>
       </c>
       <c r="CP98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>15386.75</v>
       </c>
       <c r="CQ98" s="68">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>59928</v>
       </c>
     </row>
@@ -32729,271 +32729,271 @@
         <v>141</v>
       </c>
       <c r="C99" s="39">
-        <f t="shared" ref="C99" si="240">C97/C98</f>
+        <f t="shared" ref="C99" si="241">C97/C98</f>
         <v>0.24561544005765998</v>
       </c>
       <c r="D99" s="39">
-        <f t="shared" ref="D99" si="241">D97/D98</f>
+        <f t="shared" ref="D99" si="242">D97/D98</f>
         <v>-3.5325545233443639E-2</v>
       </c>
       <c r="E99" s="39">
-        <f t="shared" ref="E99" si="242">E97/E98</f>
+        <f t="shared" ref="E99" si="243">E97/E98</f>
         <v>0.10089303433220877</v>
       </c>
       <c r="F99" s="39">
-        <f t="shared" ref="F99" si="243">F97/F98</f>
+        <f t="shared" ref="F99" si="244">F97/F98</f>
         <v>0.14115699873896595</v>
       </c>
       <c r="G99" s="39">
-        <f t="shared" ref="G99" si="244">G97/G98</f>
+        <f t="shared" ref="G99" si="245">G97/G98</f>
         <v>0.24193168433451118</v>
       </c>
       <c r="H99" s="39">
-        <f t="shared" ref="H99" si="245">H97/H98</f>
+        <f t="shared" ref="H99" si="246">H97/H98</f>
         <v>0.10286183438892799</v>
       </c>
       <c r="I99" s="39">
-        <f t="shared" ref="I99" si="246">I97/I98</f>
+        <f t="shared" ref="I99" si="247">I97/I98</f>
         <v>0.21160369633875306</v>
       </c>
       <c r="J99" s="39">
-        <f t="shared" ref="J99" si="247">J97/J98</f>
+        <f t="shared" ref="J99" si="248">J97/J98</f>
         <v>0.25189034084299505</v>
       </c>
       <c r="K99" s="39">
-        <f t="shared" ref="K99" si="248">K97/K98</f>
+        <f t="shared" ref="K99" si="249">K97/K98</f>
         <v>0.42874902874902876</v>
       </c>
       <c r="L99" s="39">
-        <f t="shared" ref="L99" si="249">L97/L98</f>
+        <f t="shared" ref="L99" si="250">L97/L98</f>
         <v>0.26596773569577159</v>
       </c>
       <c r="M99" s="39">
-        <f t="shared" ref="M99" si="250">M97/M98</f>
+        <f t="shared" ref="M99" si="251">M97/M98</f>
         <v>0.46546604450271878</v>
       </c>
       <c r="N99" s="39">
-        <f t="shared" ref="N99" si="251">N97/N98</f>
+        <f t="shared" ref="N99" si="252">N97/N98</f>
         <v>0.57962054175199973</v>
       </c>
       <c r="O99" s="39">
-        <f t="shared" ref="O99" si="252">O97/O98</f>
+        <f t="shared" ref="O99" si="253">O97/O98</f>
         <v>0.72818289922896928</v>
       </c>
       <c r="P99" s="39">
-        <f t="shared" ref="P99" si="253">P97/P98</f>
+        <f t="shared" ref="P99" si="254">P97/P98</f>
         <v>0.59242540168324409</v>
       </c>
       <c r="Q99" s="39">
-        <f t="shared" ref="Q99" si="254">Q97/Q98</f>
+        <f t="shared" ref="Q99" si="255">Q97/Q98</f>
         <v>0.50150619637750238</v>
       </c>
       <c r="R99" s="39">
-        <f t="shared" ref="R99" si="255">R97/R98</f>
+        <f t="shared" ref="R99" si="256">R97/R98</f>
         <v>0.48278892072588347</v>
       </c>
       <c r="S99" s="39">
-        <f t="shared" ref="S99" si="256">S97/S98</f>
+        <f t="shared" ref="S99" si="257">S97/S98</f>
         <v>0.98444275389882085</v>
       </c>
       <c r="T99" s="39">
-        <f t="shared" ref="T99" si="257">T97/T98</f>
+        <f t="shared" ref="T99" si="258">T97/T98</f>
         <v>0.56263778031166856</v>
       </c>
       <c r="U99" s="39">
-        <f t="shared" ref="U99" si="258">U97/U98</f>
+        <f t="shared" ref="U99" si="259">U97/U98</f>
         <v>0.38272228918004741</v>
       </c>
       <c r="V99" s="39">
-        <f t="shared" ref="V99" si="259">V97/V98</f>
+        <f t="shared" ref="V99" si="260">V97/V98</f>
         <v>0.47141919796209814</v>
       </c>
       <c r="W99" s="39">
-        <f t="shared" ref="W99" si="260">W97/W98</f>
+        <f t="shared" ref="W99" si="261">W97/W98</f>
         <v>0.98266241530490239</v>
       </c>
       <c r="X99" s="39">
-        <f t="shared" ref="X99" si="261">X97/X98</f>
+        <f t="shared" ref="X99" si="262">X97/X98</f>
         <v>0.60915363573265835</v>
       </c>
       <c r="Y99" s="39">
-        <f t="shared" ref="Y99" si="262">Y97/Y98</f>
+        <f t="shared" ref="Y99" si="263">Y97/Y98</f>
         <v>0.52525882499688159</v>
       </c>
       <c r="Z99" s="39">
-        <f t="shared" ref="Z99" si="263">Z97/Z98</f>
+        <f t="shared" ref="Z99" si="264">Z97/Z98</f>
         <v>0.70150357406950947</v>
       </c>
       <c r="AA99" s="39">
-        <f t="shared" ref="AA99" si="264">AA97/AA98</f>
+        <f t="shared" ref="AA99" si="265">AA97/AA98</f>
         <v>1.5804809173369845</v>
       </c>
       <c r="AB99" s="39">
-        <f t="shared" ref="AB99" si="265">AB97/AB98</f>
+        <f t="shared" ref="AB99" si="266">AB97/AB98</f>
         <v>0.92556634304207119</v>
       </c>
       <c r="AC99" s="39">
-        <f t="shared" ref="AC99" si="266">AC97/AC98</f>
+        <f t="shared" ref="AC99" si="267">AC97/AC98</f>
         <v>0.74306282722513084</v>
       </c>
       <c r="AD99" s="39">
-        <f t="shared" ref="AD99" si="267">AD97/AD98</f>
+        <f t="shared" ref="AD99" si="268">AD97/AD98</f>
         <v>0.74272182149995658</v>
       </c>
       <c r="AE99" s="39">
-        <f t="shared" ref="AE99" si="268">AE97/AE98</f>
+        <f t="shared" ref="AE99" si="269">AE97/AE98</f>
         <v>1.3975085447022846</v>
       </c>
       <c r="AF99" s="39">
-        <f t="shared" ref="AF99" si="269">AF97/AF98</f>
+        <f t="shared" ref="AF99" si="270">AF97/AF98</f>
         <v>0.63183425514552538</v>
       </c>
       <c r="AG99" s="39">
-        <f t="shared" ref="AG99" si="270">AG97/AG98</f>
+        <f t="shared" ref="AG99" si="271">AG97/AG98</f>
         <v>0.6174444240308653</v>
       </c>
       <c r="AH99" s="39">
-        <f t="shared" ref="AH99" si="271">AH97/AH98</f>
+        <f t="shared" ref="AH99" si="272">AH97/AH98</f>
         <v>0.93725723164099983</v>
       </c>
       <c r="AI99" s="39">
-        <f t="shared" ref="AI99" si="272">AI97/AI98</f>
+        <f t="shared" ref="AI99" si="273">AI97/AI98</f>
         <v>1.4422269403161123</v>
       </c>
       <c r="AJ99" s="39">
-        <f t="shared" ref="AJ99" si="273">AJ97/AJ98</f>
+        <f t="shared" ref="AJ99" si="274">AJ97/AJ98</f>
         <v>0.74367315696311531</v>
       </c>
       <c r="AK99" s="39">
-        <f t="shared" ref="AK99" si="274">AK97/AK98</f>
+        <f t="shared" ref="AK99" si="275">AK97/AK98</f>
         <v>0.52690086621751686</v>
       </c>
       <c r="AL99" s="39">
-        <f t="shared" ref="AL99" si="275">AL97/AL98</f>
+        <f t="shared" ref="AL99" si="276">AL97/AL98</f>
         <v>0.93986295462168767</v>
       </c>
       <c r="AM99" s="39">
-        <f t="shared" ref="AM99" si="276">AM97/AM98</f>
+        <f t="shared" ref="AM99" si="277">AM97/AM98</f>
         <v>1.5207803637786035</v>
       </c>
       <c r="AN99" s="39">
-        <f t="shared" ref="AN99" si="277">AN97/AN98</f>
+        <f t="shared" ref="AN99" si="278">AN97/AN98</f>
         <v>0.96144278606965172</v>
       </c>
       <c r="AO99" s="39">
-        <f t="shared" ref="AO99" si="278">AO97/AO98</f>
+        <f t="shared" ref="AO99" si="279">AO97/AO98</f>
         <v>0.90916073531670849</v>
       </c>
       <c r="AP99" s="39">
-        <f t="shared" ref="AP99" si="279">AP97/AP98</f>
+        <f t="shared" ref="AP99" si="280">AP97/AP98</f>
         <v>1.1383311472101705</v>
       </c>
       <c r="AQ99" s="39">
-        <f t="shared" ref="AQ99" si="280">AQ97/AQ98</f>
+        <f t="shared" ref="AQ99" si="281">AQ97/AQ98</f>
         <v>1.5860740115082088</v>
       </c>
       <c r="AR99" s="39">
-        <f t="shared" ref="AR99" si="281">AR97/AR98</f>
+        <f t="shared" ref="AR99" si="282">AR97/AR98</f>
         <v>0.72304236200256744</v>
       </c>
       <c r="AS99" s="39">
-        <f t="shared" ref="AS99" si="282">AS97/AS98</f>
+        <f t="shared" ref="AS99" si="283">AS97/AS98</f>
         <v>0.74582945906032927</v>
       </c>
       <c r="AT99" s="39">
-        <f t="shared" ref="AT99" si="283">AT97/AT98</f>
+        <f t="shared" ref="AT99" si="284">AT97/AT98</f>
         <v>1.2282496887012073</v>
       </c>
       <c r="AU99" s="39">
-        <f t="shared" ref="AU99:BQ99" si="284">AU97/AU98</f>
+        <f t="shared" ref="AU99:BQ99" si="285">AU97/AU98</f>
         <v>1.8472819932049831</v>
       </c>
       <c r="AV99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0.86949541284403675</v>
       </c>
       <c r="AW99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.0339710144927536</v>
       </c>
       <c r="AX99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.2886122637159982</v>
       </c>
       <c r="AY99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>2.4956008266902865</v>
       </c>
       <c r="AZ99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.5668835432459858</v>
       </c>
       <c r="BA99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.394371279090745</v>
       </c>
       <c r="BB99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.4024908688102509</v>
       </c>
       <c r="BC99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>3.0361761835041485</v>
       </c>
       <c r="BD99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.884636648442779</v>
       </c>
       <c r="BE99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.5463713419538452</v>
       </c>
       <c r="BF99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.6906758756783424</v>
       </c>
       <c r="BG99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>2.3779022211036307</v>
       </c>
       <c r="BH99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.9937923608031924</v>
       </c>
       <c r="BI99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.813797936042808</v>
       </c>
       <c r="BJ99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.5092098577235773</v>
       </c>
       <c r="BK99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>2.7264345583494518</v>
       </c>
       <c r="BL99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.6023627158250033</v>
       </c>
       <c r="BM99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>2.028322867608582</v>
       </c>
       <c r="BN99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.9369745160659584</v>
       </c>
       <c r="BO99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>2.1797506961941386</v>
       </c>
       <c r="BP99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>1.8022542350273443</v>
       </c>
       <c r="BQ99" s="39">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>2.1021941890894449</v>
       </c>
       <c r="BR99" s="39">
@@ -33001,71 +33001,71 @@
         <v>2.2054986955649207</v>
       </c>
       <c r="CA99" s="39">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>0.45233992789539101</v>
       </c>
       <c r="CB99" s="39">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.80828755590518719</v>
       </c>
       <c r="CC99" s="39">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>1.7398033506995187</v>
       </c>
       <c r="CD99" s="39">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>2.3049034180155989</v>
       </c>
       <c r="CE99" s="39">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>2.401222021352635</v>
       </c>
       <c r="CF99" s="39">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>2.8185784501039519</v>
       </c>
       <c r="CG99" s="39">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>3.991831909104143</v>
       </c>
       <c r="CH99" s="39">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>3.5840444555196753</v>
       </c>
       <c r="CI99" s="39">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>3.6526639181184319</v>
       </c>
       <c r="CJ99" s="39">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>4.5297150323751341</v>
       </c>
       <c r="CK99" s="39">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>4.2831955212723134</v>
       </c>
       <c r="CL99" s="39">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>5.0393606842577716</v>
       </c>
       <c r="CM99" s="39">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>6.8593465178372677</v>
       </c>
       <c r="CN99" s="39">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>8.1578600495791154</v>
       </c>
       <c r="CO99" s="39">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>7.6947023756732076</v>
       </c>
       <c r="CP99" s="39">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>8.294094657848996</v>
       </c>
       <c r="CQ99" s="39">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>7.747410795693682</v>
       </c>
     </row>
